--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">炭鉱に眠る黄金</t>
   </si>
   <si>
-    <t xml:space="preserve">I wonder if Master Kettle knows something?|You heard about the gold sleeping beneath Vernis from Kettle. Speak to Loytel when you are ready to develop Vernis.  (To be continued)</t>
+    <t xml:space="preserve">I wonder if Master Kettle knows something?|You heard about the gold sleeping beneath Vernis from Kettle. Speak to Loytel when you are ready to develop Vernis.</t>
   </si>
   <si>
     <t xml:space="preserve">ケトル殿なら何か知っているだろうか？|ケトルからヴェルニースの地下に眠る黄金の話を聞いた。ヴェルニースを開拓する準備を整えて、ロイテルに話しかけよう。</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="729">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -981,6 +981,15 @@
   </si>
   <si>
     <t xml:space="preserve">お話ししたいことがあります。|リサナスの情報について、ファリスは妹のシオルシアを訪ねてみるようあなたに助言した。シオルシアはホームから南西に位置するオルヴィナという村に滞在しているらしい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダミー</t>
   </si>
   <si>
     <t xml:space="preserve">order_fighter</t>
@@ -2597,10 +2606,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2609,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2627,10 +2636,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2639,7 +2648,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2657,12 +2666,12 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2680,10 +2689,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2692,7 +2701,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2710,10 +2719,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2722,7 +2731,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2740,12 +2749,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2763,10 +2772,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2775,7 +2784,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -2793,12 +2802,12 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2816,12 +2825,12 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2839,12 +2848,12 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
@@ -2862,12 +2871,12 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -2885,12 +2894,12 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="G14" t="s">
         <v>59</v>
@@ -2908,12 +2917,12 @@
         <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2931,12 +2940,12 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -2954,12 +2963,12 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G17" t="s">
         <v>68</v>
@@ -2977,12 +2986,12 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
@@ -3000,7 +3009,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -3018,7 +3027,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -3036,10 +3045,10 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C21" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
@@ -3048,7 +3057,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G21" t="s">
         <v>79</v>
@@ -3066,12 +3075,12 @@
         <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G22" t="s">
         <v>82</v>
@@ -3089,10 +3098,10 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C23" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D23" t="s">
         <v>85</v>
@@ -3101,7 +3110,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G23" t="s">
         <v>87</v>
@@ -3112,7 +3121,7 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="M23" t="s">
         <v>89</v>
@@ -3126,10 +3135,10 @@
         <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C24" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D24" t="s">
         <v>92</v>
@@ -3138,7 +3147,7 @@
         <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G24" t="s">
         <v>94</v>
@@ -3163,10 +3172,10 @@
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C25" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
@@ -3175,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="G25" t="s">
         <v>101</v>
@@ -3193,10 +3202,10 @@
         <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C26" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D26" t="s">
         <v>104</v>
@@ -3205,7 +3214,7 @@
         <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G26" t="s">
         <v>106</v>
@@ -3223,10 +3232,10 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C27" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
@@ -3235,7 +3244,7 @@
         <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G27" t="s">
         <v>111</v>
@@ -3253,10 +3262,10 @@
         <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C28" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D28" t="s">
         <v>114</v>
@@ -3265,7 +3274,7 @@
         <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="G28" t="s">
         <v>116</v>
@@ -3283,10 +3292,10 @@
         <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C29" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D29" t="s">
         <v>119</v>
@@ -3295,7 +3304,7 @@
         <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="G29" t="s">
         <v>121</v>
@@ -3313,10 +3322,10 @@
         <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C30" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D30" t="s">
         <v>124</v>
@@ -3325,7 +3334,7 @@
         <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G30" t="s">
         <v>126</v>
@@ -3343,7 +3352,7 @@
         <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -3364,10 +3373,10 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C32" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D32" t="s">
         <v>131</v>
@@ -3376,7 +3385,7 @@
         <v>132</v>
       </c>
       <c r="F32" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
@@ -3392,12 +3401,12 @@
         <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
@@ -3413,7 +3422,7 @@
         <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -3429,10 +3438,10 @@
         <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C35" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
@@ -3441,7 +3450,7 @@
         <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="G35" t="s">
         <v>140</v>
@@ -3459,7 +3468,7 @@
         <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -3475,10 +3484,10 @@
         <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D37" t="s">
         <v>144</v>
@@ -3487,7 +3496,7 @@
         <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G37" t="s">
         <v>146</v>
@@ -3505,12 +3514,12 @@
         <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G38" t="s">
         <v>149</v>
@@ -3528,12 +3537,12 @@
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="G39" t="s">
         <v>152</v>
@@ -3551,7 +3560,7 @@
         <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -3567,10 +3576,10 @@
         <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C41" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D41" t="s">
         <v>156</v>
@@ -3579,7 +3588,7 @@
         <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G41" t="s">
         <v>158</v>
@@ -3597,7 +3606,7 @@
         <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3613,10 +3622,10 @@
         <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C43" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D43" t="s">
         <v>162</v>
@@ -3625,7 +3634,7 @@
         <v>163</v>
       </c>
       <c r="F43" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G43" t="s">
         <v>106</v>
@@ -3643,10 +3652,10 @@
         <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C44" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D44" t="s">
         <v>166</v>
@@ -3655,7 +3664,7 @@
         <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G44" t="s">
         <v>106</v>
@@ -3673,10 +3682,10 @@
         <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C45" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D45" t="s">
         <v>169</v>
@@ -3685,7 +3694,7 @@
         <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="G45" t="s">
         <v>171</v>
@@ -3703,12 +3712,12 @@
         <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="G46" t="s">
         <v>174</v>
@@ -3726,7 +3735,7 @@
         <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -3742,10 +3751,10 @@
         <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C48" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D48" t="s">
         <v>178</v>
@@ -3754,7 +3763,7 @@
         <v>179</v>
       </c>
       <c r="F48" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G48" t="s">
         <v>180</v>
@@ -3772,12 +3781,12 @@
         <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G49" t="s">
         <v>183</v>
@@ -3795,12 +3804,12 @@
         <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G50" t="s">
         <v>186</v>
@@ -3818,7 +3827,7 @@
         <v>188</v>
       </c>
       <c r="B51" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -3834,10 +3843,10 @@
         <v>189</v>
       </c>
       <c r="B52" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C52" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D52" t="s">
         <v>190</v>
@@ -3846,7 +3855,7 @@
         <v>191</v>
       </c>
       <c r="F52" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="G52" t="s">
         <v>192</v>
@@ -3864,12 +3873,12 @@
         <v>194</v>
       </c>
       <c r="B53" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G53" t="s">
         <v>195</v>
@@ -3887,12 +3896,12 @@
         <v>197</v>
       </c>
       <c r="B54" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="G54" t="s">
         <v>198</v>
@@ -3910,12 +3919,12 @@
         <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G55" t="s">
         <v>201</v>
@@ -3933,12 +3942,12 @@
         <v>203</v>
       </c>
       <c r="B56" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G56" t="s">
         <v>201</v>
@@ -3956,12 +3965,12 @@
         <v>204</v>
       </c>
       <c r="B57" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="G57" t="s">
         <v>205</v>
@@ -3979,7 +3988,7 @@
         <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -3995,10 +4004,10 @@
         <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C59" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D59" t="s">
         <v>209</v>
@@ -4007,7 +4016,7 @@
         <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G59" t="s">
         <v>211</v>
@@ -4025,12 +4034,12 @@
         <v>213</v>
       </c>
       <c r="B60" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="G60" t="s">
         <v>214</v>
@@ -4048,7 +4057,7 @@
         <v>216</v>
       </c>
       <c r="B61" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -4064,10 +4073,10 @@
         <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C62" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D62" t="s">
         <v>218</v>
@@ -4076,7 +4085,7 @@
         <v>219</v>
       </c>
       <c r="F62" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="G62" t="s">
         <v>220</v>
@@ -4094,7 +4103,7 @@
         <v>222</v>
       </c>
       <c r="B63" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
@@ -4110,10 +4119,10 @@
         <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C64" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D64" t="s">
         <v>224</v>
@@ -4122,7 +4131,7 @@
         <v>225</v>
       </c>
       <c r="F64" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G64" t="s">
         <v>226</v>
@@ -4140,10 +4149,10 @@
         <v>228</v>
       </c>
       <c r="B65" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C65" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D65" t="s">
         <v>229</v>
@@ -4152,7 +4161,7 @@
         <v>230</v>
       </c>
       <c r="F65" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="G65" t="s">
         <v>231</v>
@@ -4170,7 +4179,7 @@
         <v>233</v>
       </c>
       <c r="B66" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -4186,10 +4195,10 @@
         <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C67" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D67" t="s">
         <v>235</v>
@@ -4198,7 +4207,7 @@
         <v>236</v>
       </c>
       <c r="F67" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="G67" t="s">
         <v>237</v>
@@ -4216,7 +4225,7 @@
         <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -4232,10 +4241,10 @@
         <v>240</v>
       </c>
       <c r="B69" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C69" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D69" t="s">
         <v>241</v>
@@ -4244,7 +4253,7 @@
         <v>242</v>
       </c>
       <c r="F69" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="G69" t="s">
         <v>243</v>
@@ -4262,10 +4271,10 @@
         <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C70" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D70" t="s">
         <v>246</v>
@@ -4274,7 +4283,7 @@
         <v>247</v>
       </c>
       <c r="F70" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="G70" t="s">
         <v>248</v>
@@ -4292,10 +4301,10 @@
         <v>250</v>
       </c>
       <c r="B71" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C71" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D71" t="s">
         <v>251</v>
@@ -4304,7 +4313,7 @@
         <v>252</v>
       </c>
       <c r="F71" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="G71" t="s">
         <v>253</v>
@@ -4322,10 +4331,10 @@
         <v>255</v>
       </c>
       <c r="B72" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C72" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D72" t="s">
         <v>256</v>
@@ -4334,7 +4343,7 @@
         <v>257</v>
       </c>
       <c r="F72" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="G72" t="s">
         <v>258</v>
@@ -4352,10 +4361,10 @@
         <v>260</v>
       </c>
       <c r="B73" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C73" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D73" t="s">
         <v>261</v>
@@ -4364,7 +4373,7 @@
         <v>262</v>
       </c>
       <c r="F73" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G73" t="s">
         <v>263</v>
@@ -4382,10 +4391,10 @@
         <v>265</v>
       </c>
       <c r="B74" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C74" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D74" t="s">
         <v>266</v>
@@ -4394,7 +4403,7 @@
         <v>267</v>
       </c>
       <c r="F74" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="G74" t="s">
         <v>268</v>
@@ -4412,10 +4421,10 @@
         <v>270</v>
       </c>
       <c r="B75" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C75" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D75" t="s">
         <v>271</v>
@@ -4424,7 +4433,7 @@
         <v>272</v>
       </c>
       <c r="F75" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="G75" t="s">
         <v>273</v>
@@ -4442,10 +4451,10 @@
         <v>275</v>
       </c>
       <c r="B76" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C76" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D76" t="s">
         <v>276</v>
@@ -4454,7 +4463,7 @@
         <v>277</v>
       </c>
       <c r="F76" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G76" t="s">
         <v>278</v>
@@ -4472,10 +4481,10 @@
         <v>280</v>
       </c>
       <c r="B77" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C77" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D77" t="s">
         <v>281</v>
@@ -4484,7 +4493,7 @@
         <v>282</v>
       </c>
       <c r="F77" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="G77" t="s">
         <v>283</v>
@@ -4502,10 +4511,10 @@
         <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C78" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D78" t="s">
         <v>286</v>
@@ -4514,7 +4523,7 @@
         <v>287</v>
       </c>
       <c r="F78" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="G78" t="s">
         <v>288</v>
@@ -4532,10 +4541,10 @@
         <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C79" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D79" t="s">
         <v>291</v>
@@ -4544,7 +4553,7 @@
         <v>292</v>
       </c>
       <c r="F79" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="G79" t="s">
         <v>293</v>
@@ -4562,10 +4571,10 @@
         <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C80" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D80" t="s">
         <v>296</v>
@@ -4574,7 +4583,7 @@
         <v>297</v>
       </c>
       <c r="F80" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G80" t="s">
         <v>278</v>
@@ -4592,10 +4601,10 @@
         <v>298</v>
       </c>
       <c r="B81" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C81" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D81" t="s">
         <v>299</v>
@@ -4604,7 +4613,7 @@
         <v>300</v>
       </c>
       <c r="F81" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G81" t="s">
         <v>301</v>
@@ -4622,10 +4631,10 @@
         <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C82" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D82" t="s">
         <v>304</v>
@@ -4634,7 +4643,7 @@
         <v>305</v>
       </c>
       <c r="F82" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="G82" t="s">
         <v>306</v>
@@ -4652,10 +4661,10 @@
         <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C83" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D83" t="s">
         <v>309</v>
@@ -4664,7 +4673,7 @@
         <v>310</v>
       </c>
       <c r="F83" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G83" t="s">
         <v>311</v>
@@ -4682,10 +4691,10 @@
         <v>313</v>
       </c>
       <c r="B84" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C84" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D84" t="s">
         <v>314</v>
@@ -4694,7 +4703,7 @@
         <v>315</v>
       </c>
       <c r="F84" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G84" t="s">
         <v>311</v>
@@ -4712,10 +4721,10 @@
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C85" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D85" t="s">
         <v>314</v>
@@ -4724,7 +4733,7 @@
         <v>315</v>
       </c>
       <c r="F85" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G85" t="s">
         <v>311</v>
@@ -4742,10 +4751,10 @@
         <v>317</v>
       </c>
       <c r="B86" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C86" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D86" t="s">
         <v>318</v>
@@ -4754,7 +4763,7 @@
         <v>319</v>
       </c>
       <c r="F86" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
@@ -4770,10 +4779,7 @@
         <v>321</v>
       </c>
       <c r="B87" t="s">
-        <v>534</v>
-      </c>
-      <c r="C87" t="s">
-        <v>585</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
         <v>322</v>
@@ -4781,14 +4787,11 @@
       <c r="E87" t="s">
         <v>323</v>
       </c>
-      <c r="F87" t="s">
-        <v>324</v>
-      </c>
       <c r="G87" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="H87" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -4797,28 +4800,28 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" t="s">
+        <v>537</v>
+      </c>
+      <c r="C88" t="s">
+        <v>588</v>
+      </c>
+      <c r="D88" t="s">
         <v>325</v>
       </c>
-      <c r="B88" t="s">
-        <v>534</v>
-      </c>
-      <c r="C88" t="s">
-        <v>586</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>326</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>327</v>
       </c>
-      <c r="F88" t="s">
-        <v>324</v>
-      </c>
       <c r="G88" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H88" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -4830,10 +4833,10 @@
         <v>328</v>
       </c>
       <c r="B89" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C89" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D89" t="s">
         <v>329</v>
@@ -4842,13 +4845,13 @@
         <v>330</v>
       </c>
       <c r="F89" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G89" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H89" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -4860,10 +4863,10 @@
         <v>331</v>
       </c>
       <c r="B90" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C90" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D90" t="s">
         <v>332</v>
@@ -4872,13 +4875,13 @@
         <v>333</v>
       </c>
       <c r="F90" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G90" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H90" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -4890,10 +4893,10 @@
         <v>334</v>
       </c>
       <c r="B91" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="C91" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D91" t="s">
         <v>335</v>
@@ -4902,13 +4905,13 @@
         <v>336</v>
       </c>
       <c r="F91" t="s">
-        <v>687</v>
+        <v>327</v>
       </c>
       <c r="G91" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H91" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -4917,15 +4920,22 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B92" t="s">
+        <v>521</v>
+      </c>
+      <c r="C92" t="s">
+        <v>592</v>
+      </c>
+      <c r="D92" t="s">
+        <v>338</v>
+      </c>
+      <c r="E92" t="s">
         <v>339</v>
       </c>
-      <c r="B92" t="s">
-        <v>518</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92"/>
       <c r="F92" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G92" t="s">
         <v>340</v>
@@ -4945,23 +4955,16 @@
       <c r="B93" t="s">
         <v>521</v>
       </c>
-      <c r="C93" t="s">
-        <v>590</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>691</v>
+      </c>
+      <c r="G93" t="s">
         <v>343</v>
       </c>
-      <c r="E93" t="s">
+      <c r="H93" t="s">
         <v>344</v>
-      </c>
-      <c r="F93" t="s">
-        <v>689</v>
-      </c>
-      <c r="G93" t="s">
-        <v>345</v>
-      </c>
-      <c r="H93" t="s">
-        <v>346</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -4970,28 +4973,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" t="s">
+        <v>524</v>
+      </c>
+      <c r="C94" t="s">
+        <v>593</v>
+      </c>
+      <c r="D94" t="s">
+        <v>346</v>
+      </c>
+      <c r="E94" t="s">
         <v>347</v>
       </c>
-      <c r="B94" t="s">
-        <v>518</v>
-      </c>
-      <c r="C94" t="s">
-        <v>591</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
+        <v>692</v>
+      </c>
+      <c r="G94" t="s">
         <v>348</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>349</v>
-      </c>
-      <c r="F94" t="s">
-        <v>690</v>
-      </c>
-      <c r="G94" t="s">
-        <v>350</v>
-      </c>
-      <c r="H94" t="s">
-        <v>351</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
@@ -5000,15 +5003,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>350</v>
+      </c>
+      <c r="B95" t="s">
+        <v>521</v>
+      </c>
+      <c r="C95" t="s">
+        <v>594</v>
+      </c>
+      <c r="D95" t="s">
+        <v>351</v>
+      </c>
+      <c r="E95" t="s">
         <v>352</v>
       </c>
-      <c r="B95" t="s">
-        <v>518</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95"/>
       <c r="F95" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G95" t="s">
         <v>353</v>
@@ -5028,23 +5038,16 @@
       <c r="B96" t="s">
         <v>521</v>
       </c>
-      <c r="C96" t="s">
-        <v>592</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>694</v>
+      </c>
+      <c r="G96" t="s">
         <v>356</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>357</v>
-      </c>
-      <c r="F96" t="s">
-        <v>692</v>
-      </c>
-      <c r="G96" t="s">
-        <v>358</v>
-      </c>
-      <c r="H96" t="s">
-        <v>359</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -5053,28 +5056,28 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>358</v>
+      </c>
+      <c r="B97" t="s">
+        <v>524</v>
+      </c>
+      <c r="C97" t="s">
+        <v>595</v>
+      </c>
+      <c r="D97" t="s">
+        <v>359</v>
+      </c>
+      <c r="E97" t="s">
         <v>360</v>
       </c>
-      <c r="B97" t="s">
-        <v>518</v>
-      </c>
-      <c r="C97" t="s">
-        <v>593</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
+        <v>695</v>
+      </c>
+      <c r="G97" t="s">
         <v>361</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>362</v>
-      </c>
-      <c r="F97" t="s">
-        <v>693</v>
-      </c>
-      <c r="G97" t="s">
-        <v>363</v>
-      </c>
-      <c r="H97" t="s">
-        <v>364</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -5083,15 +5086,22 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>363</v>
+      </c>
+      <c r="B98" t="s">
+        <v>521</v>
+      </c>
+      <c r="C98" t="s">
+        <v>596</v>
+      </c>
+      <c r="D98" t="s">
+        <v>364</v>
+      </c>
+      <c r="E98" t="s">
         <v>365</v>
       </c>
-      <c r="B98" t="s">
-        <v>518</v>
-      </c>
-      <c r="D98"/>
-      <c r="E98"/>
       <c r="F98" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G98" t="s">
         <v>366</v>
@@ -5111,23 +5121,16 @@
       <c r="B99" t="s">
         <v>521</v>
       </c>
-      <c r="C99" t="s">
-        <v>594</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>697</v>
+      </c>
+      <c r="G99" t="s">
         <v>369</v>
       </c>
-      <c r="E99" t="s">
+      <c r="H99" t="s">
         <v>370</v>
-      </c>
-      <c r="F99" t="s">
-        <v>695</v>
-      </c>
-      <c r="G99" t="s">
-        <v>371</v>
-      </c>
-      <c r="H99" t="s">
-        <v>372</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -5136,28 +5139,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100" t="s">
+        <v>524</v>
+      </c>
+      <c r="C100" t="s">
+        <v>597</v>
+      </c>
+      <c r="D100" t="s">
+        <v>372</v>
+      </c>
+      <c r="E100" t="s">
         <v>373</v>
       </c>
-      <c r="B100" t="s">
-        <v>535</v>
-      </c>
-      <c r="C100" t="s">
-        <v>595</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
+        <v>698</v>
+      </c>
+      <c r="G100" t="s">
         <v>374</v>
       </c>
-      <c r="E100" t="s">
+      <c r="H100" t="s">
         <v>375</v>
-      </c>
-      <c r="F100" t="s">
-        <v>696</v>
-      </c>
-      <c r="G100" t="s">
-        <v>376</v>
-      </c>
-      <c r="H100" t="s">
-        <v>377</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -5166,15 +5169,22 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>376</v>
+      </c>
+      <c r="B101" t="s">
+        <v>538</v>
+      </c>
+      <c r="C101" t="s">
+        <v>598</v>
+      </c>
+      <c r="D101" t="s">
+        <v>377</v>
+      </c>
+      <c r="E101" t="s">
         <v>378</v>
       </c>
-      <c r="B101" t="s">
-        <v>536</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101"/>
       <c r="F101" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G101" t="s">
         <v>379</v>
@@ -5192,25 +5202,18 @@
         <v>381</v>
       </c>
       <c r="B102" t="s">
-        <v>521</v>
-      </c>
-      <c r="C102" t="s">
-        <v>596</v>
-      </c>
-      <c r="D102" t="s">
+        <v>539</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>700</v>
+      </c>
+      <c r="G102" t="s">
         <v>382</v>
       </c>
-      <c r="E102" t="s">
+      <c r="H102" t="s">
         <v>383</v>
-      </c>
-      <c r="F102" t="s">
-        <v>698</v>
-      </c>
-      <c r="G102" t="s">
-        <v>384</v>
-      </c>
-      <c r="H102" t="s">
-        <v>385</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -5219,28 +5222,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>384</v>
+      </c>
+      <c r="B103" t="s">
+        <v>524</v>
+      </c>
+      <c r="C103" t="s">
+        <v>599</v>
+      </c>
+      <c r="D103" t="s">
+        <v>385</v>
+      </c>
+      <c r="E103" t="s">
         <v>386</v>
       </c>
-      <c r="B103" t="s">
-        <v>521</v>
-      </c>
-      <c r="C103" t="s">
-        <v>597</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
+        <v>701</v>
+      </c>
+      <c r="G103" t="s">
         <v>387</v>
       </c>
-      <c r="E103" t="s">
+      <c r="H103" t="s">
         <v>388</v>
-      </c>
-      <c r="F103" t="s">
-        <v>699</v>
-      </c>
-      <c r="G103" t="s">
-        <v>389</v>
-      </c>
-      <c r="H103" t="s">
-        <v>390</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -5249,28 +5252,28 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>389</v>
+      </c>
+      <c r="B104" t="s">
+        <v>524</v>
+      </c>
+      <c r="C104" t="s">
+        <v>600</v>
+      </c>
+      <c r="D104" t="s">
+        <v>390</v>
+      </c>
+      <c r="E104" t="s">
         <v>391</v>
       </c>
-      <c r="B104" t="s">
-        <v>522</v>
-      </c>
-      <c r="C104" t="s">
-        <v>598</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
+        <v>702</v>
+      </c>
+      <c r="G104" t="s">
         <v>392</v>
       </c>
-      <c r="E104" t="s">
+      <c r="H104" t="s">
         <v>393</v>
-      </c>
-      <c r="F104" t="s">
-        <v>700</v>
-      </c>
-      <c r="G104" t="s">
-        <v>394</v>
-      </c>
-      <c r="H104" t="s">
-        <v>395</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -5279,28 +5282,28 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>394</v>
+      </c>
+      <c r="B105" t="s">
+        <v>525</v>
+      </c>
+      <c r="C105" t="s">
+        <v>601</v>
+      </c>
+      <c r="D105" t="s">
+        <v>395</v>
+      </c>
+      <c r="E105" t="s">
         <v>396</v>
       </c>
-      <c r="B105" t="s">
-        <v>521</v>
-      </c>
-      <c r="C105" t="s">
-        <v>599</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
+        <v>703</v>
+      </c>
+      <c r="G105" t="s">
         <v>397</v>
       </c>
-      <c r="E105" t="s">
+      <c r="H105" t="s">
         <v>398</v>
-      </c>
-      <c r="F105" t="s">
-        <v>701</v>
-      </c>
-      <c r="G105" t="s">
-        <v>399</v>
-      </c>
-      <c r="H105" t="s">
-        <v>400</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -5309,28 +5312,28 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>399</v>
+      </c>
+      <c r="B106" t="s">
+        <v>524</v>
+      </c>
+      <c r="C106" t="s">
+        <v>602</v>
+      </c>
+      <c r="D106" t="s">
+        <v>400</v>
+      </c>
+      <c r="E106" t="s">
         <v>401</v>
       </c>
-      <c r="B106" t="s">
-        <v>521</v>
-      </c>
-      <c r="C106" t="s">
-        <v>600</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
+        <v>704</v>
+      </c>
+      <c r="G106" t="s">
         <v>402</v>
       </c>
-      <c r="E106" t="s">
+      <c r="H106" t="s">
         <v>403</v>
-      </c>
-      <c r="F106" t="s">
-        <v>702</v>
-      </c>
-      <c r="G106" t="s">
-        <v>404</v>
-      </c>
-      <c r="H106" t="s">
-        <v>405</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -5339,28 +5342,28 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>404</v>
+      </c>
+      <c r="B107" t="s">
+        <v>524</v>
+      </c>
+      <c r="C107" t="s">
+        <v>603</v>
+      </c>
+      <c r="D107" t="s">
+        <v>405</v>
+      </c>
+      <c r="E107" t="s">
         <v>406</v>
       </c>
-      <c r="B107" t="s">
-        <v>537</v>
-      </c>
-      <c r="C107" t="s">
-        <v>601</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
+        <v>705</v>
+      </c>
+      <c r="G107" t="s">
         <v>407</v>
       </c>
-      <c r="E107" t="s">
+      <c r="H107" t="s">
         <v>408</v>
-      </c>
-      <c r="F107" t="s">
-        <v>703</v>
-      </c>
-      <c r="G107" t="s">
-        <v>409</v>
-      </c>
-      <c r="H107" t="s">
-        <v>410</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -5369,28 +5372,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>409</v>
+      </c>
+      <c r="B108" t="s">
+        <v>540</v>
+      </c>
+      <c r="C108" t="s">
+        <v>604</v>
+      </c>
+      <c r="D108" t="s">
+        <v>410</v>
+      </c>
+      <c r="E108" t="s">
         <v>411</v>
       </c>
-      <c r="B108" t="s">
-        <v>538</v>
-      </c>
-      <c r="C108" t="s">
-        <v>602</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
+        <v>706</v>
+      </c>
+      <c r="G108" t="s">
         <v>412</v>
       </c>
-      <c r="E108" t="s">
+      <c r="H108" t="s">
         <v>413</v>
-      </c>
-      <c r="F108" t="s">
-        <v>704</v>
-      </c>
-      <c r="G108" t="s">
-        <v>414</v>
-      </c>
-      <c r="H108" t="s">
-        <v>415</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -5399,28 +5402,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>414</v>
+      </c>
+      <c r="B109" t="s">
+        <v>541</v>
+      </c>
+      <c r="C109" t="s">
+        <v>605</v>
+      </c>
+      <c r="D109" t="s">
+        <v>415</v>
+      </c>
+      <c r="E109" t="s">
         <v>416</v>
       </c>
-      <c r="B109" t="s">
-        <v>521</v>
-      </c>
-      <c r="C109" t="s">
-        <v>603</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
+        <v>707</v>
+      </c>
+      <c r="G109" t="s">
         <v>417</v>
       </c>
-      <c r="E109" t="s">
+      <c r="H109" t="s">
         <v>418</v>
-      </c>
-      <c r="F109" t="s">
-        <v>705</v>
-      </c>
-      <c r="G109" t="s">
-        <v>419</v>
-      </c>
-      <c r="H109" t="s">
-        <v>420</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -5429,28 +5432,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>419</v>
+      </c>
+      <c r="B110" t="s">
+        <v>524</v>
+      </c>
+      <c r="C110" t="s">
+        <v>606</v>
+      </c>
+      <c r="D110" t="s">
+        <v>420</v>
+      </c>
+      <c r="E110" t="s">
         <v>421</v>
       </c>
-      <c r="B110" t="s">
-        <v>521</v>
-      </c>
-      <c r="C110" t="s">
-        <v>604</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
+        <v>708</v>
+      </c>
+      <c r="G110" t="s">
         <v>422</v>
       </c>
-      <c r="E110" t="s">
+      <c r="H110" t="s">
         <v>423</v>
-      </c>
-      <c r="F110" t="s">
-        <v>706</v>
-      </c>
-      <c r="G110" t="s">
-        <v>424</v>
-      </c>
-      <c r="H110" t="s">
-        <v>425</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -5459,28 +5462,28 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>424</v>
+      </c>
+      <c r="B111" t="s">
+        <v>524</v>
+      </c>
+      <c r="C111" t="s">
+        <v>607</v>
+      </c>
+      <c r="D111" t="s">
+        <v>425</v>
+      </c>
+      <c r="E111" t="s">
         <v>426</v>
       </c>
-      <c r="B111" t="s">
-        <v>521</v>
-      </c>
-      <c r="C111" t="s">
-        <v>605</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
+        <v>709</v>
+      </c>
+      <c r="G111" t="s">
         <v>427</v>
       </c>
-      <c r="E111" t="s">
+      <c r="H111" t="s">
         <v>428</v>
-      </c>
-      <c r="F111" t="s">
-        <v>707</v>
-      </c>
-      <c r="G111" t="s">
-        <v>429</v>
-      </c>
-      <c r="H111" t="s">
-        <v>430</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -5489,28 +5492,28 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>429</v>
+      </c>
+      <c r="B112" t="s">
+        <v>524</v>
+      </c>
+      <c r="C112" t="s">
+        <v>608</v>
+      </c>
+      <c r="D112" t="s">
+        <v>430</v>
+      </c>
+      <c r="E112" t="s">
         <v>431</v>
       </c>
-      <c r="B112" t="s">
-        <v>521</v>
-      </c>
-      <c r="C112" t="s">
-        <v>606</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
+        <v>710</v>
+      </c>
+      <c r="G112" t="s">
         <v>432</v>
       </c>
-      <c r="E112" t="s">
+      <c r="H112" t="s">
         <v>433</v>
-      </c>
-      <c r="F112" t="s">
-        <v>708</v>
-      </c>
-      <c r="G112" t="s">
-        <v>434</v>
-      </c>
-      <c r="H112" t="s">
-        <v>435</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -5519,28 +5522,28 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>434</v>
+      </c>
+      <c r="B113" t="s">
+        <v>524</v>
+      </c>
+      <c r="C113" t="s">
+        <v>609</v>
+      </c>
+      <c r="D113" t="s">
+        <v>435</v>
+      </c>
+      <c r="E113" t="s">
         <v>436</v>
       </c>
-      <c r="B113" t="s">
-        <v>520</v>
-      </c>
-      <c r="C113" t="s">
-        <v>607</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
+        <v>711</v>
+      </c>
+      <c r="G113" t="s">
         <v>437</v>
       </c>
-      <c r="E113" t="s">
+      <c r="H113" t="s">
         <v>438</v>
-      </c>
-      <c r="F113" t="s">
-        <v>709</v>
-      </c>
-      <c r="G113" t="s">
-        <v>439</v>
-      </c>
-      <c r="H113" t="s">
-        <v>440</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -5549,28 +5552,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>439</v>
+      </c>
+      <c r="B114" t="s">
+        <v>523</v>
+      </c>
+      <c r="C114" t="s">
+        <v>610</v>
+      </c>
+      <c r="D114" t="s">
+        <v>440</v>
+      </c>
+      <c r="E114" t="s">
         <v>441</v>
       </c>
-      <c r="B114" t="s">
-        <v>521</v>
-      </c>
-      <c r="C114" t="s">
-        <v>608</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
+        <v>712</v>
+      </c>
+      <c r="G114" t="s">
         <v>442</v>
       </c>
-      <c r="E114" t="s">
+      <c r="H114" t="s">
         <v>443</v>
-      </c>
-      <c r="F114" t="s">
-        <v>710</v>
-      </c>
-      <c r="G114" t="s">
-        <v>444</v>
-      </c>
-      <c r="H114" t="s">
-        <v>445</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -5579,28 +5582,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>444</v>
+      </c>
+      <c r="B115" t="s">
+        <v>524</v>
+      </c>
+      <c r="C115" t="s">
+        <v>611</v>
+      </c>
+      <c r="D115" t="s">
+        <v>445</v>
+      </c>
+      <c r="E115" t="s">
         <v>446</v>
       </c>
-      <c r="B115" t="s">
-        <v>521</v>
-      </c>
-      <c r="C115" t="s">
-        <v>609</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
+        <v>713</v>
+      </c>
+      <c r="G115" t="s">
         <v>447</v>
       </c>
-      <c r="E115" t="s">
+      <c r="H115" t="s">
         <v>448</v>
-      </c>
-      <c r="F115" t="s">
-        <v>711</v>
-      </c>
-      <c r="G115" t="s">
-        <v>449</v>
-      </c>
-      <c r="H115" t="s">
-        <v>450</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
@@ -5609,28 +5612,28 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>449</v>
+      </c>
+      <c r="B116" t="s">
+        <v>524</v>
+      </c>
+      <c r="C116" t="s">
+        <v>612</v>
+      </c>
+      <c r="D116" t="s">
+        <v>450</v>
+      </c>
+      <c r="E116" t="s">
         <v>451</v>
       </c>
-      <c r="B116" t="s">
-        <v>521</v>
-      </c>
-      <c r="C116" t="s">
-        <v>610</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="F116" t="s">
+        <v>714</v>
+      </c>
+      <c r="G116" t="s">
         <v>452</v>
       </c>
-      <c r="E116" t="s">
+      <c r="H116" t="s">
         <v>453</v>
-      </c>
-      <c r="F116" t="s">
-        <v>712</v>
-      </c>
-      <c r="G116" t="s">
-        <v>454</v>
-      </c>
-      <c r="H116" t="s">
-        <v>455</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -5639,28 +5642,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>454</v>
+      </c>
+      <c r="B117" t="s">
+        <v>524</v>
+      </c>
+      <c r="C117" t="s">
+        <v>613</v>
+      </c>
+      <c r="D117" t="s">
+        <v>455</v>
+      </c>
+      <c r="E117" t="s">
         <v>456</v>
       </c>
-      <c r="B117" t="s">
-        <v>521</v>
-      </c>
-      <c r="C117" t="s">
-        <v>611</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
+        <v>715</v>
+      </c>
+      <c r="G117" t="s">
         <v>457</v>
       </c>
-      <c r="E117" t="s">
+      <c r="H117" t="s">
         <v>458</v>
-      </c>
-      <c r="F117" t="s">
-        <v>713</v>
-      </c>
-      <c r="G117" t="s">
-        <v>459</v>
-      </c>
-      <c r="H117" t="s">
-        <v>460</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -5669,28 +5672,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>459</v>
+      </c>
+      <c r="B118" t="s">
+        <v>524</v>
+      </c>
+      <c r="C118" t="s">
+        <v>614</v>
+      </c>
+      <c r="D118" t="s">
+        <v>460</v>
+      </c>
+      <c r="E118" t="s">
         <v>461</v>
       </c>
-      <c r="B118" t="s">
-        <v>521</v>
-      </c>
-      <c r="C118" t="s">
-        <v>612</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
+        <v>716</v>
+      </c>
+      <c r="G118" t="s">
         <v>462</v>
       </c>
-      <c r="E118" t="s">
+      <c r="H118" t="s">
         <v>463</v>
-      </c>
-      <c r="F118" t="s">
-        <v>714</v>
-      </c>
-      <c r="G118" t="s">
-        <v>464</v>
-      </c>
-      <c r="H118" t="s">
-        <v>465</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -5699,28 +5702,28 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>464</v>
+      </c>
+      <c r="B119" t="s">
+        <v>524</v>
+      </c>
+      <c r="C119" t="s">
+        <v>615</v>
+      </c>
+      <c r="D119" t="s">
+        <v>465</v>
+      </c>
+      <c r="E119" t="s">
         <v>466</v>
       </c>
-      <c r="B119" t="s">
-        <v>521</v>
-      </c>
-      <c r="C119" t="s">
-        <v>613</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
+        <v>717</v>
+      </c>
+      <c r="G119" t="s">
         <v>467</v>
       </c>
-      <c r="E119" t="s">
+      <c r="H119" t="s">
         <v>468</v>
-      </c>
-      <c r="F119" t="s">
-        <v>715</v>
-      </c>
-      <c r="G119" t="s">
-        <v>469</v>
-      </c>
-      <c r="H119" t="s">
-        <v>470</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -5729,28 +5732,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>469</v>
+      </c>
+      <c r="B120" t="s">
+        <v>524</v>
+      </c>
+      <c r="C120" t="s">
+        <v>616</v>
+      </c>
+      <c r="D120" t="s">
+        <v>470</v>
+      </c>
+      <c r="E120" t="s">
         <v>471</v>
       </c>
-      <c r="B120" t="s">
-        <v>521</v>
-      </c>
-      <c r="C120" t="s">
-        <v>614</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
+        <v>718</v>
+      </c>
+      <c r="G120" t="s">
         <v>472</v>
       </c>
-      <c r="E120" t="s">
+      <c r="H120" t="s">
         <v>473</v>
-      </c>
-      <c r="F120" t="s">
-        <v>716</v>
-      </c>
-      <c r="G120" t="s">
-        <v>474</v>
-      </c>
-      <c r="H120" t="s">
-        <v>475</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -5759,28 +5762,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>474</v>
+      </c>
+      <c r="B121" t="s">
+        <v>524</v>
+      </c>
+      <c r="C121" t="s">
+        <v>617</v>
+      </c>
+      <c r="D121" t="s">
+        <v>475</v>
+      </c>
+      <c r="E121" t="s">
         <v>476</v>
       </c>
-      <c r="B121" t="s">
-        <v>521</v>
-      </c>
-      <c r="C121" t="s">
-        <v>614</v>
-      </c>
-      <c r="D121" t="s">
-        <v>472</v>
-      </c>
-      <c r="E121" t="s">
-        <v>473</v>
-      </c>
       <c r="F121" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G121" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H121" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -5789,28 +5792,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B122" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C122" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D122" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E122" t="s">
+        <v>476</v>
+      </c>
+      <c r="F122" t="s">
+        <v>719</v>
+      </c>
+      <c r="G122" t="s">
+        <v>477</v>
+      </c>
+      <c r="H122" t="s">
         <v>480</v>
-      </c>
-      <c r="F122" t="s">
-        <v>717</v>
-      </c>
-      <c r="G122" t="s">
-        <v>481</v>
-      </c>
-      <c r="H122" t="s">
-        <v>482</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
@@ -5819,28 +5822,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>481</v>
+      </c>
+      <c r="B123" t="s">
+        <v>524</v>
+      </c>
+      <c r="C123" t="s">
+        <v>618</v>
+      </c>
+      <c r="D123" t="s">
+        <v>482</v>
+      </c>
+      <c r="E123" t="s">
         <v>483</v>
       </c>
-      <c r="B123" t="s">
-        <v>521</v>
-      </c>
-      <c r="C123" t="s">
-        <v>616</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
+        <v>720</v>
+      </c>
+      <c r="G123" t="s">
         <v>484</v>
       </c>
-      <c r="E123" t="s">
+      <c r="H123" t="s">
         <v>485</v>
-      </c>
-      <c r="F123" t="s">
-        <v>718</v>
-      </c>
-      <c r="G123" t="s">
-        <v>486</v>
-      </c>
-      <c r="H123" t="s">
-        <v>487</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -5849,28 +5852,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>486</v>
+      </c>
+      <c r="B124" t="s">
+        <v>524</v>
+      </c>
+      <c r="C124" t="s">
+        <v>619</v>
+      </c>
+      <c r="D124" t="s">
+        <v>487</v>
+      </c>
+      <c r="E124" t="s">
         <v>488</v>
       </c>
-      <c r="B124" t="s">
-        <v>521</v>
-      </c>
-      <c r="C124" t="s">
-        <v>617</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
+        <v>721</v>
+      </c>
+      <c r="G124" t="s">
         <v>489</v>
       </c>
-      <c r="E124" t="s">
+      <c r="H124" t="s">
         <v>490</v>
-      </c>
-      <c r="F124" t="s">
-        <v>719</v>
-      </c>
-      <c r="G124" t="s">
-        <v>491</v>
-      </c>
-      <c r="H124" t="s">
-        <v>492</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
@@ -5879,28 +5882,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>491</v>
+      </c>
+      <c r="B125" t="s">
+        <v>524</v>
+      </c>
+      <c r="C125" t="s">
+        <v>620</v>
+      </c>
+      <c r="D125" t="s">
+        <v>492</v>
+      </c>
+      <c r="E125" t="s">
         <v>493</v>
       </c>
-      <c r="B125" t="s">
-        <v>521</v>
-      </c>
-      <c r="C125" t="s">
-        <v>618</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
+        <v>722</v>
+      </c>
+      <c r="G125" t="s">
         <v>494</v>
       </c>
-      <c r="E125" t="s">
+      <c r="H125" t="s">
         <v>495</v>
-      </c>
-      <c r="F125" t="s">
-        <v>720</v>
-      </c>
-      <c r="G125" t="s">
-        <v>496</v>
-      </c>
-      <c r="H125" t="s">
-        <v>497</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
@@ -5909,28 +5912,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>496</v>
+      </c>
+      <c r="B126" t="s">
+        <v>524</v>
+      </c>
+      <c r="C126" t="s">
+        <v>621</v>
+      </c>
+      <c r="D126" t="s">
+        <v>497</v>
+      </c>
+      <c r="E126" t="s">
         <v>498</v>
       </c>
-      <c r="B126" t="s">
-        <v>521</v>
-      </c>
-      <c r="C126" t="s">
-        <v>619</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
+        <v>723</v>
+      </c>
+      <c r="G126" t="s">
         <v>499</v>
       </c>
-      <c r="E126" t="s">
+      <c r="H126" t="s">
         <v>500</v>
-      </c>
-      <c r="F126" t="s">
-        <v>721</v>
-      </c>
-      <c r="G126" t="s">
-        <v>501</v>
-      </c>
-      <c r="H126" t="s">
-        <v>502</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
@@ -5939,28 +5942,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>501</v>
+      </c>
+      <c r="B127" t="s">
+        <v>524</v>
+      </c>
+      <c r="C127" t="s">
+        <v>622</v>
+      </c>
+      <c r="D127" t="s">
+        <v>502</v>
+      </c>
+      <c r="E127" t="s">
         <v>503</v>
       </c>
-      <c r="B127" t="s">
-        <v>539</v>
-      </c>
-      <c r="C127" t="s">
-        <v>620</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
+        <v>724</v>
+      </c>
+      <c r="G127" t="s">
         <v>504</v>
       </c>
-      <c r="E127" t="s">
+      <c r="H127" t="s">
         <v>505</v>
-      </c>
-      <c r="F127" t="s">
-        <v>722</v>
-      </c>
-      <c r="G127" t="s">
-        <v>506</v>
-      </c>
-      <c r="H127" t="s">
-        <v>507</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -5969,28 +5972,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>506</v>
+      </c>
+      <c r="B128" t="s">
+        <v>542</v>
+      </c>
+      <c r="C128" t="s">
+        <v>623</v>
+      </c>
+      <c r="D128" t="s">
+        <v>507</v>
+      </c>
+      <c r="E128" t="s">
         <v>508</v>
       </c>
-      <c r="B128" t="s">
-        <v>522</v>
-      </c>
-      <c r="C128" t="s">
-        <v>621</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
+        <v>725</v>
+      </c>
+      <c r="G128" t="s">
         <v>509</v>
       </c>
-      <c r="E128" t="s">
+      <c r="H128" t="s">
         <v>510</v>
-      </c>
-      <c r="F128" t="s">
-        <v>723</v>
-      </c>
-      <c r="G128" t="s">
-        <v>511</v>
-      </c>
-      <c r="H128" t="s">
-        <v>512</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
@@ -5999,33 +6002,63 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>511</v>
+      </c>
+      <c r="B129" t="s">
+        <v>525</v>
+      </c>
+      <c r="C129" t="s">
+        <v>624</v>
+      </c>
+      <c r="D129" t="s">
+        <v>512</v>
+      </c>
+      <c r="E129" t="s">
         <v>513</v>
       </c>
-      <c r="B129" t="s">
-        <v>522</v>
-      </c>
-      <c r="C129" t="s">
-        <v>622</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
+        <v>726</v>
+      </c>
+      <c r="G129" t="s">
         <v>514</v>
       </c>
-      <c r="E129" t="s">
+      <c r="H129" t="s">
         <v>515</v>
-      </c>
-      <c r="F129" t="s">
-        <v>724</v>
-      </c>
-      <c r="G129" t="s">
-        <v>516</v>
-      </c>
-      <c r="H129" t="s">
-        <v>517</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
       <c r="M129"/>
       <c r="N129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>516</v>
+      </c>
+      <c r="B130" t="s">
+        <v>525</v>
+      </c>
+      <c r="C130" t="s">
+        <v>625</v>
+      </c>
+      <c r="D130" t="s">
+        <v>517</v>
+      </c>
+      <c r="E130" t="s">
+        <v>518</v>
+      </c>
+      <c r="F130" t="s">
+        <v>727</v>
+      </c>
+      <c r="G130" t="s">
+        <v>519</v>
+      </c>
+      <c r="H130" t="s">
+        <v>520</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="M130"/>
+      <c r="N130"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">はじめての出荷箱</t>
   </si>
   <si>
-    <t xml:space="preserve">Time to make money.|You have been asked by Loyted to create a shipping chest. Use the materials he provided to build the chest, place it on the ground, and then report back to Loytel. Remember to use palulu wood for the shipping chest.</t>
+    <t xml:space="preserve">Time to make money.|You have been asked by Loytel to create a shipping chest. Use the materials he provided to build the chest, place it on the ground, and then report back to Loytel. Remember to use palulu wood for the shipping chest.</t>
   </si>
   <si>
     <t xml:space="preserve">金を稼ぐぞ。|ロイテルに出荷箱を作成するよう頼まれた。彼から渡された素材を使って出荷箱を製作し、地面に設置してからロイテルに報告しよう。出荷箱には必ずパルルの木材を使う必要がある。</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="731">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -116,135 +116,6 @@
     <t xml:space="preserve">ミシリアは復興と存続のために盟友を必要としている。新天地の発展を進めれば、ミシリアから報せが届くかもしれない。</t>
   </si>
   <si>
-    <t xml:space="preserve">into_darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Into Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇へ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone, gather up, please.|You need to find a way to deal with Issizzle. (To Be Continued)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。(続く)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">into_darkness1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be continued.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次回へ続く。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Beneath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭鉱に眠る黄金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wonder if Master Kettle knows something?|You heard about the gold sleeping beneath Vernis from Kettle. Speak to Loytel when you are ready to develop Vernis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ケトル殿なら何か知っているだろうか？|ケトルからヴェルニースの地下に眠る黄金の話を聞いた。ヴェルニースを開拓する準備を整えて、ロイテルに話しかけよう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vernis is located a bit north from the first base. Once you arrive in Vernis, report to Loytel who will be waiting there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最初の拠点から北にしばらく行った場所にヴェルニースはある。ヴェルニースに到着したら、現地で待っているロイテルに報告しよう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk to Loytel when you're ready to start developing Vernis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">開拓の準備が整ったらロイテルに話しかけよう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loytel gave you a recipe for a homemade bomb called "Flam". Use the bomb to destroy all the huge rocks in Vernis and then report back to Loytel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ロイテルはあなたに手製爆弾「フラム」のレシピを渡した。爆弾を使って巨大な岩を全て破壊し、ヴェルニースでロイテルに報告しなければならない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loytel gave you a "Land Deed". Talk to Loytel once you have claimed the rights to the land.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ロイテルから「土地の権利書」を受け取った。ヴェルニースの土地の権利を獲得し、ロイテルに話しかけよう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The development of Vernis has begun. Grow the Hearth Stone in Vernis and report it to Loytel. Ask Loytel if you're unsure how to grow the Hearth Stone. Also, you need to continue conversations with your companions on the quest board. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヴェルニースの開拓が始まった。ヴェルニースの盟約の石を成長させ、ロイテルに報告しなければならない。石の成長の方法がわからない場合は、ロイテルに相談しよう。また、依頼掲示板でクルイツゥア達との会話を進行させる必要がある。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dragon has appeared in the underground of Vernis. Talk to Loytel once you are ready to confront it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヴェルニースの地下に竜が出現した。竜退治の心構えができたらロイテルに話しかけよう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are tasked with defeating the Steel Dragon Corgon to protect Vernis. Head deep into the mine of Vernis and slay the dragon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヴェルニースを守るために鋼鉄竜コルゴンの討伐を頼まれた。炭鉱の地下深くに赴き、竜を退治しなければならない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You encountered an ancient monster Tephra in the depths of the Vernis mine. You must defeat this creature to advance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭鉱の地下には古の魔物テフラが待ち構えていた。先に進むためにこの魔物を倒さなければならない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The true identity of the dragon nesting deep in the mine turns out to be the progeny of the now deceased Steel Dragon Corgon. Return to the surface and talk to Loytel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭鉱の地下深くに巣食う竜の正体は、今は亡き鋼鉄竜コルゴンの忘れ形見だった。地上に戻り、ロイテルに報告しよう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis_gold11</t>
-  </si>
-  <si>
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
@@ -354,57 +225,6 @@
   </si>
   <si>
     <t xml:space="preserve">あなー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre_debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beyond Despair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絶望の果てに</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please come, #pc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#pc様、来てください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre_debt_runaway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">行方不明の監査官</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farris asked you to find Loytel who has gone missing. He always said he wanted to drink Olvina's wine one more time...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">行方不明になったロイテルを探すようファリスに頼まれた。オルヴィナのワインをもう一度飲みたいと、ロイテルはいつも言っていたが…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Thus Into Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そして伝説へ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|You promised to help Loytel pay off his 20 million oren debt. Get debt bills from Loytel, and submit them to tax chest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|ロイテルの二千万オレンの借金の返済の手助けを約束した。ロイテルから借金の返済書をもらい、納税箱に納めよう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debt1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|2</t>
   </si>
   <si>
     <t xml:space="preserve">companion</t>
@@ -586,6 +406,51 @@
     <t xml:space="preserve">crafter3</t>
   </si>
   <si>
+    <t xml:space="preserve">tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Liability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">納税の義務</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hate to tell you but...| You have learned about your tax obligations. First you have to wait until you receive your tax bill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">言いにくいことがあるのだが…|あなたは納税の義務について学んだ。まずは税金の請求書が送られてくるまで待たなければならない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| You have received your tax bill. You can pay the tax at the town hall in Mysilia which is located southeast of the city road.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|あなたは税金の請求書を受け取った。街道を南東に進んだ先にあるミシリアの役所で納税することができる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyris Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ティリス議会</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever heard of the Tyris Council? |In North Tyris, the Tyris Union holds a monthly council meeting. you were advised to talk to several council members first to get to know them better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ティリス議会について君に教えよう。|ノースティリスでは毎月ティリス連盟による評議会が開催される。まずは複数の議員と実際に話し面識を広げるよう助言された。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">council1</t>
+  </si>
+  <si>
     <t xml:space="preserve">exploration</t>
   </si>
   <si>
@@ -644,51 +509,6 @@
     <t xml:space="preserve">exploration6</t>
   </si>
   <si>
-    <t xml:space="preserve">tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Liability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">納税の義務</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I hate to tell you but...| You have learned about your tax obligations. First you have to wait until you receive your tax bill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">言いにくいことがあるのだが…|あなたは納税の義務について学んだ。まずは税金の請求書が送られてくるまで待たなければならない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| You have received your tax bill. You can pay the tax at the town hall in Mysilia which is located southeast of the city road.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|あなたは税金の請求書を受け取った。街道を南東に進んだ先にあるミシリアの役所で納税することができる。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyris Council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ティリス議会</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you ever heard of the Tyris Council? |In North Tyris, the Tyris Union holds a monthly council meeting. you were advised to talk to several council members first to get to know them better.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ティリス議会について君に教えよう。|ノースティリスでは毎月ティリス連盟による評議会が開催される。まずは複数の議員と実際に話し面識を広げるよう助言された。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">council1</t>
-  </si>
-  <si>
     <t xml:space="preserve">introInspector</t>
   </si>
   <si>
@@ -755,6 +575,201 @@
     <t xml:space="preserve">アッシュ達が何か話しているな。</t>
   </si>
   <si>
+    <t xml:space="preserve">farris_tulip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talesinger's Consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唄い手の心遣い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sky is beautiful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空が綺麗だな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kettle_join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wandering Alchemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">放浪の錬金術師</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It looks like someone has arrived.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">誰かが訪ねてきたようだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quru_morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Hour in the Morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朝の一時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this delicious smell?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美味しそうな匂いがするな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quru_sing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Flower and a Girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">花と少女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmm-hmm♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふんふん♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quru_past1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ill-Eyed Girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">災眼の少女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's with the long face?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浮かない顔をしているね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quru_past2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaking of the Devil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">噂をすれば</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(whispering)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（ひそひそ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Beneath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭鉱に眠る黄金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder if Master Kettle knows something?|You heard about the gold sleeping beneath Vernis from Kettle. Speak to Loytel when you are ready to develop Vernis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケトル殿なら何か知っているだろうか？|ケトルからヴェルニースの地下に眠る黄金の話を聞いた。ヴェルニースを開拓する準備を整えて、ロイテルに話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vernis is located a bit north from the first base. Once you arrive in Vernis, report to Loytel who will be waiting there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最初の拠点から北にしばらく行った場所にヴェルニースはある。ヴェルニースに到着したら、現地で待っているロイテルに報告しよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to Loytel when you're ready to start developing Vernis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開拓の準備が整ったらロイテルに話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loytel gave you a recipe for a homemade bomb called "Flam". Use the bomb to destroy all the huge rocks in Vernis and then report back to Loytel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロイテルはあなたに手製爆弾「フラム」のレシピを渡した。爆弾を使って巨大な岩を全て破壊し、ヴェルニースでロイテルに報告しなければならない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loytel gave you a "Land Deed". Talk to Loytel once you have claimed the rights to the land.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロイテルから「土地の権利書」を受け取った。ヴェルニースの土地の権利を獲得し、ロイテルに話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The development of Vernis has begun. Grow the Hearth Stone in Vernis and report it to Loytel. Ask Loytel if you're unsure how to grow the Hearth Stone. Also, you need to continue conversations with your companions on the quest board. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヴェルニースの開拓が始まった。ヴェルニースの盟約の石を成長させ、ロイテルに報告しなければならない。石の成長の方法がわからない場合は、ロイテルに相談しよう。また、依頼掲示板でクルイツゥア達との会話を進行させる必要がある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dragon has appeared in the underground of Vernis. Talk to Loytel once you are ready to confront it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヴェルニースの地下に竜が出現した。竜退治の心構えができたらロイテルに話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are tasked with defeating the Steel Dragon Corgon to protect Vernis. Head deep into the mine of Vernis and slay the dragon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヴェルニースを守るために鋼鉄竜コルゴンの討伐を頼まれた。炭鉱の地下深くに赴き、竜を退治しなければならない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You encountered an ancient monster Tephra in the depths of the Vernis mine. You must defeat this creature to advance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭鉱の地下には古の魔物テフラが待ち構えていた。先に進むためにこの魔物を倒さなければならない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The true identity of the dragon nesting deep in the mine turns out to be the progeny of the now deceased Steel Dragon Corgon. Return to the surface and talk to Loytel in Vernis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭鉱の地下深くに巣食う竜の正体は、今は亡き鋼鉄竜コルゴンの忘れ形見だった。ヴェルニースの地上に戻り、ロイテルに報告しよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis_gold11</t>
+  </si>
+  <si>
     <t xml:space="preserve">after_vernis</t>
   </si>
   <si>
@@ -770,94 +785,70 @@
     <t xml:space="preserve">おほん…ちょっとこっちに来い。</t>
   </si>
   <si>
-    <t xml:space="preserve">farris_tulip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talesinger's Consideration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">唄い手の心遣い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sky is beautiful.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">空が綺麗だな。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kettle_join</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wandering Alchemist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">放浪の錬金術師</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It looks like someone has arrived.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">誰かが訪ねてきたようだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quru_morning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Hour in the Morning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朝の一時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is this delicious smell?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美味しそうな匂いがするな。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quru_sing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Flower and a Girl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">花と少女</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hmm-hmm♪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふんふん♪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quru_past1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ill-Eyed Girl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">災眼の少女</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What's with the long face?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浮かない顔をしているね。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quru_past2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaking of the Devil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">噂をすれば</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(whispering)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（ひそひそ）</t>
+    <t xml:space="preserve">mokyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragonic Language Lesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜言語の教え</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mokyu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もきゅ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre_debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond Despair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絶望の果てに</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please come, #pc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#pc様、来てください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre_debt_runaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Inspector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行方不明の監査官</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farris asked you to find Loytel who has gone missing. He always said he wanted to drink Olvina's wine one more time...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行方不明になったロイテルを探すようファリスに頼まれた。オルヴィナのワインをもう一度飲みたいと、ロイテルはいつも言っていたが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Thus Into Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そして伝説へ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|You promised to help Loytel pay off his 20 million oren debt. Get debt bills from Loytel, and submit them to tax chest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ロイテルの二千万オレンの借金の返済の手助けを約束した。ロイテルから借金の返済書をもらい、納税箱に納めよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|2</t>
   </si>
   <si>
     <t xml:space="preserve">exile_meet</t>
@@ -929,6 +920,30 @@
     <t xml:space="preserve">さっきから、後ろに何かいる気がするんだ。</t>
   </si>
   <si>
+    <t xml:space="preserve">into_darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Into Darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇へ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone, gather up, please.|You need to find a way to deal with Issizzle. (To Be Continued)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。(続く)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be continued.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次回へ続く。</t>
+  </si>
+  <si>
     <t xml:space="preserve">demitas_spellwriter</t>
   </si>
   <si>
@@ -944,21 +959,6 @@
     <t xml:space="preserve">汝に魔術のたしなみはあるか？</t>
   </si>
   <si>
-    <t xml:space="preserve">mokyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragonic Language Lesson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜言語の教え</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mokyu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もきゅ。</t>
-  </si>
-  <si>
     <t xml:space="preserve">mokyu2</t>
   </si>
   <si>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">盗賊ギルド</t>
   </si>
   <si>
-    <t xml:space="preserve">As a member of the Thives Guild, you must contribute to the guild. Completing tasks earns you contribution points. Once you've maxed out your contribution, talk to the guild clerk to get promoted.</t>
+    <t xml:space="preserve">As a member of the Thieves Guild, you must contribute to the guild. Completing tasks earns you contribution points. Once you've maxed out your contribution, talk to the guild clerk to get promoted.</t>
   </si>
   <si>
     <t xml:space="preserve">あなたは盗賊ギルドの一員として、ギルドに貢献しなければならない。タスクを達成することで、ギルドの貢献度が獲得できる。貢献度が最大まで達したら、昇進するためにギルドの受付嬢に話しかけよう。</t>
@@ -2725,10 +2725,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2737,7 +2737,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2755,12 +2755,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2778,10 +2778,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2790,7 +2790,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -2800,49 +2800,77 @@
       </c>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="M9"/>
-      <c r="N9"/>
+      <c r="L9" t="s">
+        <v>730</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
+        <v>521</v>
+      </c>
+      <c r="C10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
       <c r="F10" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>524</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>521</v>
+      </c>
+      <c r="C11" t="s">
+        <v>552</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
       <c r="F11" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
@@ -2851,21 +2879,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>525</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>521</v>
+      </c>
+      <c r="C12" t="s">
+        <v>553</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
       <c r="F12" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
@@ -2874,21 +2909,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>524</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>521</v>
+      </c>
+      <c r="C13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -2897,21 +2939,26 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>526</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
+        <v>521</v>
+      </c>
+      <c r="C14" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
       <c r="F14" t="s">
-        <v>639</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="G14"/>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -2920,21 +2967,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>640</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="G15"/>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -2943,22 +2988,15 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" t="s">
-        <v>641</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
+      <c r="G16"/>
+      <c r="H16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="M16"/>
@@ -2966,21 +3004,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>524</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17"/>
+        <v>531</v>
+      </c>
+      <c r="C17" t="s">
+        <v>559</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
       <c r="F17" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -2989,22 +3034,15 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" t="s">
-        <v>643</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
+      <c r="G18"/>
+      <c r="H18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="M18"/>
@@ -3012,17 +3050,29 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>524</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
+        <v>521</v>
+      </c>
+      <c r="C19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>657</v>
+      </c>
       <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19"/>
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="M19"/>
@@ -3030,17 +3080,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
+      <c r="F20" t="s">
+        <v>658</v>
+      </c>
       <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20"/>
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="M20"/>
@@ -3048,28 +3103,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
-      </c>
-      <c r="C21" t="s">
-        <v>549</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -3078,22 +3126,15 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" t="s">
-        <v>645</v>
-      </c>
-      <c r="G22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" t="s">
-        <v>83</v>
-      </c>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="M22"/>
@@ -3101,102 +3142,74 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="C23" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23" t="s">
-        <v>730</v>
-      </c>
-      <c r="M23" t="s">
-        <v>89</v>
-      </c>
-      <c r="N23" t="s">
-        <v>90</v>
-      </c>
+      <c r="M23"/>
+      <c r="N23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" t="s">
-        <v>551</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>647</v>
-      </c>
-      <c r="G24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" t="s">
-        <v>95</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="G24"/>
+      <c r="H24"/>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N24" t="s">
-        <v>97</v>
-      </c>
+      <c r="M24"/>
+      <c r="N24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="C25" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -3205,28 +3218,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C26" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
         <v>649</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -3238,10 +3251,10 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="C27" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
@@ -3250,7 +3263,7 @@
         <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="G27" t="s">
         <v>111</v>
@@ -3268,25 +3281,18 @@
         <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>529</v>
-      </c>
-      <c r="C28" t="s">
-        <v>555</v>
-      </c>
-      <c r="D28" t="s">
+        <v>532</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>662</v>
+      </c>
+      <c r="G28" t="s">
         <v>114</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>115</v>
-      </c>
-      <c r="F28" t="s">
-        <v>651</v>
-      </c>
-      <c r="G28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" t="s">
-        <v>117</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -3295,29 +3301,15 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>529</v>
-      </c>
-      <c r="C29" t="s">
-        <v>556</v>
-      </c>
-      <c r="D29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" t="s">
-        <v>652</v>
-      </c>
-      <c r="G29" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" t="s">
-        <v>122</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="G29"/>
+      <c r="H29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="M29"/>
@@ -3325,28 +3317,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C30" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -3355,19 +3347,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31"/>
+        <v>664</v>
+      </c>
+      <c r="G31" t="s">
+        <v>123</v>
+      </c>
       <c r="H31" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -3376,26 +3370,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C32" t="s">
-        <v>558</v>
-      </c>
-      <c r="D32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" t="s">
-        <v>132</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
       <c r="F32" t="s">
-        <v>654</v>
-      </c>
-      <c r="G32"/>
+        <v>665</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
@@ -3404,20 +3393,15 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
         <v>521</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" t="s">
-        <v>655</v>
-      </c>
       <c r="G33"/>
-      <c r="H33" t="s">
-        <v>135</v>
-      </c>
+      <c r="H33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="M33"/>
@@ -3425,15 +3409,29 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
         <v>521</v>
       </c>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="G34"/>
-      <c r="H34"/>
+      <c r="C34" t="s">
+        <v>567</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" t="s">
+        <v>671</v>
+      </c>
+      <c r="G34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" t="s">
+        <v>133</v>
+      </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="M34"/>
@@ -3441,28 +3439,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>531</v>
-      </c>
-      <c r="C35" t="s">
-        <v>559</v>
-      </c>
-      <c r="D35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" t="s">
-        <v>139</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
       <c r="F35" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -3471,7 +3462,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>521</v>
@@ -3487,28 +3478,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="C37" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -3517,22 +3508,15 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
         <v>521</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" t="s">
-        <v>658</v>
-      </c>
-      <c r="G38" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" t="s">
-        <v>150</v>
-      </c>
+      <c r="G38"/>
+      <c r="H38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="M38"/>
@@ -3540,21 +3524,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
         <v>521</v>
       </c>
-      <c r="D39"/>
-      <c r="E39"/>
+      <c r="C39" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
       <c r="F39" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -3563,15 +3554,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
         <v>521</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="G40"/>
-      <c r="H40"/>
+      <c r="F40" t="s">
+        <v>667</v>
+      </c>
+      <c r="G40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s">
+        <v>151</v>
+      </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="M40"/>
@@ -3579,28 +3577,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>532</v>
-      </c>
-      <c r="C41" t="s">
-        <v>561</v>
-      </c>
-      <c r="D41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" t="s">
-        <v>157</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
       <c r="F41" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="G41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
@@ -3609,15 +3600,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="G42"/>
-      <c r="H42"/>
+      <c r="F42" t="s">
+        <v>669</v>
+      </c>
+      <c r="G42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" t="s">
+        <v>157</v>
+      </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="M42"/>
@@ -3625,28 +3623,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>532</v>
-      </c>
-      <c r="C43" t="s">
-        <v>562</v>
-      </c>
-      <c r="D43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" t="s">
-        <v>163</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
       <c r="F43" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="G43" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="H43" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -3655,28 +3646,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>533</v>
-      </c>
-      <c r="C44" t="s">
-        <v>563</v>
-      </c>
-      <c r="D44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" t="s">
-        <v>167</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
       <c r="F44" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="H44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -3685,29 +3669,15 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>532</v>
-      </c>
-      <c r="C45" t="s">
-        <v>564</v>
-      </c>
-      <c r="D45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F45" t="s">
-        <v>661</v>
-      </c>
-      <c r="G45" t="s">
-        <v>171</v>
-      </c>
-      <c r="H45" t="s">
-        <v>172</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="G45"/>
+      <c r="H45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="M45"/>
@@ -3715,21 +3685,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
         <v>532</v>
       </c>
-      <c r="D46"/>
-      <c r="E46"/>
+      <c r="C46" t="s">
+        <v>569</v>
+      </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" t="s">
+        <v>165</v>
+      </c>
       <c r="F46" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H46" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -3738,15 +3715,29 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
         <v>532</v>
       </c>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="G47"/>
-      <c r="H47"/>
+      <c r="C47" t="s">
+        <v>570</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" t="s">
+        <v>675</v>
+      </c>
+      <c r="G47" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" t="s">
+        <v>172</v>
+      </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="M47"/>
@@ -3754,29 +3745,15 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>524</v>
-      </c>
-      <c r="C48" t="s">
-        <v>565</v>
-      </c>
-      <c r="D48" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" t="s">
-        <v>179</v>
-      </c>
-      <c r="F48" t="s">
-        <v>663</v>
-      </c>
-      <c r="G48" t="s">
-        <v>180</v>
-      </c>
-      <c r="H48" t="s">
-        <v>181</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="G48"/>
+      <c r="H48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="M48"/>
@@ -3784,21 +3761,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>532</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
+        <v>535</v>
+      </c>
+      <c r="C49" t="s">
+        <v>571</v>
+      </c>
+      <c r="D49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" t="s">
+        <v>176</v>
+      </c>
       <c r="F49" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="G49" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H49" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3807,22 +3791,15 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
         <v>532</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50" t="s">
-        <v>665</v>
-      </c>
-      <c r="G50" t="s">
-        <v>186</v>
-      </c>
-      <c r="H50" t="s">
-        <v>187</v>
-      </c>
+      <c r="G50"/>
+      <c r="H50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="M50"/>
@@ -3830,15 +3807,29 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>521</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="G51"/>
-      <c r="H51"/>
+        <v>535</v>
+      </c>
+      <c r="C51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D51" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" t="s">
+        <v>677</v>
+      </c>
+      <c r="G51" t="s">
+        <v>183</v>
+      </c>
+      <c r="H51" t="s">
+        <v>184</v>
+      </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="M51"/>
@@ -3846,28 +3837,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>535</v>
+      </c>
+      <c r="C52" t="s">
+        <v>574</v>
+      </c>
+      <c r="D52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" t="s">
+        <v>679</v>
+      </c>
+      <c r="G52" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" t="s">
         <v>189</v>
-      </c>
-      <c r="B52" t="s">
-        <v>521</v>
-      </c>
-      <c r="C52" t="s">
-        <v>566</v>
-      </c>
-      <c r="D52" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" t="s">
-        <v>191</v>
-      </c>
-      <c r="F52" t="s">
-        <v>666</v>
-      </c>
-      <c r="G52" t="s">
-        <v>192</v>
-      </c>
-      <c r="H52" t="s">
-        <v>193</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -3876,21 +3867,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" t="s">
+        <v>535</v>
+      </c>
+      <c r="C53" t="s">
+        <v>575</v>
+      </c>
+      <c r="D53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" t="s">
+        <v>680</v>
+      </c>
+      <c r="G53" t="s">
+        <v>193</v>
+      </c>
+      <c r="H53" t="s">
         <v>194</v>
-      </c>
-      <c r="B53" t="s">
-        <v>521</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53" t="s">
-        <v>667</v>
-      </c>
-      <c r="G53" t="s">
-        <v>195</v>
-      </c>
-      <c r="H53" t="s">
-        <v>196</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -3899,15 +3897,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" t="s">
+        <v>535</v>
+      </c>
+      <c r="C54" t="s">
+        <v>576</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" t="s">
         <v>197</v>
       </c>
-      <c r="B54" t="s">
-        <v>521</v>
-      </c>
-      <c r="D54"/>
-      <c r="E54"/>
       <c r="F54" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="G54" t="s">
         <v>198</v>
@@ -3925,18 +3930,25 @@
         <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>521</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55"/>
+        <v>524</v>
+      </c>
+      <c r="C55" t="s">
+        <v>577</v>
+      </c>
+      <c r="D55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" t="s">
+        <v>202</v>
+      </c>
       <c r="F55" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -3945,21 +3957,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>521</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56"/>
+        <v>523</v>
+      </c>
+      <c r="C56" t="s">
+        <v>578</v>
+      </c>
+      <c r="D56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" t="s">
+        <v>207</v>
+      </c>
       <c r="F56" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="G56" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H56" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -3968,21 +3987,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s">
-        <v>521</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57"/>
+        <v>524</v>
+      </c>
+      <c r="C57" t="s">
+        <v>579</v>
+      </c>
+      <c r="D57" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
+      </c>
       <c r="F57" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="G57" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -3991,15 +4017,29 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>521</v>
-      </c>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="G58"/>
-      <c r="H58"/>
+        <v>524</v>
+      </c>
+      <c r="C58" t="s">
+        <v>548</v>
+      </c>
+      <c r="D58" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" t="s">
+        <v>217</v>
+      </c>
+      <c r="F58" t="s">
+        <v>634</v>
+      </c>
+      <c r="G58" t="s">
+        <v>218</v>
+      </c>
+      <c r="H58" t="s">
+        <v>219</v>
+      </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="M58"/>
@@ -4007,28 +4047,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s">
-        <v>521</v>
-      </c>
-      <c r="C59" t="s">
-        <v>567</v>
-      </c>
-      <c r="D59" t="s">
-        <v>209</v>
-      </c>
-      <c r="E59" t="s">
-        <v>210</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
       <c r="F59" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
       <c r="G59" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H59" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -4037,21 +4070,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="G60" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H60" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
@@ -4060,15 +4093,22 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
-      <c r="G61"/>
-      <c r="H61"/>
+      <c r="F61" t="s">
+        <v>637</v>
+      </c>
+      <c r="G61" t="s">
+        <v>227</v>
+      </c>
+      <c r="H61" t="s">
+        <v>228</v>
+      </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="M61"/>
@@ -4076,28 +4116,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B62" t="s">
-        <v>534</v>
-      </c>
-      <c r="C62" t="s">
-        <v>568</v>
-      </c>
-      <c r="D62" t="s">
-        <v>218</v>
-      </c>
-      <c r="E62" t="s">
-        <v>219</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
       <c r="F62" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="G62" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H62" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
@@ -4106,15 +4139,22 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
-      <c r="G63"/>
-      <c r="H63"/>
+      <c r="F63" t="s">
+        <v>639</v>
+      </c>
+      <c r="G63" t="s">
+        <v>233</v>
+      </c>
+      <c r="H63" t="s">
+        <v>234</v>
+      </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="M63"/>
@@ -4122,28 +4162,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s">
-        <v>532</v>
-      </c>
-      <c r="C64" t="s">
-        <v>569</v>
-      </c>
-      <c r="D64" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" t="s">
-        <v>225</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
       <c r="F64" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="G64" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -4152,28 +4185,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>532</v>
-      </c>
-      <c r="C65" t="s">
-        <v>570</v>
-      </c>
-      <c r="D65" t="s">
-        <v>229</v>
-      </c>
-      <c r="E65" t="s">
-        <v>230</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
       <c r="F65" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="G65" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H65" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -4182,15 +4208,22 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B66" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
-      <c r="G66"/>
-      <c r="H66"/>
+      <c r="F66" t="s">
+        <v>642</v>
+      </c>
+      <c r="G66" t="s">
+        <v>242</v>
+      </c>
+      <c r="H66" t="s">
+        <v>243</v>
+      </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="M66"/>
@@ -4198,28 +4231,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B67" t="s">
-        <v>535</v>
-      </c>
-      <c r="C67" t="s">
-        <v>571</v>
-      </c>
-      <c r="D67" t="s">
-        <v>235</v>
-      </c>
-      <c r="E67" t="s">
-        <v>236</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
       <c r="F67" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H67" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
@@ -4228,14 +4254,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
-      <c r="G68"/>
+      <c r="G68" t="s">
+        <v>248</v>
+      </c>
       <c r="H68"/>
       <c r="J68"/>
       <c r="K68"/>
@@ -4244,29 +4272,17 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s">
-        <v>535</v>
-      </c>
-      <c r="C69" t="s">
-        <v>572</v>
-      </c>
-      <c r="D69" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" t="s">
-        <v>242</v>
-      </c>
-      <c r="F69" t="s">
-        <v>677</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
       <c r="G69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H69" t="s">
-        <v>244</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="H69"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="M69"/>
@@ -4274,7 +4290,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B70" t="s">
         <v>524</v>
@@ -4283,19 +4299,19 @@
         <v>573</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F70" t="s">
         <v>678</v>
       </c>
       <c r="G70" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H70" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -4304,28 +4320,28 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C71" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F71" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="G71" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H71" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
@@ -4334,28 +4350,28 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C72" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E72" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F72" t="s">
-        <v>680</v>
+        <v>651</v>
       </c>
       <c r="G72" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
@@ -4364,28 +4380,28 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C73" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H73" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
@@ -4394,28 +4410,28 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C74" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D74" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E74" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F74" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="G74" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H74" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
@@ -4424,28 +4440,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s">
-        <v>523</v>
-      </c>
-      <c r="C75" t="s">
-        <v>578</v>
-      </c>
-      <c r="D75" t="s">
-        <v>271</v>
-      </c>
-      <c r="E75" t="s">
-        <v>272</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
       <c r="F75" t="s">
-        <v>683</v>
-      </c>
-      <c r="G75" t="s">
-        <v>273</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G75"/>
       <c r="H75" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -4454,28 +4461,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B76" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C76" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D76" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F76" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G76" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H76" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -4484,28 +4491,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s">
         <v>536</v>
       </c>
       <c r="C77" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F77" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G77" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H77" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -4514,28 +4521,28 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
         <v>536</v>
       </c>
       <c r="C78" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D78" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E78" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F78" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G78" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H78" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -4544,28 +4551,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
         <v>536</v>
       </c>
       <c r="C79" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G79" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="H79" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -4580,7 +4587,7 @@
         <v>536</v>
       </c>
       <c r="C80" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D80" t="s">
         <v>296</v>
@@ -4589,13 +4596,13 @@
         <v>297</v>
       </c>
       <c r="F80" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="G80" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="H80" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -4604,28 +4611,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C81" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="D81" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E81" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F81" t="s">
-        <v>688</v>
+        <v>632</v>
       </c>
       <c r="G81" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H81" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -4634,22 +4641,15 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B82" t="s">
         <v>523</v>
       </c>
-      <c r="C82" t="s">
-        <v>585</v>
-      </c>
-      <c r="D82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E82" t="s">
-        <v>305</v>
-      </c>
+      <c r="D82"/>
+      <c r="E82"/>
       <c r="F82" t="s">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="G82" t="s">
         <v>306</v>
@@ -4667,10 +4667,10 @@
         <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D83" t="s">
         <v>309</v>
@@ -4679,7 +4679,7 @@
         <v>310</v>
       </c>
       <c r="F83" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G83" t="s">
         <v>311</v>
@@ -4712,10 +4712,10 @@
         <v>690</v>
       </c>
       <c r="G84" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="H84" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -4742,10 +4742,10 @@
         <v>690</v>
       </c>
       <c r="G85" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="H85" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
@@ -4800,10 +4800,10 @@
         <v>690</v>
       </c>
       <c r="G87" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="H87" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="740">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -942,6 +942,30 @@
   </si>
   <si>
     <t xml:space="preserve">次回へ続く。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation with Darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇との対話</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you seen Kettle?|You received a bracelet from Demitas to break the barrier around the Exile's Village. Let's head to the village located east of Mysilia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケトルを見なかったか？|デミタスから追放者の村の結界を解く腕輪を受け取った。ミシリアの東に位置する追放者の村を訪ねてみよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder. (To be continued)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけてみよう（続く）</t>
   </si>
   <si>
     <t xml:space="preserve">demitas_spellwriter</t>
@@ -2615,10 +2639,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2627,7 +2651,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2645,10 +2669,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2657,7 +2681,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2675,12 +2699,12 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2698,10 +2722,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2710,7 +2734,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2728,10 +2752,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2740,7 +2764,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2758,12 +2782,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2781,10 +2805,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C9" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2793,7 +2817,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -2804,7 +2828,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="M9" t="s">
         <v>46</v>
@@ -2818,10 +2842,10 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C10" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -2830,7 +2854,7 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -2855,10 +2879,10 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C11" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -2867,7 +2891,7 @@
         <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="G11" t="s">
         <v>58</v>
@@ -2885,10 +2909,10 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C12" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -2897,7 +2921,7 @@
         <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
@@ -2915,10 +2939,10 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C13" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D13" t="s">
         <v>66</v>
@@ -2927,7 +2951,7 @@
         <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="G13" t="s">
         <v>68</v>
@@ -2945,10 +2969,10 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C14" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
@@ -2957,7 +2981,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
@@ -2973,12 +2997,12 @@
         <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
@@ -2994,7 +3018,7 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -3010,10 +3034,10 @@
         <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="D17" t="s">
         <v>78</v>
@@ -3022,7 +3046,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="G17" t="s">
         <v>80</v>
@@ -3040,7 +3064,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -3056,10 +3080,10 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C19" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
@@ -3068,7 +3092,7 @@
         <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -3086,12 +3110,12 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="G20" t="s">
         <v>89</v>
@@ -3109,12 +3133,12 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -3132,7 +3156,7 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -3148,10 +3172,10 @@
         <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C23" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D23" t="s">
         <v>96</v>
@@ -3160,7 +3184,7 @@
         <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -3178,7 +3202,7 @@
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -3194,10 +3218,10 @@
         <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C25" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
@@ -3206,7 +3230,7 @@
         <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="G25" t="s">
         <v>63</v>
@@ -3224,10 +3248,10 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C26" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -3236,7 +3260,7 @@
         <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
@@ -3254,10 +3278,10 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C27" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
@@ -3266,7 +3290,7 @@
         <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="G27" t="s">
         <v>111</v>
@@ -3284,12 +3308,12 @@
         <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="G28" t="s">
         <v>114</v>
@@ -3307,7 +3331,7 @@
         <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -3323,10 +3347,10 @@
         <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C30" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="D30" t="s">
         <v>118</v>
@@ -3335,7 +3359,7 @@
         <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="G30" t="s">
         <v>120</v>
@@ -3353,12 +3377,12 @@
         <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="G31" t="s">
         <v>123</v>
@@ -3376,12 +3400,12 @@
         <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="G32" t="s">
         <v>126</v>
@@ -3399,7 +3423,7 @@
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -3415,10 +3439,10 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C34" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D34" t="s">
         <v>130</v>
@@ -3427,7 +3451,7 @@
         <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="G34" t="s">
         <v>132</v>
@@ -3445,12 +3469,12 @@
         <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="G35" t="s">
         <v>135</v>
@@ -3468,7 +3492,7 @@
         <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -3484,10 +3508,10 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C37" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D37" t="s">
         <v>139</v>
@@ -3496,7 +3520,7 @@
         <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="G37" t="s">
         <v>141</v>
@@ -3514,7 +3538,7 @@
         <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -3530,10 +3554,10 @@
         <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C39" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D39" t="s">
         <v>145</v>
@@ -3542,7 +3566,7 @@
         <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G39" t="s">
         <v>147</v>
@@ -3560,12 +3584,12 @@
         <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="G40" t="s">
         <v>150</v>
@@ -3583,12 +3607,12 @@
         <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="G41" t="s">
         <v>153</v>
@@ -3606,12 +3630,12 @@
         <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="G42" t="s">
         <v>156</v>
@@ -3629,12 +3653,12 @@
         <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="G43" t="s">
         <v>156</v>
@@ -3652,12 +3676,12 @@
         <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="G44" t="s">
         <v>160</v>
@@ -3675,7 +3699,7 @@
         <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -3691,10 +3715,10 @@
         <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C46" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D46" t="s">
         <v>164</v>
@@ -3703,7 +3727,7 @@
         <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="G46" t="s">
         <v>166</v>
@@ -3721,10 +3745,10 @@
         <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C47" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D47" t="s">
         <v>169</v>
@@ -3733,7 +3757,7 @@
         <v>170</v>
       </c>
       <c r="F47" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="G47" t="s">
         <v>171</v>
@@ -3751,7 +3775,7 @@
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -3767,10 +3791,10 @@
         <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C49" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D49" t="s">
         <v>175</v>
@@ -3779,7 +3803,7 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="G49" t="s">
         <v>177</v>
@@ -3797,7 +3821,7 @@
         <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -3813,10 +3837,10 @@
         <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C51" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D51" t="s">
         <v>181</v>
@@ -3825,7 +3849,7 @@
         <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="G51" t="s">
         <v>183</v>
@@ -3843,10 +3867,10 @@
         <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C52" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D52" t="s">
         <v>186</v>
@@ -3855,7 +3879,7 @@
         <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
@@ -3873,10 +3897,10 @@
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C53" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D53" t="s">
         <v>191</v>
@@ -3885,7 +3909,7 @@
         <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="G53" t="s">
         <v>193</v>
@@ -3903,10 +3927,10 @@
         <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C54" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D54" t="s">
         <v>196</v>
@@ -3915,7 +3939,7 @@
         <v>197</v>
       </c>
       <c r="F54" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="G54" t="s">
         <v>198</v>
@@ -3933,10 +3957,10 @@
         <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C55" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D55" t="s">
         <v>201</v>
@@ -3945,7 +3969,7 @@
         <v>202</v>
       </c>
       <c r="F55" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="G55" t="s">
         <v>203</v>
@@ -3963,10 +3987,10 @@
         <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C56" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D56" t="s">
         <v>206</v>
@@ -3975,7 +3999,7 @@
         <v>207</v>
       </c>
       <c r="F56" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="G56" t="s">
         <v>208</v>
@@ -3993,10 +4017,10 @@
         <v>210</v>
       </c>
       <c r="B57" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C57" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D57" t="s">
         <v>211</v>
@@ -4005,7 +4029,7 @@
         <v>212</v>
       </c>
       <c r="F57" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="G57" t="s">
         <v>213</v>
@@ -4023,10 +4047,10 @@
         <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C58" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D58" t="s">
         <v>216</v>
@@ -4035,7 +4059,7 @@
         <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="G58" t="s">
         <v>218</v>
@@ -4053,12 +4077,12 @@
         <v>220</v>
       </c>
       <c r="B59" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="G59" t="s">
         <v>221</v>
@@ -4076,12 +4100,12 @@
         <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="G60" t="s">
         <v>224</v>
@@ -4099,12 +4123,12 @@
         <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="G61" t="s">
         <v>227</v>
@@ -4122,12 +4146,12 @@
         <v>229</v>
       </c>
       <c r="B62" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="G62" t="s">
         <v>230</v>
@@ -4145,12 +4169,12 @@
         <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="G63" t="s">
         <v>233</v>
@@ -4168,12 +4192,12 @@
         <v>235</v>
       </c>
       <c r="B64" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="G64" t="s">
         <v>236</v>
@@ -4191,12 +4215,12 @@
         <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="G65" t="s">
         <v>239</v>
@@ -4214,12 +4238,12 @@
         <v>241</v>
       </c>
       <c r="B66" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="G66" t="s">
         <v>242</v>
@@ -4237,12 +4261,12 @@
         <v>244</v>
       </c>
       <c r="B67" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="G67" t="s">
         <v>245</v>
@@ -4260,7 +4284,7 @@
         <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -4278,7 +4302,7 @@
         <v>249</v>
       </c>
       <c r="B69" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -4296,10 +4320,10 @@
         <v>250</v>
       </c>
       <c r="B70" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C70" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D70" t="s">
         <v>251</v>
@@ -4308,7 +4332,7 @@
         <v>252</v>
       </c>
       <c r="F70" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="G70" t="s">
         <v>253</v>
@@ -4326,10 +4350,10 @@
         <v>255</v>
       </c>
       <c r="B71" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C71" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D71" t="s">
         <v>256</v>
@@ -4338,7 +4362,7 @@
         <v>257</v>
       </c>
       <c r="F71" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="G71" t="s">
         <v>258</v>
@@ -4356,10 +4380,10 @@
         <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C72" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D72" t="s">
         <v>261</v>
@@ -4368,7 +4392,7 @@
         <v>262</v>
       </c>
       <c r="F72" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G72" t="s">
         <v>263</v>
@@ -4386,10 +4410,10 @@
         <v>265</v>
       </c>
       <c r="B73" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C73" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="D73" t="s">
         <v>266</v>
@@ -4398,7 +4422,7 @@
         <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="G73" t="s">
         <v>268</v>
@@ -4416,10 +4440,10 @@
         <v>270</v>
       </c>
       <c r="B74" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C74" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D74" t="s">
         <v>271</v>
@@ -4428,7 +4452,7 @@
         <v>272</v>
       </c>
       <c r="F74" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="G74" t="s">
         <v>273</v>
@@ -4446,7 +4470,7 @@
         <v>275</v>
       </c>
       <c r="B75" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -4467,10 +4491,10 @@
         <v>277</v>
       </c>
       <c r="B76" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C76" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D76" t="s">
         <v>278</v>
@@ -4479,7 +4503,7 @@
         <v>279</v>
       </c>
       <c r="F76" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="G76" t="s">
         <v>280</v>
@@ -4497,10 +4521,10 @@
         <v>282</v>
       </c>
       <c r="B77" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C77" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D77" t="s">
         <v>283</v>
@@ -4509,7 +4533,7 @@
         <v>284</v>
       </c>
       <c r="F77" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="G77" t="s">
         <v>285</v>
@@ -4527,10 +4551,10 @@
         <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C78" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D78" t="s">
         <v>288</v>
@@ -4539,7 +4563,7 @@
         <v>289</v>
       </c>
       <c r="F78" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="G78" t="s">
         <v>290</v>
@@ -4557,10 +4581,10 @@
         <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C79" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D79" t="s">
         <v>293</v>
@@ -4569,7 +4593,7 @@
         <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="G79" t="s">
         <v>213</v>
@@ -4587,10 +4611,10 @@
         <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C80" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D80" t="s">
         <v>296</v>
@@ -4599,7 +4623,7 @@
         <v>297</v>
       </c>
       <c r="F80" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="G80" t="s">
         <v>298</v>
@@ -4617,10 +4641,10 @@
         <v>300</v>
       </c>
       <c r="B81" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C81" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D81" t="s">
         <v>301</v>
@@ -4629,7 +4653,7 @@
         <v>302</v>
       </c>
       <c r="F81" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="G81" t="s">
         <v>303</v>
@@ -4647,12 +4671,12 @@
         <v>305</v>
       </c>
       <c r="B82" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="G82" t="s">
         <v>306</v>
@@ -4670,19 +4694,13 @@
         <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>531</v>
-      </c>
-      <c r="C83" t="s">
-        <v>587</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
         <v>309</v>
       </c>
       <c r="E83" t="s">
         <v>310</v>
-      </c>
-      <c r="F83" t="s">
-        <v>691</v>
       </c>
       <c r="G83" t="s">
         <v>311</v>
@@ -4700,25 +4718,15 @@
         <v>313</v>
       </c>
       <c r="B84" t="s">
-        <v>528</v>
-      </c>
-      <c r="C84" t="s">
-        <v>588</v>
-      </c>
-      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="G84" t="s">
         <v>314</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>315</v>
-      </c>
-      <c r="F84" t="s">
-        <v>681</v>
-      </c>
-      <c r="G84" t="s">
-        <v>258</v>
-      </c>
-      <c r="H84" t="s">
-        <v>259</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -4730,25 +4738,25 @@
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C85" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D85" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E85" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F85" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="G85" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="H85" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
@@ -4757,26 +4765,28 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C86" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="D86" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E86" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F86" t="s">
-        <v>692</v>
-      </c>
-      <c r="G86"/>
+        <v>689</v>
+      </c>
+      <c r="G86" t="s">
+        <v>258</v>
+      </c>
       <c r="H86" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -4785,13 +4795,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C87" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D87" t="s">
         <v>322</v>
@@ -4800,7 +4810,7 @@
         <v>323</v>
       </c>
       <c r="F87" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="G87" t="s">
         <v>258</v>
@@ -4815,28 +4825,26 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B88" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C88" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E88" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F88" t="s">
-        <v>327</v>
-      </c>
-      <c r="G88" t="s">
-        <v>327</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="G88"/>
       <c r="H88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -4845,28 +4853,28 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B89" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C89" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E89" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F89" t="s">
-        <v>327</v>
+        <v>689</v>
       </c>
       <c r="G89" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="H89" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -4875,28 +4883,28 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B90" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C90" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D90" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E90" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F90" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G90" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H90" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -4905,28 +4913,28 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C91" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D91" t="s">
+        <v>337</v>
+      </c>
+      <c r="E91" t="s">
+        <v>338</v>
+      </c>
+      <c r="F91" t="s">
         <v>335</v>
       </c>
-      <c r="E91" t="s">
-        <v>336</v>
-      </c>
-      <c r="F91" t="s">
-        <v>327</v>
-      </c>
       <c r="G91" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H91" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -4935,28 +4943,28 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="C92" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D92" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E92" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F92" t="s">
-        <v>693</v>
+        <v>335</v>
       </c>
       <c r="G92" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H92" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -4968,18 +4976,25 @@
         <v>342</v>
       </c>
       <c r="B93" t="s">
-        <v>521</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93"/>
+        <v>547</v>
+      </c>
+      <c r="C93" t="s">
+        <v>602</v>
+      </c>
+      <c r="D93" t="s">
+        <v>343</v>
+      </c>
+      <c r="E93" t="s">
+        <v>344</v>
+      </c>
       <c r="F93" t="s">
-        <v>694</v>
+        <v>335</v>
       </c>
       <c r="G93" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H93" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -4991,10 +5006,10 @@
         <v>345</v>
       </c>
       <c r="B94" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C94" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="D94" t="s">
         <v>346</v>
@@ -5003,7 +5018,7 @@
         <v>347</v>
       </c>
       <c r="F94" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="G94" t="s">
         <v>348</v>
@@ -5021,25 +5036,18 @@
         <v>350</v>
       </c>
       <c r="B95" t="s">
-        <v>521</v>
-      </c>
-      <c r="C95" t="s">
-        <v>597</v>
-      </c>
-      <c r="D95" t="s">
+        <v>529</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>702</v>
+      </c>
+      <c r="G95" t="s">
         <v>351</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>352</v>
-      </c>
-      <c r="F95" t="s">
-        <v>696</v>
-      </c>
-      <c r="G95" t="s">
-        <v>353</v>
-      </c>
-      <c r="H95" t="s">
-        <v>354</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -5048,15 +5056,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>353</v>
+      </c>
+      <c r="B96" t="s">
+        <v>536</v>
+      </c>
+      <c r="C96" t="s">
+        <v>604</v>
+      </c>
+      <c r="D96" t="s">
+        <v>354</v>
+      </c>
+      <c r="E96" t="s">
         <v>355</v>
       </c>
-      <c r="B96" t="s">
-        <v>521</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96"/>
       <c r="F96" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="G96" t="s">
         <v>356</v>
@@ -5074,10 +5089,10 @@
         <v>358</v>
       </c>
       <c r="B97" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C97" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="D97" t="s">
         <v>359</v>
@@ -5086,7 +5101,7 @@
         <v>360</v>
       </c>
       <c r="F97" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="G97" t="s">
         <v>361</v>
@@ -5104,25 +5119,18 @@
         <v>363</v>
       </c>
       <c r="B98" t="s">
-        <v>521</v>
-      </c>
-      <c r="C98" t="s">
-        <v>599</v>
-      </c>
-      <c r="D98" t="s">
+        <v>529</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>705</v>
+      </c>
+      <c r="G98" t="s">
         <v>364</v>
       </c>
-      <c r="E98" t="s">
+      <c r="H98" t="s">
         <v>365</v>
-      </c>
-      <c r="F98" t="s">
-        <v>699</v>
-      </c>
-      <c r="G98" t="s">
-        <v>366</v>
-      </c>
-      <c r="H98" t="s">
-        <v>367</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -5131,15 +5139,22 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>366</v>
+      </c>
+      <c r="B99" t="s">
+        <v>536</v>
+      </c>
+      <c r="C99" t="s">
+        <v>606</v>
+      </c>
+      <c r="D99" t="s">
+        <v>367</v>
+      </c>
+      <c r="E99" t="s">
         <v>368</v>
       </c>
-      <c r="B99" t="s">
-        <v>521</v>
-      </c>
-      <c r="D99"/>
-      <c r="E99"/>
       <c r="F99" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="G99" t="s">
         <v>369</v>
@@ -5157,10 +5172,10 @@
         <v>371</v>
       </c>
       <c r="B100" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C100" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="D100" t="s">
         <v>372</v>
@@ -5169,7 +5184,7 @@
         <v>373</v>
       </c>
       <c r="F100" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="G100" t="s">
         <v>374</v>
@@ -5187,25 +5202,18 @@
         <v>376</v>
       </c>
       <c r="B101" t="s">
-        <v>540</v>
-      </c>
-      <c r="C101" t="s">
-        <v>601</v>
-      </c>
-      <c r="D101" t="s">
+        <v>529</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>708</v>
+      </c>
+      <c r="G101" t="s">
         <v>377</v>
       </c>
-      <c r="E101" t="s">
+      <c r="H101" t="s">
         <v>378</v>
-      </c>
-      <c r="F101" t="s">
-        <v>702</v>
-      </c>
-      <c r="G101" t="s">
-        <v>379</v>
-      </c>
-      <c r="H101" t="s">
-        <v>380</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -5214,15 +5222,22 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>379</v>
+      </c>
+      <c r="B102" t="s">
+        <v>536</v>
+      </c>
+      <c r="C102" t="s">
+        <v>608</v>
+      </c>
+      <c r="D102" t="s">
+        <v>380</v>
+      </c>
+      <c r="E102" t="s">
         <v>381</v>
       </c>
-      <c r="B102" t="s">
-        <v>541</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102"/>
       <c r="F102" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="G102" t="s">
         <v>382</v>
@@ -5240,10 +5255,10 @@
         <v>384</v>
       </c>
       <c r="B103" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C103" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D103" t="s">
         <v>385</v>
@@ -5252,7 +5267,7 @@
         <v>386</v>
       </c>
       <c r="F103" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="G103" t="s">
         <v>387</v>
@@ -5270,25 +5285,18 @@
         <v>389</v>
       </c>
       <c r="B104" t="s">
-        <v>528</v>
-      </c>
-      <c r="C104" t="s">
-        <v>603</v>
-      </c>
-      <c r="D104" t="s">
+        <v>549</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>711</v>
+      </c>
+      <c r="G104" t="s">
         <v>390</v>
       </c>
-      <c r="E104" t="s">
+      <c r="H104" t="s">
         <v>391</v>
-      </c>
-      <c r="F104" t="s">
-        <v>705</v>
-      </c>
-      <c r="G104" t="s">
-        <v>392</v>
-      </c>
-      <c r="H104" t="s">
-        <v>393</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -5297,28 +5305,28 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>392</v>
+      </c>
+      <c r="B105" t="s">
+        <v>536</v>
+      </c>
+      <c r="C105" t="s">
+        <v>610</v>
+      </c>
+      <c r="D105" t="s">
+        <v>393</v>
+      </c>
+      <c r="E105" t="s">
         <v>394</v>
       </c>
-      <c r="B105" t="s">
-        <v>532</v>
-      </c>
-      <c r="C105" t="s">
-        <v>604</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
+        <v>712</v>
+      </c>
+      <c r="G105" t="s">
         <v>395</v>
       </c>
-      <c r="E105" t="s">
+      <c r="H105" t="s">
         <v>396</v>
-      </c>
-      <c r="F105" t="s">
-        <v>706</v>
-      </c>
-      <c r="G105" t="s">
-        <v>397</v>
-      </c>
-      <c r="H105" t="s">
-        <v>398</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -5327,28 +5335,28 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>397</v>
+      </c>
+      <c r="B106" t="s">
+        <v>536</v>
+      </c>
+      <c r="C106" t="s">
+        <v>611</v>
+      </c>
+      <c r="D106" t="s">
+        <v>398</v>
+      </c>
+      <c r="E106" t="s">
         <v>399</v>
       </c>
-      <c r="B106" t="s">
-        <v>528</v>
-      </c>
-      <c r="C106" t="s">
-        <v>605</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
+        <v>713</v>
+      </c>
+      <c r="G106" t="s">
         <v>400</v>
       </c>
-      <c r="E106" t="s">
+      <c r="H106" t="s">
         <v>401</v>
-      </c>
-      <c r="F106" t="s">
-        <v>707</v>
-      </c>
-      <c r="G106" t="s">
-        <v>402</v>
-      </c>
-      <c r="H106" t="s">
-        <v>403</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -5357,28 +5365,28 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>402</v>
+      </c>
+      <c r="B107" t="s">
+        <v>540</v>
+      </c>
+      <c r="C107" t="s">
+        <v>612</v>
+      </c>
+      <c r="D107" t="s">
+        <v>403</v>
+      </c>
+      <c r="E107" t="s">
         <v>404</v>
       </c>
-      <c r="B107" t="s">
-        <v>528</v>
-      </c>
-      <c r="C107" t="s">
-        <v>606</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
+        <v>714</v>
+      </c>
+      <c r="G107" t="s">
         <v>405</v>
       </c>
-      <c r="E107" t="s">
+      <c r="H107" t="s">
         <v>406</v>
-      </c>
-      <c r="F107" t="s">
-        <v>708</v>
-      </c>
-      <c r="G107" t="s">
-        <v>407</v>
-      </c>
-      <c r="H107" t="s">
-        <v>408</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -5387,28 +5395,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>407</v>
+      </c>
+      <c r="B108" t="s">
+        <v>536</v>
+      </c>
+      <c r="C108" t="s">
+        <v>613</v>
+      </c>
+      <c r="D108" t="s">
+        <v>408</v>
+      </c>
+      <c r="E108" t="s">
         <v>409</v>
       </c>
-      <c r="B108" t="s">
-        <v>542</v>
-      </c>
-      <c r="C108" t="s">
-        <v>607</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
+        <v>715</v>
+      </c>
+      <c r="G108" t="s">
         <v>410</v>
       </c>
-      <c r="E108" t="s">
+      <c r="H108" t="s">
         <v>411</v>
-      </c>
-      <c r="F108" t="s">
-        <v>709</v>
-      </c>
-      <c r="G108" t="s">
-        <v>412</v>
-      </c>
-      <c r="H108" t="s">
-        <v>413</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -5417,28 +5425,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>412</v>
+      </c>
+      <c r="B109" t="s">
+        <v>536</v>
+      </c>
+      <c r="C109" t="s">
+        <v>614</v>
+      </c>
+      <c r="D109" t="s">
+        <v>413</v>
+      </c>
+      <c r="E109" t="s">
         <v>414</v>
       </c>
-      <c r="B109" t="s">
-        <v>543</v>
-      </c>
-      <c r="C109" t="s">
-        <v>608</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
+        <v>716</v>
+      </c>
+      <c r="G109" t="s">
         <v>415</v>
       </c>
-      <c r="E109" t="s">
+      <c r="H109" t="s">
         <v>416</v>
-      </c>
-      <c r="F109" t="s">
-        <v>710</v>
-      </c>
-      <c r="G109" t="s">
-        <v>417</v>
-      </c>
-      <c r="H109" t="s">
-        <v>418</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -5447,28 +5455,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>417</v>
+      </c>
+      <c r="B110" t="s">
+        <v>550</v>
+      </c>
+      <c r="C110" t="s">
+        <v>615</v>
+      </c>
+      <c r="D110" t="s">
+        <v>418</v>
+      </c>
+      <c r="E110" t="s">
         <v>419</v>
       </c>
-      <c r="B110" t="s">
-        <v>528</v>
-      </c>
-      <c r="C110" t="s">
-        <v>609</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
+        <v>717</v>
+      </c>
+      <c r="G110" t="s">
         <v>420</v>
       </c>
-      <c r="E110" t="s">
+      <c r="H110" t="s">
         <v>421</v>
-      </c>
-      <c r="F110" t="s">
-        <v>711</v>
-      </c>
-      <c r="G110" t="s">
-        <v>422</v>
-      </c>
-      <c r="H110" t="s">
-        <v>423</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -5477,28 +5485,28 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>422</v>
+      </c>
+      <c r="B111" t="s">
+        <v>551</v>
+      </c>
+      <c r="C111" t="s">
+        <v>616</v>
+      </c>
+      <c r="D111" t="s">
+        <v>423</v>
+      </c>
+      <c r="E111" t="s">
         <v>424</v>
       </c>
-      <c r="B111" t="s">
-        <v>528</v>
-      </c>
-      <c r="C111" t="s">
-        <v>610</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
+        <v>718</v>
+      </c>
+      <c r="G111" t="s">
         <v>425</v>
       </c>
-      <c r="E111" t="s">
+      <c r="H111" t="s">
         <v>426</v>
-      </c>
-      <c r="F111" t="s">
-        <v>712</v>
-      </c>
-      <c r="G111" t="s">
-        <v>427</v>
-      </c>
-      <c r="H111" t="s">
-        <v>428</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -5507,28 +5515,28 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>427</v>
+      </c>
+      <c r="B112" t="s">
+        <v>536</v>
+      </c>
+      <c r="C112" t="s">
+        <v>617</v>
+      </c>
+      <c r="D112" t="s">
+        <v>428</v>
+      </c>
+      <c r="E112" t="s">
         <v>429</v>
       </c>
-      <c r="B112" t="s">
-        <v>528</v>
-      </c>
-      <c r="C112" t="s">
-        <v>611</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
+        <v>719</v>
+      </c>
+      <c r="G112" t="s">
         <v>430</v>
       </c>
-      <c r="E112" t="s">
+      <c r="H112" t="s">
         <v>431</v>
-      </c>
-      <c r="F112" t="s">
-        <v>713</v>
-      </c>
-      <c r="G112" t="s">
-        <v>432</v>
-      </c>
-      <c r="H112" t="s">
-        <v>433</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -5537,28 +5545,28 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>432</v>
+      </c>
+      <c r="B113" t="s">
+        <v>536</v>
+      </c>
+      <c r="C113" t="s">
+        <v>618</v>
+      </c>
+      <c r="D113" t="s">
+        <v>433</v>
+      </c>
+      <c r="E113" t="s">
         <v>434</v>
       </c>
-      <c r="B113" t="s">
-        <v>528</v>
-      </c>
-      <c r="C113" t="s">
-        <v>612</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
+        <v>720</v>
+      </c>
+      <c r="G113" t="s">
         <v>435</v>
       </c>
-      <c r="E113" t="s">
+      <c r="H113" t="s">
         <v>436</v>
-      </c>
-      <c r="F113" t="s">
-        <v>714</v>
-      </c>
-      <c r="G113" t="s">
-        <v>437</v>
-      </c>
-      <c r="H113" t="s">
-        <v>438</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -5567,28 +5575,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>437</v>
+      </c>
+      <c r="B114" t="s">
+        <v>536</v>
+      </c>
+      <c r="C114" t="s">
+        <v>619</v>
+      </c>
+      <c r="D114" t="s">
+        <v>438</v>
+      </c>
+      <c r="E114" t="s">
         <v>439</v>
       </c>
-      <c r="B114" t="s">
-        <v>531</v>
-      </c>
-      <c r="C114" t="s">
-        <v>613</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
+        <v>721</v>
+      </c>
+      <c r="G114" t="s">
         <v>440</v>
       </c>
-      <c r="E114" t="s">
+      <c r="H114" t="s">
         <v>441</v>
-      </c>
-      <c r="F114" t="s">
-        <v>715</v>
-      </c>
-      <c r="G114" t="s">
-        <v>442</v>
-      </c>
-      <c r="H114" t="s">
-        <v>443</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -5597,28 +5605,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>442</v>
+      </c>
+      <c r="B115" t="s">
+        <v>536</v>
+      </c>
+      <c r="C115" t="s">
+        <v>620</v>
+      </c>
+      <c r="D115" t="s">
+        <v>443</v>
+      </c>
+      <c r="E115" t="s">
         <v>444</v>
       </c>
-      <c r="B115" t="s">
-        <v>528</v>
-      </c>
-      <c r="C115" t="s">
-        <v>614</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
+        <v>722</v>
+      </c>
+      <c r="G115" t="s">
         <v>445</v>
       </c>
-      <c r="E115" t="s">
+      <c r="H115" t="s">
         <v>446</v>
-      </c>
-      <c r="F115" t="s">
-        <v>716</v>
-      </c>
-      <c r="G115" t="s">
-        <v>447</v>
-      </c>
-      <c r="H115" t="s">
-        <v>448</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
@@ -5627,28 +5635,28 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>447</v>
+      </c>
+      <c r="B116" t="s">
+        <v>539</v>
+      </c>
+      <c r="C116" t="s">
+        <v>621</v>
+      </c>
+      <c r="D116" t="s">
+        <v>448</v>
+      </c>
+      <c r="E116" t="s">
         <v>449</v>
       </c>
-      <c r="B116" t="s">
-        <v>528</v>
-      </c>
-      <c r="C116" t="s">
-        <v>615</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="F116" t="s">
+        <v>723</v>
+      </c>
+      <c r="G116" t="s">
         <v>450</v>
       </c>
-      <c r="E116" t="s">
+      <c r="H116" t="s">
         <v>451</v>
-      </c>
-      <c r="F116" t="s">
-        <v>717</v>
-      </c>
-      <c r="G116" t="s">
-        <v>452</v>
-      </c>
-      <c r="H116" t="s">
-        <v>453</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -5657,28 +5665,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>452</v>
+      </c>
+      <c r="B117" t="s">
+        <v>536</v>
+      </c>
+      <c r="C117" t="s">
+        <v>622</v>
+      </c>
+      <c r="D117" t="s">
+        <v>453</v>
+      </c>
+      <c r="E117" t="s">
         <v>454</v>
       </c>
-      <c r="B117" t="s">
-        <v>528</v>
-      </c>
-      <c r="C117" t="s">
-        <v>616</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
+        <v>724</v>
+      </c>
+      <c r="G117" t="s">
         <v>455</v>
       </c>
-      <c r="E117" t="s">
+      <c r="H117" t="s">
         <v>456</v>
-      </c>
-      <c r="F117" t="s">
-        <v>718</v>
-      </c>
-      <c r="G117" t="s">
-        <v>457</v>
-      </c>
-      <c r="H117" t="s">
-        <v>458</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -5687,28 +5695,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B118" t="s">
+        <v>536</v>
+      </c>
+      <c r="C118" t="s">
+        <v>623</v>
+      </c>
+      <c r="D118" t="s">
+        <v>458</v>
+      </c>
+      <c r="E118" t="s">
         <v>459</v>
       </c>
-      <c r="B118" t="s">
-        <v>528</v>
-      </c>
-      <c r="C118" t="s">
-        <v>617</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
+        <v>725</v>
+      </c>
+      <c r="G118" t="s">
         <v>460</v>
       </c>
-      <c r="E118" t="s">
+      <c r="H118" t="s">
         <v>461</v>
-      </c>
-      <c r="F118" t="s">
-        <v>719</v>
-      </c>
-      <c r="G118" t="s">
-        <v>462</v>
-      </c>
-      <c r="H118" t="s">
-        <v>463</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -5717,28 +5725,28 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>462</v>
+      </c>
+      <c r="B119" t="s">
+        <v>536</v>
+      </c>
+      <c r="C119" t="s">
+        <v>624</v>
+      </c>
+      <c r="D119" t="s">
+        <v>463</v>
+      </c>
+      <c r="E119" t="s">
         <v>464</v>
       </c>
-      <c r="B119" t="s">
-        <v>528</v>
-      </c>
-      <c r="C119" t="s">
-        <v>618</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
+        <v>726</v>
+      </c>
+      <c r="G119" t="s">
         <v>465</v>
       </c>
-      <c r="E119" t="s">
+      <c r="H119" t="s">
         <v>466</v>
-      </c>
-      <c r="F119" t="s">
-        <v>720</v>
-      </c>
-      <c r="G119" t="s">
-        <v>467</v>
-      </c>
-      <c r="H119" t="s">
-        <v>468</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -5747,28 +5755,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>467</v>
+      </c>
+      <c r="B120" t="s">
+        <v>536</v>
+      </c>
+      <c r="C120" t="s">
+        <v>625</v>
+      </c>
+      <c r="D120" t="s">
+        <v>468</v>
+      </c>
+      <c r="E120" t="s">
         <v>469</v>
       </c>
-      <c r="B120" t="s">
-        <v>528</v>
-      </c>
-      <c r="C120" t="s">
-        <v>619</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
+        <v>727</v>
+      </c>
+      <c r="G120" t="s">
         <v>470</v>
       </c>
-      <c r="E120" t="s">
+      <c r="H120" t="s">
         <v>471</v>
-      </c>
-      <c r="F120" t="s">
-        <v>721</v>
-      </c>
-      <c r="G120" t="s">
-        <v>472</v>
-      </c>
-      <c r="H120" t="s">
-        <v>473</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -5777,28 +5785,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" t="s">
+        <v>536</v>
+      </c>
+      <c r="C121" t="s">
+        <v>626</v>
+      </c>
+      <c r="D121" t="s">
+        <v>473</v>
+      </c>
+      <c r="E121" t="s">
         <v>474</v>
       </c>
-      <c r="B121" t="s">
-        <v>528</v>
-      </c>
-      <c r="C121" t="s">
-        <v>620</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
+        <v>728</v>
+      </c>
+      <c r="G121" t="s">
         <v>475</v>
       </c>
-      <c r="E121" t="s">
+      <c r="H121" t="s">
         <v>476</v>
-      </c>
-      <c r="F121" t="s">
-        <v>722</v>
-      </c>
-      <c r="G121" t="s">
-        <v>477</v>
-      </c>
-      <c r="H121" t="s">
-        <v>478</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -5807,28 +5815,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>477</v>
+      </c>
+      <c r="B122" t="s">
+        <v>536</v>
+      </c>
+      <c r="C122" t="s">
+        <v>627</v>
+      </c>
+      <c r="D122" t="s">
+        <v>478</v>
+      </c>
+      <c r="E122" t="s">
         <v>479</v>
       </c>
-      <c r="B122" t="s">
-        <v>528</v>
-      </c>
-      <c r="C122" t="s">
-        <v>620</v>
-      </c>
-      <c r="D122" t="s">
-        <v>475</v>
-      </c>
-      <c r="E122" t="s">
-        <v>476</v>
-      </c>
       <c r="F122" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="G122" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H122" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
@@ -5837,28 +5845,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B123" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C123" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="D123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E123" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F123" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="G123" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H123" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -5867,28 +5875,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B124" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C124" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D124" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E124" t="s">
+        <v>484</v>
+      </c>
+      <c r="F124" t="s">
+        <v>730</v>
+      </c>
+      <c r="G124" t="s">
+        <v>485</v>
+      </c>
+      <c r="H124" t="s">
         <v>488</v>
-      </c>
-      <c r="F124" t="s">
-        <v>724</v>
-      </c>
-      <c r="G124" t="s">
-        <v>489</v>
-      </c>
-      <c r="H124" t="s">
-        <v>490</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
@@ -5897,28 +5905,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>489</v>
+      </c>
+      <c r="B125" t="s">
+        <v>536</v>
+      </c>
+      <c r="C125" t="s">
+        <v>629</v>
+      </c>
+      <c r="D125" t="s">
+        <v>490</v>
+      </c>
+      <c r="E125" t="s">
         <v>491</v>
       </c>
-      <c r="B125" t="s">
-        <v>528</v>
-      </c>
-      <c r="C125" t="s">
-        <v>623</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
+        <v>731</v>
+      </c>
+      <c r="G125" t="s">
         <v>492</v>
       </c>
-      <c r="E125" t="s">
+      <c r="H125" t="s">
         <v>493</v>
-      </c>
-      <c r="F125" t="s">
-        <v>725</v>
-      </c>
-      <c r="G125" t="s">
-        <v>494</v>
-      </c>
-      <c r="H125" t="s">
-        <v>495</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
@@ -5927,28 +5935,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>494</v>
+      </c>
+      <c r="B126" t="s">
+        <v>536</v>
+      </c>
+      <c r="C126" t="s">
+        <v>630</v>
+      </c>
+      <c r="D126" t="s">
+        <v>495</v>
+      </c>
+      <c r="E126" t="s">
         <v>496</v>
       </c>
-      <c r="B126" t="s">
-        <v>528</v>
-      </c>
-      <c r="C126" t="s">
-        <v>624</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
+        <v>732</v>
+      </c>
+      <c r="G126" t="s">
         <v>497</v>
       </c>
-      <c r="E126" t="s">
+      <c r="H126" t="s">
         <v>498</v>
-      </c>
-      <c r="F126" t="s">
-        <v>726</v>
-      </c>
-      <c r="G126" t="s">
-        <v>499</v>
-      </c>
-      <c r="H126" t="s">
-        <v>500</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
@@ -5957,28 +5965,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>499</v>
+      </c>
+      <c r="B127" t="s">
+        <v>536</v>
+      </c>
+      <c r="C127" t="s">
+        <v>631</v>
+      </c>
+      <c r="D127" t="s">
+        <v>500</v>
+      </c>
+      <c r="E127" t="s">
         <v>501</v>
       </c>
-      <c r="B127" t="s">
-        <v>528</v>
-      </c>
-      <c r="C127" t="s">
-        <v>625</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
+        <v>733</v>
+      </c>
+      <c r="G127" t="s">
         <v>502</v>
       </c>
-      <c r="E127" t="s">
+      <c r="H127" t="s">
         <v>503</v>
-      </c>
-      <c r="F127" t="s">
-        <v>727</v>
-      </c>
-      <c r="G127" t="s">
-        <v>504</v>
-      </c>
-      <c r="H127" t="s">
-        <v>505</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -5987,28 +5995,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>504</v>
+      </c>
+      <c r="B128" t="s">
+        <v>536</v>
+      </c>
+      <c r="C128" t="s">
+        <v>632</v>
+      </c>
+      <c r="D128" t="s">
+        <v>505</v>
+      </c>
+      <c r="E128" t="s">
         <v>506</v>
       </c>
-      <c r="B128" t="s">
-        <v>544</v>
-      </c>
-      <c r="C128" t="s">
-        <v>626</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
+        <v>734</v>
+      </c>
+      <c r="G128" t="s">
         <v>507</v>
       </c>
-      <c r="E128" t="s">
+      <c r="H128" t="s">
         <v>508</v>
-      </c>
-      <c r="F128" t="s">
-        <v>728</v>
-      </c>
-      <c r="G128" t="s">
-        <v>509</v>
-      </c>
-      <c r="H128" t="s">
-        <v>510</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
@@ -6017,28 +6025,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>509</v>
+      </c>
+      <c r="B129" t="s">
+        <v>536</v>
+      </c>
+      <c r="C129" t="s">
+        <v>633</v>
+      </c>
+      <c r="D129" t="s">
+        <v>510</v>
+      </c>
+      <c r="E129" t="s">
         <v>511</v>
       </c>
-      <c r="B129" t="s">
-        <v>532</v>
-      </c>
-      <c r="C129" t="s">
-        <v>627</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
+        <v>735</v>
+      </c>
+      <c r="G129" t="s">
         <v>512</v>
       </c>
-      <c r="E129" t="s">
+      <c r="H129" t="s">
         <v>513</v>
-      </c>
-      <c r="F129" t="s">
-        <v>729</v>
-      </c>
-      <c r="G129" t="s">
-        <v>514</v>
-      </c>
-      <c r="H129" t="s">
-        <v>515</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
@@ -6047,33 +6055,93 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>514</v>
+      </c>
+      <c r="B130" t="s">
+        <v>552</v>
+      </c>
+      <c r="C130" t="s">
+        <v>634</v>
+      </c>
+      <c r="D130" t="s">
+        <v>515</v>
+      </c>
+      <c r="E130" t="s">
         <v>516</v>
       </c>
-      <c r="B130" t="s">
-        <v>532</v>
-      </c>
-      <c r="C130" t="s">
-        <v>628</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
+        <v>736</v>
+      </c>
+      <c r="G130" t="s">
         <v>517</v>
       </c>
-      <c r="E130" t="s">
+      <c r="H130" t="s">
         <v>518</v>
-      </c>
-      <c r="F130" t="s">
-        <v>730</v>
-      </c>
-      <c r="G130" t="s">
-        <v>519</v>
-      </c>
-      <c r="H130" t="s">
-        <v>520</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
       <c r="M130"/>
       <c r="N130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>519</v>
+      </c>
+      <c r="B131" t="s">
+        <v>540</v>
+      </c>
+      <c r="C131" t="s">
+        <v>635</v>
+      </c>
+      <c r="D131" t="s">
+        <v>520</v>
+      </c>
+      <c r="E131" t="s">
+        <v>521</v>
+      </c>
+      <c r="F131" t="s">
+        <v>737</v>
+      </c>
+      <c r="G131" t="s">
+        <v>522</v>
+      </c>
+      <c r="H131" t="s">
+        <v>523</v>
+      </c>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>524</v>
+      </c>
+      <c r="B132" t="s">
+        <v>540</v>
+      </c>
+      <c r="C132" t="s">
+        <v>636</v>
+      </c>
+      <c r="D132" t="s">
+        <v>525</v>
+      </c>
+      <c r="E132" t="s">
+        <v>526</v>
+      </c>
+      <c r="F132" t="s">
+        <v>738</v>
+      </c>
+      <c r="G132" t="s">
+        <v>527</v>
+      </c>
+      <c r="H132" t="s">
+        <v>528</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="M132"/>
+      <c r="N132"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="755">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -114,6 +114,41 @@
   </si>
   <si>
     <t xml:space="preserve">ミシリアは復興と存続のために盟友を必要としている。新天地の発展を進めれば、ミシリアから報せが届くかもしれない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeking the Legendary Bag!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伝説の鞄の謎を追え！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accompany Nanasu and explore the “Forest of the Lost Way,” located northwest of Specwing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖精のナナスを連れ、スペクウィングの北西にある「帰らずの森」を探索しよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasu1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+At the deepest part of the forest, Nanasu’s rivals, Raina and Poina, await you. Eliminate the insolent fairies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帰らずの森の最奥でナナスのライバルのライナとポイナが待ち受けていた。生意気な妖精たちを駆除しよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+You have found the mysterious bag that Nanasu desired. Speak to her and hand it over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたはナナスが欲しがっていた不思議な鞄を見つけた。ナナスに話しかけ、鞄を渡そう。</t>
   </si>
   <si>
     <t xml:space="preserve">melilith</t>
@@ -2651,10 +2686,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C3" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2663,7 +2698,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2681,10 +2716,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="C4" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2693,7 +2728,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2711,12 +2746,12 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2734,10 +2769,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2746,7 +2781,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2764,19 +2799,13 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C7" t="s">
-        <v>557</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>643</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2794,13 +2823,10 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>15</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" t="s">
-        <v>644</v>
-      </c>
       <c r="G8" t="s">
         <v>39</v>
       </c>
@@ -2817,99 +2843,68 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C9" t="s">
-        <v>558</v>
-      </c>
-      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>645</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9" t="s">
-        <v>743</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" t="s">
-        <v>47</v>
-      </c>
+      <c r="M9"/>
+      <c r="N9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>654</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C10" t="s">
-        <v>559</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>646</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11" t="s">
-        <v>560</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
@@ -2918,86 +2913,102 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C12" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="M12"/>
-      <c r="N12"/>
+      <c r="L12" t="s">
+        <v>754</v>
+      </c>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="M13"/>
-      <c r="N13"/>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>658</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C14" t="s">
-        <v>563</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>650</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>73</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -3006,17 +3017,26 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>540</v>
+      </c>
+      <c r="C15" t="s">
+        <v>572</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>659</v>
+      </c>
+      <c r="G15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
-        <v>529</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>651</v>
-      </c>
-      <c r="G15"/>
       <c r="H15" t="s">
         <v>75</v>
       </c>
@@ -3030,12 +3050,26 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="G16"/>
-      <c r="H16"/>
+        <v>540</v>
+      </c>
+      <c r="C16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="M16"/>
@@ -3043,28 +3077,26 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C17" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>652</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="G17"/>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -3073,15 +3105,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
+      <c r="F18" t="s">
+        <v>662</v>
+      </c>
       <c r="G18"/>
-      <c r="H18"/>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="M18"/>
@@ -3089,29 +3126,15 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>529</v>
-      </c>
-      <c r="C19" t="s">
-        <v>565</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>653</v>
-      </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>87</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="G19"/>
+      <c r="H19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="M19"/>
@@ -3122,18 +3145,25 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>529</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20"/>
+        <v>544</v>
+      </c>
+      <c r="C20" t="s">
+        <v>575</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
       <c r="F20" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -3142,22 +3172,15 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" t="s">
-        <v>655</v>
-      </c>
-      <c r="G21" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" t="s">
-        <v>93</v>
-      </c>
+      <c r="G21"/>
+      <c r="H21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="M21"/>
@@ -3168,12 +3191,26 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>529</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="G22"/>
-      <c r="H22"/>
+        <v>540</v>
+      </c>
+      <c r="C22" t="s">
+        <v>576</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>664</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="M22"/>
@@ -3181,28 +3218,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
-      </c>
-      <c r="C23" t="s">
-        <v>566</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
       <c r="F23" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -3211,15 +3241,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="G24"/>
-      <c r="H24"/>
+      <c r="F24" t="s">
+        <v>666</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="M24"/>
@@ -3227,29 +3264,15 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>534</v>
-      </c>
-      <c r="C25" t="s">
-        <v>567</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>648</v>
-      </c>
-      <c r="G25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="G25"/>
+      <c r="H25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="M25"/>
@@ -3257,28 +3280,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C26" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -3287,29 +3310,15 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>534</v>
-      </c>
-      <c r="C27" t="s">
-        <v>569</v>
-      </c>
-      <c r="D27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" t="s">
-        <v>657</v>
-      </c>
-      <c r="G27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" t="s">
-        <v>112</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="G27"/>
+      <c r="H27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="M27"/>
@@ -3317,18 +3326,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C28" t="s">
+        <v>578</v>
+      </c>
+      <c r="D28" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
-        <v>534</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
       <c r="F28" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
         <v>115</v>
@@ -3343,12 +3359,26 @@
         <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>534</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="G29"/>
-      <c r="H29"/>
+        <v>546</v>
+      </c>
+      <c r="C29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
+        <v>659</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="M29"/>
@@ -3356,28 +3386,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C30" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -3386,21 +3416,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -3409,22 +3439,15 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" t="s">
-        <v>661</v>
-      </c>
-      <c r="G32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" t="s">
-        <v>127</v>
-      </c>
+      <c r="G32"/>
+      <c r="H32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="M32"/>
@@ -3435,12 +3458,26 @@
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>529</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="G33"/>
-      <c r="H33"/>
+        <v>547</v>
+      </c>
+      <c r="C33" t="s">
+        <v>581</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>670</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" t="s">
+        <v>132</v>
+      </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="M33"/>
@@ -3448,28 +3485,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>529</v>
-      </c>
-      <c r="C34" t="s">
-        <v>571</v>
-      </c>
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" t="s">
-        <v>131</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
       <c r="F34" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -3478,21 +3508,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -3501,10 +3531,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -3517,28 +3547,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C37" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -3547,15 +3577,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="G38"/>
-      <c r="H38"/>
+      <c r="F38" t="s">
+        <v>674</v>
+      </c>
+      <c r="G38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" t="s">
+        <v>147</v>
+      </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="M38"/>
@@ -3563,29 +3600,15 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>529</v>
-      </c>
-      <c r="C39" t="s">
-        <v>573</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" t="s">
-        <v>665</v>
-      </c>
-      <c r="G39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" t="s">
-        <v>148</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="G39"/>
+      <c r="H39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="M39"/>
@@ -3596,18 +3619,25 @@
         <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>529</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40"/>
+        <v>548</v>
+      </c>
+      <c r="C40" t="s">
+        <v>583</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
       <c r="F40" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="G40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -3616,22 +3646,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41" t="s">
-        <v>667</v>
-      </c>
-      <c r="G41" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" t="s">
-        <v>154</v>
-      </c>
+      <c r="G41"/>
+      <c r="H41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="M41"/>
@@ -3642,18 +3665,25 @@
         <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>529</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
+        <v>540</v>
+      </c>
+      <c r="C42" t="s">
+        <v>584</v>
+      </c>
+      <c r="D42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" t="s">
+        <v>157</v>
+      </c>
       <c r="F42" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -3662,21 +3692,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -3685,21 +3715,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H44" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -3708,15 +3738,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
-      <c r="G45"/>
-      <c r="H45"/>
+      <c r="F45" t="s">
+        <v>679</v>
+      </c>
+      <c r="G45" t="s">
+        <v>167</v>
+      </c>
+      <c r="H45" t="s">
+        <v>168</v>
+      </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="M45"/>
@@ -3724,28 +3761,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>534</v>
-      </c>
-      <c r="C46" t="s">
-        <v>574</v>
-      </c>
-      <c r="D46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" t="s">
-        <v>165</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
       <c r="F46" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="G46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -3754,22 +3784,15 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>534</v>
-      </c>
-      <c r="C47" t="s">
-        <v>575</v>
-      </c>
-      <c r="D47" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" t="s">
-        <v>170</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
       <c r="F47" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="G47" t="s">
         <v>171</v>
@@ -3787,7 +3810,7 @@
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -3803,10 +3826,10 @@
         <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C49" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="D49" t="s">
         <v>175</v>
@@ -3815,7 +3838,7 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="G49" t="s">
         <v>177</v>
@@ -3833,12 +3856,26 @@
         <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>534</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="G50"/>
-      <c r="H50"/>
+        <v>545</v>
+      </c>
+      <c r="C50" t="s">
+        <v>586</v>
+      </c>
+      <c r="D50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" t="s">
+        <v>682</v>
+      </c>
+      <c r="G50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H50" t="s">
+        <v>183</v>
+      </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="M50"/>
@@ -3846,29 +3883,15 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>538</v>
-      </c>
-      <c r="C51" t="s">
-        <v>577</v>
-      </c>
-      <c r="D51" t="s">
-        <v>181</v>
-      </c>
-      <c r="E51" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" t="s">
-        <v>673</v>
-      </c>
-      <c r="G51" t="s">
-        <v>183</v>
-      </c>
-      <c r="H51" t="s">
-        <v>184</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="G51"/>
+      <c r="H51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="M51"/>
@@ -3879,10 +3902,10 @@
         <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C52" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D52" t="s">
         <v>186</v>
@@ -3891,7 +3914,7 @@
         <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
@@ -3909,26 +3932,12 @@
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>538</v>
-      </c>
-      <c r="C53" t="s">
-        <v>579</v>
-      </c>
-      <c r="D53" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" t="s">
-        <v>675</v>
-      </c>
-      <c r="G53" t="s">
-        <v>193</v>
-      </c>
-      <c r="H53" t="s">
-        <v>194</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="G53"/>
+      <c r="H53"/>
       <c r="J53"/>
       <c r="K53"/>
       <c r="M53"/>
@@ -3936,28 +3945,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>549</v>
+      </c>
+      <c r="C54" t="s">
+        <v>588</v>
+      </c>
+      <c r="D54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" t="s">
+        <v>684</v>
+      </c>
+      <c r="G54" t="s">
+        <v>194</v>
+      </c>
+      <c r="H54" t="s">
         <v>195</v>
-      </c>
-      <c r="B54" t="s">
-        <v>538</v>
-      </c>
-      <c r="C54" t="s">
-        <v>580</v>
-      </c>
-      <c r="D54" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54" t="s">
-        <v>676</v>
-      </c>
-      <c r="G54" t="s">
-        <v>198</v>
-      </c>
-      <c r="H54" t="s">
-        <v>199</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3966,28 +3975,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>549</v>
+      </c>
+      <c r="C55" t="s">
+        <v>589</v>
+      </c>
+      <c r="D55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55" t="s">
+        <v>685</v>
+      </c>
+      <c r="G55" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" t="s">
         <v>200</v>
-      </c>
-      <c r="B55" t="s">
-        <v>536</v>
-      </c>
-      <c r="C55" t="s">
-        <v>581</v>
-      </c>
-      <c r="D55" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" t="s">
-        <v>202</v>
-      </c>
-      <c r="F55" t="s">
-        <v>677</v>
-      </c>
-      <c r="G55" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55" t="s">
-        <v>204</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -3996,28 +4005,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
+        <v>549</v>
+      </c>
+      <c r="C56" t="s">
+        <v>590</v>
+      </c>
+      <c r="D56" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" t="s">
+        <v>686</v>
+      </c>
+      <c r="G56" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" t="s">
         <v>205</v>
-      </c>
-      <c r="B56" t="s">
-        <v>539</v>
-      </c>
-      <c r="C56" t="s">
-        <v>582</v>
-      </c>
-      <c r="D56" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" t="s">
-        <v>678</v>
-      </c>
-      <c r="G56" t="s">
-        <v>208</v>
-      </c>
-      <c r="H56" t="s">
-        <v>209</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -4026,28 +4035,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" t="s">
+        <v>549</v>
+      </c>
+      <c r="C57" t="s">
+        <v>591</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" t="s">
+        <v>687</v>
+      </c>
+      <c r="G57" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57" t="s">
         <v>210</v>
-      </c>
-      <c r="B57" t="s">
-        <v>536</v>
-      </c>
-      <c r="C57" t="s">
-        <v>583</v>
-      </c>
-      <c r="D57" t="s">
-        <v>211</v>
-      </c>
-      <c r="E57" t="s">
-        <v>212</v>
-      </c>
-      <c r="F57" t="s">
-        <v>679</v>
-      </c>
-      <c r="G57" t="s">
-        <v>213</v>
-      </c>
-      <c r="H57" t="s">
-        <v>214</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -4056,28 +4065,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s">
+        <v>547</v>
+      </c>
+      <c r="C58" t="s">
+        <v>592</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" t="s">
+        <v>688</v>
+      </c>
+      <c r="G58" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" t="s">
         <v>215</v>
-      </c>
-      <c r="B58" t="s">
-        <v>536</v>
-      </c>
-      <c r="C58" t="s">
-        <v>584</v>
-      </c>
-      <c r="D58" t="s">
-        <v>216</v>
-      </c>
-      <c r="E58" t="s">
-        <v>217</v>
-      </c>
-      <c r="F58" t="s">
-        <v>680</v>
-      </c>
-      <c r="G58" t="s">
-        <v>218</v>
-      </c>
-      <c r="H58" t="s">
-        <v>219</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -4086,21 +4095,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>550</v>
+      </c>
+      <c r="C59" t="s">
+        <v>593</v>
+      </c>
+      <c r="D59" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" t="s">
+        <v>689</v>
+      </c>
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
+      <c r="H59" t="s">
         <v>220</v>
-      </c>
-      <c r="B59" t="s">
-        <v>536</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59" t="s">
-        <v>681</v>
-      </c>
-      <c r="G59" t="s">
-        <v>221</v>
-      </c>
-      <c r="H59" t="s">
-        <v>222</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -4109,15 +4125,22 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" t="s">
+        <v>547</v>
+      </c>
+      <c r="C60" t="s">
+        <v>594</v>
+      </c>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" t="s">
         <v>223</v>
       </c>
-      <c r="B60" t="s">
-        <v>536</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60"/>
       <c r="F60" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G60" t="s">
         <v>224</v>
@@ -4135,18 +4158,25 @@
         <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>540</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61"/>
+        <v>547</v>
+      </c>
+      <c r="C61" t="s">
+        <v>595</v>
+      </c>
+      <c r="D61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" t="s">
+        <v>228</v>
+      </c>
       <c r="F61" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="G61" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
@@ -4155,21 +4185,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="G62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
@@ -4178,21 +4208,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="G63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
@@ -4201,21 +4231,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -4224,21 +4254,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -4247,21 +4277,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B66" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="G66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -4270,21 +4300,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="G67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
@@ -4293,17 +4323,22 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
+      <c r="F68" t="s">
+        <v>698</v>
+      </c>
       <c r="G68" t="s">
-        <v>248</v>
-      </c>
-      <c r="H68"/>
+        <v>250</v>
+      </c>
+      <c r="H68" t="s">
+        <v>251</v>
+      </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="M68"/>
@@ -4311,17 +4346,22 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
+      <c r="F69" t="s">
+        <v>699</v>
+      </c>
       <c r="G69" t="s">
-        <v>248</v>
-      </c>
-      <c r="H69"/>
+        <v>253</v>
+      </c>
+      <c r="H69" t="s">
+        <v>254</v>
+      </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="M69"/>
@@ -4329,28 +4369,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>536</v>
-      </c>
-      <c r="C70" t="s">
-        <v>585</v>
-      </c>
-      <c r="D70" t="s">
-        <v>251</v>
-      </c>
-      <c r="E70" t="s">
-        <v>252</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
       <c r="F70" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="G70" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H70" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -4359,29 +4392,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
-        <v>536</v>
-      </c>
-      <c r="C71" t="s">
-        <v>586</v>
-      </c>
-      <c r="D71" t="s">
-        <v>256</v>
-      </c>
-      <c r="E71" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" t="s">
-        <v>691</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
       <c r="G71" t="s">
-        <v>258</v>
-      </c>
-      <c r="H71" t="s">
         <v>259</v>
       </c>
+      <c r="H71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="M71"/>
@@ -4392,26 +4413,14 @@
         <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>543</v>
-      </c>
-      <c r="C72" t="s">
-        <v>587</v>
-      </c>
-      <c r="D72" t="s">
-        <v>261</v>
-      </c>
-      <c r="E72" t="s">
-        <v>262</v>
-      </c>
-      <c r="F72" t="s">
-        <v>692</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
       <c r="G72" t="s">
-        <v>263</v>
-      </c>
-      <c r="H72" t="s">
-        <v>264</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="H72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="M72"/>
@@ -4419,28 +4428,28 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73" t="s">
+        <v>547</v>
+      </c>
+      <c r="C73" t="s">
+        <v>596</v>
+      </c>
+      <c r="D73" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" t="s">
+        <v>701</v>
+      </c>
+      <c r="G73" t="s">
+        <v>264</v>
+      </c>
+      <c r="H73" t="s">
         <v>265</v>
-      </c>
-      <c r="B73" t="s">
-        <v>543</v>
-      </c>
-      <c r="C73" t="s">
-        <v>588</v>
-      </c>
-      <c r="D73" t="s">
-        <v>266</v>
-      </c>
-      <c r="E73" t="s">
-        <v>267</v>
-      </c>
-      <c r="F73" t="s">
-        <v>693</v>
-      </c>
-      <c r="G73" t="s">
-        <v>268</v>
-      </c>
-      <c r="H73" t="s">
-        <v>269</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
@@ -4449,28 +4458,28 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" t="s">
+        <v>547</v>
+      </c>
+      <c r="C74" t="s">
+        <v>597</v>
+      </c>
+      <c r="D74" t="s">
+        <v>267</v>
+      </c>
+      <c r="E74" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" t="s">
+        <v>702</v>
+      </c>
+      <c r="G74" t="s">
+        <v>269</v>
+      </c>
+      <c r="H74" t="s">
         <v>270</v>
-      </c>
-      <c r="B74" t="s">
-        <v>544</v>
-      </c>
-      <c r="C74" t="s">
-        <v>589</v>
-      </c>
-      <c r="D74" t="s">
-        <v>271</v>
-      </c>
-      <c r="E74" t="s">
-        <v>272</v>
-      </c>
-      <c r="F74" t="s">
-        <v>694</v>
-      </c>
-      <c r="G74" t="s">
-        <v>273</v>
-      </c>
-      <c r="H74" t="s">
-        <v>274</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
@@ -4479,19 +4488,28 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" t="s">
+        <v>554</v>
+      </c>
+      <c r="C75" t="s">
+        <v>598</v>
+      </c>
+      <c r="D75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" t="s">
+        <v>273</v>
+      </c>
+      <c r="F75" t="s">
+        <v>703</v>
+      </c>
+      <c r="G75" t="s">
+        <v>274</v>
+      </c>
+      <c r="H75" t="s">
         <v>275</v>
-      </c>
-      <c r="B75" t="s">
-        <v>529</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75" t="s">
-        <v>276</v>
-      </c>
-      <c r="G75"/>
-      <c r="H75" t="s">
-        <v>276</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -4500,28 +4518,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>554</v>
+      </c>
+      <c r="C76" t="s">
+        <v>599</v>
+      </c>
+      <c r="D76" t="s">
         <v>277</v>
       </c>
-      <c r="B76" t="s">
-        <v>545</v>
-      </c>
-      <c r="C76" t="s">
-        <v>590</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>278</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>704</v>
+      </c>
+      <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="F76" t="s">
-        <v>695</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>280</v>
-      </c>
-      <c r="H76" t="s">
-        <v>281</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -4530,28 +4548,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" t="s">
+        <v>555</v>
+      </c>
+      <c r="C77" t="s">
+        <v>600</v>
+      </c>
+      <c r="D77" t="s">
         <v>282</v>
       </c>
-      <c r="B77" t="s">
-        <v>545</v>
-      </c>
-      <c r="C77" t="s">
-        <v>591</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>283</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>705</v>
+      </c>
+      <c r="G77" t="s">
         <v>284</v>
       </c>
-      <c r="F77" t="s">
-        <v>696</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>285</v>
-      </c>
-      <c r="H77" t="s">
-        <v>286</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -4560,28 +4578,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" t="s">
+        <v>540</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78" t="s">
         <v>287</v>
       </c>
-      <c r="B78" t="s">
-        <v>545</v>
-      </c>
-      <c r="C78" t="s">
-        <v>592</v>
-      </c>
-      <c r="D78" t="s">
-        <v>288</v>
-      </c>
-      <c r="E78" t="s">
-        <v>289</v>
-      </c>
-      <c r="F78" t="s">
-        <v>697</v>
-      </c>
-      <c r="G78" t="s">
-        <v>290</v>
-      </c>
+      <c r="G78"/>
       <c r="H78" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -4590,28 +4599,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" t="s">
+        <v>556</v>
+      </c>
+      <c r="C79" t="s">
+        <v>601</v>
+      </c>
+      <c r="D79" t="s">
+        <v>289</v>
+      </c>
+      <c r="E79" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" t="s">
+        <v>706</v>
+      </c>
+      <c r="G79" t="s">
+        <v>291</v>
+      </c>
+      <c r="H79" t="s">
         <v>292</v>
-      </c>
-      <c r="B79" t="s">
-        <v>545</v>
-      </c>
-      <c r="C79" t="s">
-        <v>593</v>
-      </c>
-      <c r="D79" t="s">
-        <v>293</v>
-      </c>
-      <c r="E79" t="s">
-        <v>294</v>
-      </c>
-      <c r="F79" t="s">
-        <v>679</v>
-      </c>
-      <c r="G79" t="s">
-        <v>213</v>
-      </c>
-      <c r="H79" t="s">
-        <v>214</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -4620,28 +4629,28 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" t="s">
+        <v>556</v>
+      </c>
+      <c r="C80" t="s">
+        <v>602</v>
+      </c>
+      <c r="D80" t="s">
+        <v>294</v>
+      </c>
+      <c r="E80" t="s">
         <v>295</v>
       </c>
-      <c r="B80" t="s">
-        <v>545</v>
-      </c>
-      <c r="C80" t="s">
-        <v>594</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
+        <v>707</v>
+      </c>
+      <c r="G80" t="s">
         <v>296</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>297</v>
-      </c>
-      <c r="F80" t="s">
-        <v>698</v>
-      </c>
-      <c r="G80" t="s">
-        <v>298</v>
-      </c>
-      <c r="H80" t="s">
-        <v>299</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -4650,28 +4659,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" t="s">
+        <v>556</v>
+      </c>
+      <c r="C81" t="s">
+        <v>603</v>
+      </c>
+      <c r="D81" t="s">
+        <v>299</v>
+      </c>
+      <c r="E81" t="s">
         <v>300</v>
       </c>
-      <c r="B81" t="s">
-        <v>539</v>
-      </c>
-      <c r="C81" t="s">
-        <v>595</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
+        <v>708</v>
+      </c>
+      <c r="G81" t="s">
         <v>301</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>302</v>
-      </c>
-      <c r="F81" t="s">
-        <v>699</v>
-      </c>
-      <c r="G81" t="s">
-        <v>303</v>
-      </c>
-      <c r="H81" t="s">
-        <v>304</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -4680,21 +4689,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" t="s">
+        <v>556</v>
+      </c>
+      <c r="C82" t="s">
+        <v>604</v>
+      </c>
+      <c r="D82" t="s">
+        <v>304</v>
+      </c>
+      <c r="E82" t="s">
         <v>305</v>
       </c>
-      <c r="B82" t="s">
-        <v>539</v>
-      </c>
-      <c r="D82"/>
-      <c r="E82"/>
       <c r="F82" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G82" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="H82" t="s">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -4703,28 +4719,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>306</v>
+      </c>
+      <c r="B83" t="s">
+        <v>556</v>
+      </c>
+      <c r="C83" t="s">
+        <v>605</v>
+      </c>
+      <c r="D83" t="s">
+        <v>307</v>
+      </c>
+      <c r="E83" t="s">
         <v>308</v>
       </c>
-      <c r="B83" t="s">
-        <v>546</v>
-      </c>
-      <c r="C83" t="s">
-        <v>596</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
+        <v>709</v>
+      </c>
+      <c r="G83" t="s">
         <v>309</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>310</v>
-      </c>
-      <c r="F83" t="s">
-        <v>701</v>
-      </c>
-      <c r="G83" t="s">
-        <v>311</v>
-      </c>
-      <c r="H83" t="s">
-        <v>312</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
@@ -4733,15 +4749,22 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84" t="s">
+        <v>550</v>
+      </c>
+      <c r="C84" t="s">
+        <v>606</v>
+      </c>
+      <c r="D84" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" t="s">
         <v>313</v>
       </c>
-      <c r="B84" t="s">
-        <v>546</v>
-      </c>
-      <c r="D84"/>
-      <c r="E84"/>
       <c r="F84" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="G84" t="s">
         <v>314</v>
@@ -4759,25 +4782,18 @@
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>539</v>
-      </c>
-      <c r="C85" t="s">
-        <v>597</v>
-      </c>
-      <c r="D85" t="s">
+        <v>550</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>711</v>
+      </c>
+      <c r="G85" t="s">
         <v>317</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>318</v>
-      </c>
-      <c r="F85" t="s">
-        <v>703</v>
-      </c>
-      <c r="G85" t="s">
-        <v>319</v>
-      </c>
-      <c r="H85" t="s">
-        <v>320</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
@@ -4786,28 +4802,28 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" t="s">
+        <v>557</v>
+      </c>
+      <c r="C86" t="s">
+        <v>607</v>
+      </c>
+      <c r="D86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E86" t="s">
         <v>321</v>
       </c>
-      <c r="B86" t="s">
-        <v>536</v>
-      </c>
-      <c r="C86" t="s">
-        <v>598</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
+        <v>712</v>
+      </c>
+      <c r="G86" t="s">
         <v>322</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>323</v>
-      </c>
-      <c r="F86" t="s">
-        <v>691</v>
-      </c>
-      <c r="G86" t="s">
-        <v>258</v>
-      </c>
-      <c r="H86" t="s">
-        <v>259</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -4819,25 +4835,18 @@
         <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>536</v>
-      </c>
-      <c r="C87" t="s">
-        <v>598</v>
-      </c>
-      <c r="D87" t="s">
-        <v>322</v>
-      </c>
-      <c r="E87" t="s">
-        <v>323</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
       <c r="F87" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="G87" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="H87" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -4846,26 +4855,28 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="C88" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="D88" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E88" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F88" t="s">
-        <v>704</v>
-      </c>
-      <c r="G88"/>
+        <v>714</v>
+      </c>
+      <c r="G88" t="s">
+        <v>330</v>
+      </c>
       <c r="H88" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -4874,28 +4885,28 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B89" t="s">
         <v>547</v>
       </c>
       <c r="C89" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="D89" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E89" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F89" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="G89" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="H89" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -4904,13 +4915,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B90" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C90" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D90" t="s">
         <v>333</v>
@@ -4919,13 +4930,13 @@
         <v>334</v>
       </c>
       <c r="F90" t="s">
-        <v>335</v>
+        <v>702</v>
       </c>
       <c r="G90" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="H90" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -4937,10 +4948,10 @@
         <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C91" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D91" t="s">
         <v>337</v>
@@ -4949,13 +4960,11 @@
         <v>338</v>
       </c>
       <c r="F91" t="s">
-        <v>335</v>
-      </c>
-      <c r="G91" t="s">
-        <v>335</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="G91"/>
       <c r="H91" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -4964,28 +4973,28 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B92" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="C92" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D92" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E92" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F92" t="s">
-        <v>335</v>
+        <v>702</v>
       </c>
       <c r="G92" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="H92" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -4994,28 +5003,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B93" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C93" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D93" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E93" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F93" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G93" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H93" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -5024,28 +5033,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B94" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="C94" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="D94" t="s">
+        <v>348</v>
+      </c>
+      <c r="E94" t="s">
+        <v>349</v>
+      </c>
+      <c r="F94" t="s">
         <v>346</v>
       </c>
-      <c r="E94" t="s">
-        <v>347</v>
-      </c>
-      <c r="F94" t="s">
-        <v>705</v>
-      </c>
       <c r="G94" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H94" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
@@ -5057,18 +5066,25 @@
         <v>350</v>
       </c>
       <c r="B95" t="s">
-        <v>529</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95"/>
+        <v>559</v>
+      </c>
+      <c r="C95" t="s">
+        <v>614</v>
+      </c>
+      <c r="D95" t="s">
+        <v>351</v>
+      </c>
+      <c r="E95" t="s">
+        <v>352</v>
+      </c>
       <c r="F95" t="s">
-        <v>706</v>
+        <v>346</v>
       </c>
       <c r="G95" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H95" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -5080,10 +5096,10 @@
         <v>353</v>
       </c>
       <c r="B96" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="C96" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D96" t="s">
         <v>354</v>
@@ -5092,13 +5108,13 @@
         <v>355</v>
       </c>
       <c r="F96" t="s">
-        <v>707</v>
+        <v>346</v>
       </c>
       <c r="G96" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H96" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -5107,28 +5123,28 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>356</v>
+      </c>
+      <c r="B97" t="s">
+        <v>540</v>
+      </c>
+      <c r="C97" t="s">
+        <v>616</v>
+      </c>
+      <c r="D97" t="s">
+        <v>357</v>
+      </c>
+      <c r="E97" t="s">
         <v>358</v>
       </c>
-      <c r="B97" t="s">
-        <v>529</v>
-      </c>
-      <c r="C97" t="s">
-        <v>607</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
+        <v>716</v>
+      </c>
+      <c r="G97" t="s">
         <v>359</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>360</v>
-      </c>
-      <c r="F97" t="s">
-        <v>708</v>
-      </c>
-      <c r="G97" t="s">
-        <v>361</v>
-      </c>
-      <c r="H97" t="s">
-        <v>362</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -5137,21 +5153,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B98" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G98" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -5160,28 +5176,28 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>364</v>
+      </c>
+      <c r="B99" t="s">
+        <v>547</v>
+      </c>
+      <c r="C99" t="s">
+        <v>617</v>
+      </c>
+      <c r="D99" t="s">
+        <v>365</v>
+      </c>
+      <c r="E99" t="s">
         <v>366</v>
       </c>
-      <c r="B99" t="s">
-        <v>536</v>
-      </c>
-      <c r="C99" t="s">
-        <v>608</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
+        <v>718</v>
+      </c>
+      <c r="G99" t="s">
         <v>367</v>
       </c>
-      <c r="E99" t="s">
+      <c r="H99" t="s">
         <v>368</v>
-      </c>
-      <c r="F99" t="s">
-        <v>710</v>
-      </c>
-      <c r="G99" t="s">
-        <v>369</v>
-      </c>
-      <c r="H99" t="s">
-        <v>370</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -5190,28 +5206,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>369</v>
+      </c>
+      <c r="B100" t="s">
+        <v>540</v>
+      </c>
+      <c r="C100" t="s">
+        <v>618</v>
+      </c>
+      <c r="D100" t="s">
+        <v>370</v>
+      </c>
+      <c r="E100" t="s">
         <v>371</v>
       </c>
-      <c r="B100" t="s">
-        <v>529</v>
-      </c>
-      <c r="C100" t="s">
-        <v>609</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
+        <v>719</v>
+      </c>
+      <c r="G100" t="s">
         <v>372</v>
       </c>
-      <c r="E100" t="s">
+      <c r="H100" t="s">
         <v>373</v>
-      </c>
-      <c r="F100" t="s">
-        <v>711</v>
-      </c>
-      <c r="G100" t="s">
-        <v>374</v>
-      </c>
-      <c r="H100" t="s">
-        <v>375</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -5220,21 +5236,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B101" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="G101" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H101" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -5243,28 +5259,28 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>377</v>
+      </c>
+      <c r="B102" t="s">
+        <v>547</v>
+      </c>
+      <c r="C102" t="s">
+        <v>619</v>
+      </c>
+      <c r="D102" t="s">
+        <v>378</v>
+      </c>
+      <c r="E102" t="s">
         <v>379</v>
       </c>
-      <c r="B102" t="s">
-        <v>536</v>
-      </c>
-      <c r="C102" t="s">
-        <v>610</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
+        <v>721</v>
+      </c>
+      <c r="G102" t="s">
         <v>380</v>
       </c>
-      <c r="E102" t="s">
+      <c r="H102" t="s">
         <v>381</v>
-      </c>
-      <c r="F102" t="s">
-        <v>713</v>
-      </c>
-      <c r="G102" t="s">
-        <v>382</v>
-      </c>
-      <c r="H102" t="s">
-        <v>383</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -5273,28 +5289,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>382</v>
+      </c>
+      <c r="B103" t="s">
+        <v>540</v>
+      </c>
+      <c r="C103" t="s">
+        <v>620</v>
+      </c>
+      <c r="D103" t="s">
+        <v>383</v>
+      </c>
+      <c r="E103" t="s">
         <v>384</v>
       </c>
-      <c r="B103" t="s">
-        <v>549</v>
-      </c>
-      <c r="C103" t="s">
-        <v>611</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
+        <v>722</v>
+      </c>
+      <c r="G103" t="s">
         <v>385</v>
       </c>
-      <c r="E103" t="s">
+      <c r="H103" t="s">
         <v>386</v>
-      </c>
-      <c r="F103" t="s">
-        <v>714</v>
-      </c>
-      <c r="G103" t="s">
-        <v>387</v>
-      </c>
-      <c r="H103" t="s">
-        <v>388</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -5303,21 +5319,21 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B104" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G104" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H104" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -5326,28 +5342,28 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>390</v>
+      </c>
+      <c r="B105" t="s">
+        <v>547</v>
+      </c>
+      <c r="C105" t="s">
+        <v>621</v>
+      </c>
+      <c r="D105" t="s">
+        <v>391</v>
+      </c>
+      <c r="E105" t="s">
         <v>392</v>
       </c>
-      <c r="B105" t="s">
-        <v>536</v>
-      </c>
-      <c r="C105" t="s">
-        <v>612</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
+        <v>724</v>
+      </c>
+      <c r="G105" t="s">
         <v>393</v>
       </c>
-      <c r="E105" t="s">
+      <c r="H105" t="s">
         <v>394</v>
-      </c>
-      <c r="F105" t="s">
-        <v>716</v>
-      </c>
-      <c r="G105" t="s">
-        <v>395</v>
-      </c>
-      <c r="H105" t="s">
-        <v>396</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -5356,28 +5372,28 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>395</v>
+      </c>
+      <c r="B106" t="s">
+        <v>560</v>
+      </c>
+      <c r="C106" t="s">
+        <v>622</v>
+      </c>
+      <c r="D106" t="s">
+        <v>396</v>
+      </c>
+      <c r="E106" t="s">
         <v>397</v>
       </c>
-      <c r="B106" t="s">
-        <v>536</v>
-      </c>
-      <c r="C106" t="s">
-        <v>613</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
+        <v>725</v>
+      </c>
+      <c r="G106" t="s">
         <v>398</v>
       </c>
-      <c r="E106" t="s">
+      <c r="H106" t="s">
         <v>399</v>
-      </c>
-      <c r="F106" t="s">
-        <v>717</v>
-      </c>
-      <c r="G106" t="s">
-        <v>400</v>
-      </c>
-      <c r="H106" t="s">
-        <v>401</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -5386,28 +5402,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>400</v>
+      </c>
+      <c r="B107" t="s">
+        <v>561</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>726</v>
+      </c>
+      <c r="G107" t="s">
+        <v>401</v>
+      </c>
+      <c r="H107" t="s">
         <v>402</v>
-      </c>
-      <c r="B107" t="s">
-        <v>540</v>
-      </c>
-      <c r="C107" t="s">
-        <v>614</v>
-      </c>
-      <c r="D107" t="s">
-        <v>403</v>
-      </c>
-      <c r="E107" t="s">
-        <v>404</v>
-      </c>
-      <c r="F107" t="s">
-        <v>718</v>
-      </c>
-      <c r="G107" t="s">
-        <v>405</v>
-      </c>
-      <c r="H107" t="s">
-        <v>406</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -5416,28 +5425,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>403</v>
+      </c>
+      <c r="B108" t="s">
+        <v>547</v>
+      </c>
+      <c r="C108" t="s">
+        <v>623</v>
+      </c>
+      <c r="D108" t="s">
+        <v>404</v>
+      </c>
+      <c r="E108" t="s">
+        <v>405</v>
+      </c>
+      <c r="F108" t="s">
+        <v>727</v>
+      </c>
+      <c r="G108" t="s">
+        <v>406</v>
+      </c>
+      <c r="H108" t="s">
         <v>407</v>
-      </c>
-      <c r="B108" t="s">
-        <v>536</v>
-      </c>
-      <c r="C108" t="s">
-        <v>615</v>
-      </c>
-      <c r="D108" t="s">
-        <v>408</v>
-      </c>
-      <c r="E108" t="s">
-        <v>409</v>
-      </c>
-      <c r="F108" t="s">
-        <v>719</v>
-      </c>
-      <c r="G108" t="s">
-        <v>410</v>
-      </c>
-      <c r="H108" t="s">
-        <v>411</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -5446,28 +5455,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>408</v>
+      </c>
+      <c r="B109" t="s">
+        <v>547</v>
+      </c>
+      <c r="C109" t="s">
+        <v>624</v>
+      </c>
+      <c r="D109" t="s">
+        <v>409</v>
+      </c>
+      <c r="E109" t="s">
+        <v>410</v>
+      </c>
+      <c r="F109" t="s">
+        <v>728</v>
+      </c>
+      <c r="G109" t="s">
+        <v>411</v>
+      </c>
+      <c r="H109" t="s">
         <v>412</v>
-      </c>
-      <c r="B109" t="s">
-        <v>536</v>
-      </c>
-      <c r="C109" t="s">
-        <v>616</v>
-      </c>
-      <c r="D109" t="s">
-        <v>413</v>
-      </c>
-      <c r="E109" t="s">
-        <v>414</v>
-      </c>
-      <c r="F109" t="s">
-        <v>720</v>
-      </c>
-      <c r="G109" t="s">
-        <v>415</v>
-      </c>
-      <c r="H109" t="s">
-        <v>416</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -5476,28 +5485,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B110" t="s">
         <v>551</v>
       </c>
       <c r="C110" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D110" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E110" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F110" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G110" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H110" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -5506,28 +5515,28 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>418</v>
+      </c>
+      <c r="B111" t="s">
+        <v>547</v>
+      </c>
+      <c r="C111" t="s">
+        <v>626</v>
+      </c>
+      <c r="D111" t="s">
+        <v>419</v>
+      </c>
+      <c r="E111" t="s">
+        <v>420</v>
+      </c>
+      <c r="F111" t="s">
+        <v>730</v>
+      </c>
+      <c r="G111" t="s">
+        <v>421</v>
+      </c>
+      <c r="H111" t="s">
         <v>422</v>
-      </c>
-      <c r="B111" t="s">
-        <v>552</v>
-      </c>
-      <c r="C111" t="s">
-        <v>618</v>
-      </c>
-      <c r="D111" t="s">
-        <v>423</v>
-      </c>
-      <c r="E111" t="s">
-        <v>424</v>
-      </c>
-      <c r="F111" t="s">
-        <v>722</v>
-      </c>
-      <c r="G111" t="s">
-        <v>425</v>
-      </c>
-      <c r="H111" t="s">
-        <v>426</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -5536,28 +5545,28 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>423</v>
+      </c>
+      <c r="B112" t="s">
+        <v>547</v>
+      </c>
+      <c r="C112" t="s">
+        <v>627</v>
+      </c>
+      <c r="D112" t="s">
+        <v>424</v>
+      </c>
+      <c r="E112" t="s">
+        <v>425</v>
+      </c>
+      <c r="F112" t="s">
+        <v>731</v>
+      </c>
+      <c r="G112" t="s">
+        <v>426</v>
+      </c>
+      <c r="H112" t="s">
         <v>427</v>
-      </c>
-      <c r="B112" t="s">
-        <v>536</v>
-      </c>
-      <c r="C112" t="s">
-        <v>619</v>
-      </c>
-      <c r="D112" t="s">
-        <v>428</v>
-      </c>
-      <c r="E112" t="s">
-        <v>429</v>
-      </c>
-      <c r="F112" t="s">
-        <v>723</v>
-      </c>
-      <c r="G112" t="s">
-        <v>430</v>
-      </c>
-      <c r="H112" t="s">
-        <v>431</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -5566,28 +5575,28 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>428</v>
+      </c>
+      <c r="B113" t="s">
+        <v>562</v>
+      </c>
+      <c r="C113" t="s">
+        <v>628</v>
+      </c>
+      <c r="D113" t="s">
+        <v>429</v>
+      </c>
+      <c r="E113" t="s">
+        <v>430</v>
+      </c>
+      <c r="F113" t="s">
+        <v>732</v>
+      </c>
+      <c r="G113" t="s">
+        <v>431</v>
+      </c>
+      <c r="H113" t="s">
         <v>432</v>
-      </c>
-      <c r="B113" t="s">
-        <v>536</v>
-      </c>
-      <c r="C113" t="s">
-        <v>620</v>
-      </c>
-      <c r="D113" t="s">
-        <v>433</v>
-      </c>
-      <c r="E113" t="s">
-        <v>434</v>
-      </c>
-      <c r="F113" t="s">
-        <v>724</v>
-      </c>
-      <c r="G113" t="s">
-        <v>435</v>
-      </c>
-      <c r="H113" t="s">
-        <v>436</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -5596,28 +5605,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>433</v>
+      </c>
+      <c r="B114" t="s">
+        <v>563</v>
+      </c>
+      <c r="C114" t="s">
+        <v>629</v>
+      </c>
+      <c r="D114" t="s">
+        <v>434</v>
+      </c>
+      <c r="E114" t="s">
+        <v>435</v>
+      </c>
+      <c r="F114" t="s">
+        <v>733</v>
+      </c>
+      <c r="G114" t="s">
+        <v>436</v>
+      </c>
+      <c r="H114" t="s">
         <v>437</v>
-      </c>
-      <c r="B114" t="s">
-        <v>536</v>
-      </c>
-      <c r="C114" t="s">
-        <v>621</v>
-      </c>
-      <c r="D114" t="s">
-        <v>438</v>
-      </c>
-      <c r="E114" t="s">
-        <v>439</v>
-      </c>
-      <c r="F114" t="s">
-        <v>725</v>
-      </c>
-      <c r="G114" t="s">
-        <v>440</v>
-      </c>
-      <c r="H114" t="s">
-        <v>441</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -5626,28 +5635,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>438</v>
+      </c>
+      <c r="B115" t="s">
+        <v>547</v>
+      </c>
+      <c r="C115" t="s">
+        <v>630</v>
+      </c>
+      <c r="D115" t="s">
+        <v>439</v>
+      </c>
+      <c r="E115" t="s">
+        <v>440</v>
+      </c>
+      <c r="F115" t="s">
+        <v>734</v>
+      </c>
+      <c r="G115" t="s">
+        <v>441</v>
+      </c>
+      <c r="H115" t="s">
         <v>442</v>
-      </c>
-      <c r="B115" t="s">
-        <v>536</v>
-      </c>
-      <c r="C115" t="s">
-        <v>622</v>
-      </c>
-      <c r="D115" t="s">
-        <v>443</v>
-      </c>
-      <c r="E115" t="s">
-        <v>444</v>
-      </c>
-      <c r="F115" t="s">
-        <v>726</v>
-      </c>
-      <c r="G115" t="s">
-        <v>445</v>
-      </c>
-      <c r="H115" t="s">
-        <v>446</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
@@ -5656,28 +5665,28 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>443</v>
+      </c>
+      <c r="B116" t="s">
+        <v>547</v>
+      </c>
+      <c r="C116" t="s">
+        <v>631</v>
+      </c>
+      <c r="D116" t="s">
+        <v>444</v>
+      </c>
+      <c r="E116" t="s">
+        <v>445</v>
+      </c>
+      <c r="F116" t="s">
+        <v>735</v>
+      </c>
+      <c r="G116" t="s">
+        <v>446</v>
+      </c>
+      <c r="H116" t="s">
         <v>447</v>
-      </c>
-      <c r="B116" t="s">
-        <v>539</v>
-      </c>
-      <c r="C116" t="s">
-        <v>623</v>
-      </c>
-      <c r="D116" t="s">
-        <v>448</v>
-      </c>
-      <c r="E116" t="s">
-        <v>449</v>
-      </c>
-      <c r="F116" t="s">
-        <v>727</v>
-      </c>
-      <c r="G116" t="s">
-        <v>450</v>
-      </c>
-      <c r="H116" t="s">
-        <v>451</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -5686,28 +5695,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>448</v>
+      </c>
+      <c r="B117" t="s">
+        <v>547</v>
+      </c>
+      <c r="C117" t="s">
+        <v>632</v>
+      </c>
+      <c r="D117" t="s">
+        <v>449</v>
+      </c>
+      <c r="E117" t="s">
+        <v>450</v>
+      </c>
+      <c r="F117" t="s">
+        <v>736</v>
+      </c>
+      <c r="G117" t="s">
+        <v>451</v>
+      </c>
+      <c r="H117" t="s">
         <v>452</v>
-      </c>
-      <c r="B117" t="s">
-        <v>536</v>
-      </c>
-      <c r="C117" t="s">
-        <v>624</v>
-      </c>
-      <c r="D117" t="s">
-        <v>453</v>
-      </c>
-      <c r="E117" t="s">
-        <v>454</v>
-      </c>
-      <c r="F117" t="s">
-        <v>728</v>
-      </c>
-      <c r="G117" t="s">
-        <v>455</v>
-      </c>
-      <c r="H117" t="s">
-        <v>456</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -5716,28 +5725,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>453</v>
+      </c>
+      <c r="B118" t="s">
+        <v>547</v>
+      </c>
+      <c r="C118" t="s">
+        <v>633</v>
+      </c>
+      <c r="D118" t="s">
+        <v>454</v>
+      </c>
+      <c r="E118" t="s">
+        <v>455</v>
+      </c>
+      <c r="F118" t="s">
+        <v>737</v>
+      </c>
+      <c r="G118" t="s">
+        <v>456</v>
+      </c>
+      <c r="H118" t="s">
         <v>457</v>
-      </c>
-      <c r="B118" t="s">
-        <v>536</v>
-      </c>
-      <c r="C118" t="s">
-        <v>625</v>
-      </c>
-      <c r="D118" t="s">
-        <v>458</v>
-      </c>
-      <c r="E118" t="s">
-        <v>459</v>
-      </c>
-      <c r="F118" t="s">
-        <v>729</v>
-      </c>
-      <c r="G118" t="s">
-        <v>460</v>
-      </c>
-      <c r="H118" t="s">
-        <v>461</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -5746,28 +5755,28 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>458</v>
+      </c>
+      <c r="B119" t="s">
+        <v>550</v>
+      </c>
+      <c r="C119" t="s">
+        <v>634</v>
+      </c>
+      <c r="D119" t="s">
+        <v>459</v>
+      </c>
+      <c r="E119" t="s">
+        <v>460</v>
+      </c>
+      <c r="F119" t="s">
+        <v>738</v>
+      </c>
+      <c r="G119" t="s">
+        <v>461</v>
+      </c>
+      <c r="H119" t="s">
         <v>462</v>
-      </c>
-      <c r="B119" t="s">
-        <v>536</v>
-      </c>
-      <c r="C119" t="s">
-        <v>626</v>
-      </c>
-      <c r="D119" t="s">
-        <v>463</v>
-      </c>
-      <c r="E119" t="s">
-        <v>464</v>
-      </c>
-      <c r="F119" t="s">
-        <v>730</v>
-      </c>
-      <c r="G119" t="s">
-        <v>465</v>
-      </c>
-      <c r="H119" t="s">
-        <v>466</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -5776,28 +5785,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>463</v>
+      </c>
+      <c r="B120" t="s">
+        <v>547</v>
+      </c>
+      <c r="C120" t="s">
+        <v>635</v>
+      </c>
+      <c r="D120" t="s">
+        <v>464</v>
+      </c>
+      <c r="E120" t="s">
+        <v>465</v>
+      </c>
+      <c r="F120" t="s">
+        <v>739</v>
+      </c>
+      <c r="G120" t="s">
+        <v>466</v>
+      </c>
+      <c r="H120" t="s">
         <v>467</v>
-      </c>
-      <c r="B120" t="s">
-        <v>536</v>
-      </c>
-      <c r="C120" t="s">
-        <v>627</v>
-      </c>
-      <c r="D120" t="s">
-        <v>468</v>
-      </c>
-      <c r="E120" t="s">
-        <v>469</v>
-      </c>
-      <c r="F120" t="s">
-        <v>731</v>
-      </c>
-      <c r="G120" t="s">
-        <v>470</v>
-      </c>
-      <c r="H120" t="s">
-        <v>471</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -5806,28 +5815,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>468</v>
+      </c>
+      <c r="B121" t="s">
+        <v>547</v>
+      </c>
+      <c r="C121" t="s">
+        <v>636</v>
+      </c>
+      <c r="D121" t="s">
+        <v>469</v>
+      </c>
+      <c r="E121" t="s">
+        <v>470</v>
+      </c>
+      <c r="F121" t="s">
+        <v>740</v>
+      </c>
+      <c r="G121" t="s">
+        <v>471</v>
+      </c>
+      <c r="H121" t="s">
         <v>472</v>
-      </c>
-      <c r="B121" t="s">
-        <v>536</v>
-      </c>
-      <c r="C121" t="s">
-        <v>628</v>
-      </c>
-      <c r="D121" t="s">
-        <v>473</v>
-      </c>
-      <c r="E121" t="s">
-        <v>474</v>
-      </c>
-      <c r="F121" t="s">
-        <v>732</v>
-      </c>
-      <c r="G121" t="s">
-        <v>475</v>
-      </c>
-      <c r="H121" t="s">
-        <v>476</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -5836,28 +5845,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>473</v>
+      </c>
+      <c r="B122" t="s">
+        <v>547</v>
+      </c>
+      <c r="C122" t="s">
+        <v>637</v>
+      </c>
+      <c r="D122" t="s">
+        <v>474</v>
+      </c>
+      <c r="E122" t="s">
+        <v>475</v>
+      </c>
+      <c r="F122" t="s">
+        <v>741</v>
+      </c>
+      <c r="G122" t="s">
+        <v>476</v>
+      </c>
+      <c r="H122" t="s">
         <v>477</v>
-      </c>
-      <c r="B122" t="s">
-        <v>536</v>
-      </c>
-      <c r="C122" t="s">
-        <v>629</v>
-      </c>
-      <c r="D122" t="s">
-        <v>478</v>
-      </c>
-      <c r="E122" t="s">
-        <v>479</v>
-      </c>
-      <c r="F122" t="s">
-        <v>733</v>
-      </c>
-      <c r="G122" t="s">
-        <v>480</v>
-      </c>
-      <c r="H122" t="s">
-        <v>481</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
@@ -5866,28 +5875,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>478</v>
+      </c>
+      <c r="B123" t="s">
+        <v>547</v>
+      </c>
+      <c r="C123" t="s">
+        <v>638</v>
+      </c>
+      <c r="D123" t="s">
+        <v>479</v>
+      </c>
+      <c r="E123" t="s">
+        <v>480</v>
+      </c>
+      <c r="F123" t="s">
+        <v>742</v>
+      </c>
+      <c r="G123" t="s">
+        <v>481</v>
+      </c>
+      <c r="H123" t="s">
         <v>482</v>
-      </c>
-      <c r="B123" t="s">
-        <v>536</v>
-      </c>
-      <c r="C123" t="s">
-        <v>630</v>
-      </c>
-      <c r="D123" t="s">
-        <v>483</v>
-      </c>
-      <c r="E123" t="s">
-        <v>484</v>
-      </c>
-      <c r="F123" t="s">
-        <v>734</v>
-      </c>
-      <c r="G123" t="s">
-        <v>485</v>
-      </c>
-      <c r="H123" t="s">
-        <v>486</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -5896,28 +5905,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>483</v>
+      </c>
+      <c r="B124" t="s">
+        <v>547</v>
+      </c>
+      <c r="C124" t="s">
+        <v>639</v>
+      </c>
+      <c r="D124" t="s">
+        <v>484</v>
+      </c>
+      <c r="E124" t="s">
+        <v>485</v>
+      </c>
+      <c r="F124" t="s">
+        <v>743</v>
+      </c>
+      <c r="G124" t="s">
+        <v>486</v>
+      </c>
+      <c r="H124" t="s">
         <v>487</v>
-      </c>
-      <c r="B124" t="s">
-        <v>536</v>
-      </c>
-      <c r="C124" t="s">
-        <v>630</v>
-      </c>
-      <c r="D124" t="s">
-        <v>483</v>
-      </c>
-      <c r="E124" t="s">
-        <v>484</v>
-      </c>
-      <c r="F124" t="s">
-        <v>734</v>
-      </c>
-      <c r="G124" t="s">
-        <v>485</v>
-      </c>
-      <c r="H124" t="s">
-        <v>488</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
@@ -5926,28 +5935,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>488</v>
+      </c>
+      <c r="B125" t="s">
+        <v>547</v>
+      </c>
+      <c r="C125" t="s">
+        <v>640</v>
+      </c>
+      <c r="D125" t="s">
         <v>489</v>
       </c>
-      <c r="B125" t="s">
-        <v>536</v>
-      </c>
-      <c r="C125" t="s">
-        <v>631</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>490</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
+        <v>744</v>
+      </c>
+      <c r="G125" t="s">
         <v>491</v>
       </c>
-      <c r="F125" t="s">
-        <v>735</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>492</v>
-      </c>
-      <c r="H125" t="s">
-        <v>493</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
@@ -5956,28 +5965,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>493</v>
+      </c>
+      <c r="B126" t="s">
+        <v>547</v>
+      </c>
+      <c r="C126" t="s">
+        <v>641</v>
+      </c>
+      <c r="D126" t="s">
         <v>494</v>
       </c>
-      <c r="B126" t="s">
-        <v>536</v>
-      </c>
-      <c r="C126" t="s">
-        <v>632</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>495</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
+        <v>745</v>
+      </c>
+      <c r="G126" t="s">
         <v>496</v>
       </c>
-      <c r="F126" t="s">
-        <v>736</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>497</v>
-      </c>
-      <c r="H126" t="s">
-        <v>498</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
@@ -5986,28 +5995,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>498</v>
+      </c>
+      <c r="B127" t="s">
+        <v>547</v>
+      </c>
+      <c r="C127" t="s">
+        <v>641</v>
+      </c>
+      <c r="D127" t="s">
+        <v>494</v>
+      </c>
+      <c r="E127" t="s">
+        <v>495</v>
+      </c>
+      <c r="F127" t="s">
+        <v>745</v>
+      </c>
+      <c r="G127" t="s">
+        <v>496</v>
+      </c>
+      <c r="H127" t="s">
         <v>499</v>
-      </c>
-      <c r="B127" t="s">
-        <v>536</v>
-      </c>
-      <c r="C127" t="s">
-        <v>633</v>
-      </c>
-      <c r="D127" t="s">
-        <v>500</v>
-      </c>
-      <c r="E127" t="s">
-        <v>501</v>
-      </c>
-      <c r="F127" t="s">
-        <v>737</v>
-      </c>
-      <c r="G127" t="s">
-        <v>502</v>
-      </c>
-      <c r="H127" t="s">
-        <v>503</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -6016,28 +6025,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>500</v>
+      </c>
+      <c r="B128" t="s">
+        <v>547</v>
+      </c>
+      <c r="C128" t="s">
+        <v>642</v>
+      </c>
+      <c r="D128" t="s">
+        <v>501</v>
+      </c>
+      <c r="E128" t="s">
+        <v>502</v>
+      </c>
+      <c r="F128" t="s">
+        <v>746</v>
+      </c>
+      <c r="G128" t="s">
+        <v>503</v>
+      </c>
+      <c r="H128" t="s">
         <v>504</v>
-      </c>
-      <c r="B128" t="s">
-        <v>536</v>
-      </c>
-      <c r="C128" t="s">
-        <v>634</v>
-      </c>
-      <c r="D128" t="s">
-        <v>505</v>
-      </c>
-      <c r="E128" t="s">
-        <v>506</v>
-      </c>
-      <c r="F128" t="s">
-        <v>738</v>
-      </c>
-      <c r="G128" t="s">
-        <v>507</v>
-      </c>
-      <c r="H128" t="s">
-        <v>508</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
@@ -6046,28 +6055,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>505</v>
+      </c>
+      <c r="B129" t="s">
+        <v>547</v>
+      </c>
+      <c r="C129" t="s">
+        <v>643</v>
+      </c>
+      <c r="D129" t="s">
+        <v>506</v>
+      </c>
+      <c r="E129" t="s">
+        <v>507</v>
+      </c>
+      <c r="F129" t="s">
+        <v>747</v>
+      </c>
+      <c r="G129" t="s">
+        <v>508</v>
+      </c>
+      <c r="H129" t="s">
         <v>509</v>
-      </c>
-      <c r="B129" t="s">
-        <v>536</v>
-      </c>
-      <c r="C129" t="s">
-        <v>635</v>
-      </c>
-      <c r="D129" t="s">
-        <v>510</v>
-      </c>
-      <c r="E129" t="s">
-        <v>511</v>
-      </c>
-      <c r="F129" t="s">
-        <v>739</v>
-      </c>
-      <c r="G129" t="s">
-        <v>512</v>
-      </c>
-      <c r="H129" t="s">
-        <v>513</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
@@ -6076,28 +6085,28 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>510</v>
+      </c>
+      <c r="B130" t="s">
+        <v>547</v>
+      </c>
+      <c r="C130" t="s">
+        <v>644</v>
+      </c>
+      <c r="D130" t="s">
+        <v>511</v>
+      </c>
+      <c r="E130" t="s">
+        <v>512</v>
+      </c>
+      <c r="F130" t="s">
+        <v>748</v>
+      </c>
+      <c r="G130" t="s">
+        <v>513</v>
+      </c>
+      <c r="H130" t="s">
         <v>514</v>
-      </c>
-      <c r="B130" t="s">
-        <v>553</v>
-      </c>
-      <c r="C130" t="s">
-        <v>636</v>
-      </c>
-      <c r="D130" t="s">
-        <v>515</v>
-      </c>
-      <c r="E130" t="s">
-        <v>516</v>
-      </c>
-      <c r="F130" t="s">
-        <v>740</v>
-      </c>
-      <c r="G130" t="s">
-        <v>517</v>
-      </c>
-      <c r="H130" t="s">
-        <v>518</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
@@ -6106,28 +6115,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>515</v>
+      </c>
+      <c r="B131" t="s">
+        <v>547</v>
+      </c>
+      <c r="C131" t="s">
+        <v>645</v>
+      </c>
+      <c r="D131" t="s">
+        <v>516</v>
+      </c>
+      <c r="E131" t="s">
+        <v>517</v>
+      </c>
+      <c r="F131" t="s">
+        <v>749</v>
+      </c>
+      <c r="G131" t="s">
+        <v>518</v>
+      </c>
+      <c r="H131" t="s">
         <v>519</v>
-      </c>
-      <c r="B131" t="s">
-        <v>540</v>
-      </c>
-      <c r="C131" t="s">
-        <v>637</v>
-      </c>
-      <c r="D131" t="s">
-        <v>520</v>
-      </c>
-      <c r="E131" t="s">
-        <v>521</v>
-      </c>
-      <c r="F131" t="s">
-        <v>741</v>
-      </c>
-      <c r="G131" t="s">
-        <v>522</v>
-      </c>
-      <c r="H131" t="s">
-        <v>523</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
@@ -6136,33 +6145,123 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>520</v>
+      </c>
+      <c r="B132" t="s">
+        <v>547</v>
+      </c>
+      <c r="C132" t="s">
+        <v>646</v>
+      </c>
+      <c r="D132" t="s">
+        <v>521</v>
+      </c>
+      <c r="E132" t="s">
+        <v>522</v>
+      </c>
+      <c r="F132" t="s">
+        <v>750</v>
+      </c>
+      <c r="G132" t="s">
+        <v>523</v>
+      </c>
+      <c r="H132" t="s">
         <v>524</v>
-      </c>
-      <c r="B132" t="s">
-        <v>540</v>
-      </c>
-      <c r="C132" t="s">
-        <v>638</v>
-      </c>
-      <c r="D132" t="s">
-        <v>525</v>
-      </c>
-      <c r="E132" t="s">
-        <v>526</v>
-      </c>
-      <c r="F132" t="s">
-        <v>742</v>
-      </c>
-      <c r="G132" t="s">
-        <v>527</v>
-      </c>
-      <c r="H132" t="s">
-        <v>528</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
       <c r="M132"/>
       <c r="N132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>525</v>
+      </c>
+      <c r="B133" t="s">
+        <v>564</v>
+      </c>
+      <c r="C133" t="s">
+        <v>647</v>
+      </c>
+      <c r="D133" t="s">
+        <v>526</v>
+      </c>
+      <c r="E133" t="s">
+        <v>527</v>
+      </c>
+      <c r="F133" t="s">
+        <v>751</v>
+      </c>
+      <c r="G133" t="s">
+        <v>528</v>
+      </c>
+      <c r="H133" t="s">
+        <v>529</v>
+      </c>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>530</v>
+      </c>
+      <c r="B134" t="s">
+        <v>551</v>
+      </c>
+      <c r="C134" t="s">
+        <v>648</v>
+      </c>
+      <c r="D134" t="s">
+        <v>531</v>
+      </c>
+      <c r="E134" t="s">
+        <v>532</v>
+      </c>
+      <c r="F134" t="s">
+        <v>752</v>
+      </c>
+      <c r="G134" t="s">
+        <v>533</v>
+      </c>
+      <c r="H134" t="s">
+        <v>534</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>535</v>
+      </c>
+      <c r="B135" t="s">
+        <v>551</v>
+      </c>
+      <c r="C135" t="s">
+        <v>649</v>
+      </c>
+      <c r="D135" t="s">
+        <v>536</v>
+      </c>
+      <c r="E135" t="s">
+        <v>537</v>
+      </c>
+      <c r="F135" t="s">
+        <v>753</v>
+      </c>
+      <c r="G135" t="s">
+        <v>538</v>
+      </c>
+      <c r="H135" t="s">
+        <v>539</v>
+      </c>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="M135"/>
+      <c r="N135"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="772">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -997,10 +997,46 @@
     <t xml:space="preserve">negotiation_darkness1</t>
   </si>
   <si>
-    <t xml:space="preserve">|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder. (To be continued)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけてみよう（続く）</t>
+    <t xml:space="preserve">|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Bicerin, the elder of the exiles, entrusted you with the mission to return Duponne from the Sunken Temple of Lurie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ルーリエ海底神殿からデュポンヌを連れ帰るよう、追放者の長ビチェリンに依頼された。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|You found Duponne, now grown into a dragon, deep within the Sunken Temple of Lurie. To bring her back seems beyond reach now, unless there is another way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ルーリエ海底神殿の最奥でドラゴンへと成長したデュポンヌを見つけた。このままでは連れ帰ることは難しそうだが、何か手があるだろうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|The mission given by Bicerin has been fulfilled. Time to return to the Village of Atonement and inform him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ビチェリンの依頼を達成した。贖罪の村に戻り、ビチェリンに報告しなければならない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Let's wait for Kettle to come back. (Continued)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ケトルの帰りを待とう。（続く）</t>
   </si>
   <si>
     <t xml:space="preserve">demitas_spellwriter</t>
@@ -2701,10 +2737,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C3" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2713,7 +2749,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2731,10 +2767,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C4" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2743,7 +2779,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2761,12 +2797,12 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2784,10 +2820,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2796,7 +2832,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2814,10 +2850,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2826,7 +2862,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2844,12 +2880,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2867,12 +2903,12 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2890,10 +2926,10 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C10" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -2902,7 +2938,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2920,12 +2956,12 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2943,10 +2979,10 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C12" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -2955,7 +2991,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -2966,7 +3002,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="M12" t="s">
         <v>57</v>
@@ -2980,10 +3016,10 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C13" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
@@ -2992,7 +3028,7 @@
         <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
@@ -3017,10 +3053,10 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C14" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="D14" t="s">
         <v>67</v>
@@ -3029,7 +3065,7 @@
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
@@ -3047,10 +3083,10 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
@@ -3059,7 +3095,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
@@ -3077,10 +3113,10 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C16" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
@@ -3089,7 +3125,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
@@ -3107,10 +3143,10 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C17" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
@@ -3119,7 +3155,7 @@
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
@@ -3135,12 +3171,12 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
@@ -3156,7 +3192,7 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -3172,10 +3208,10 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="C20" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="D20" t="s">
         <v>89</v>
@@ -3184,7 +3220,7 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="G20" t="s">
         <v>91</v>
@@ -3202,7 +3238,7 @@
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3218,10 +3254,10 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C22" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -3230,7 +3266,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3248,12 +3284,12 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="G23" t="s">
         <v>100</v>
@@ -3271,12 +3307,12 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="G24" t="s">
         <v>103</v>
@@ -3294,7 +3330,7 @@
         <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -3310,10 +3346,10 @@
         <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C26" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="D26" t="s">
         <v>107</v>
@@ -3322,7 +3358,7 @@
         <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="G26" t="s">
         <v>109</v>
@@ -3340,7 +3376,7 @@
         <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -3356,10 +3392,10 @@
         <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C28" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D28" t="s">
         <v>113</v>
@@ -3368,7 +3404,7 @@
         <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="G28" t="s">
         <v>74</v>
@@ -3386,10 +3422,10 @@
         <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C29" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="D29" t="s">
         <v>117</v>
@@ -3398,7 +3434,7 @@
         <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -3416,10 +3452,10 @@
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C30" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D30" t="s">
         <v>120</v>
@@ -3428,7 +3464,7 @@
         <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="G30" t="s">
         <v>122</v>
@@ -3446,12 +3482,12 @@
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="G31" t="s">
         <v>125</v>
@@ -3469,7 +3505,7 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -3485,10 +3521,10 @@
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C33" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
@@ -3497,7 +3533,7 @@
         <v>130</v>
       </c>
       <c r="F33" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="G33" t="s">
         <v>131</v>
@@ -3515,12 +3551,12 @@
         <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="G34" t="s">
         <v>134</v>
@@ -3538,12 +3574,12 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="G35" t="s">
         <v>137</v>
@@ -3561,7 +3597,7 @@
         <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -3577,10 +3613,10 @@
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C37" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D37" t="s">
         <v>141</v>
@@ -3589,7 +3625,7 @@
         <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="G37" t="s">
         <v>143</v>
@@ -3607,12 +3643,12 @@
         <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="G38" t="s">
         <v>146</v>
@@ -3630,7 +3666,7 @@
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -3646,10 +3682,10 @@
         <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="C40" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="D40" t="s">
         <v>150</v>
@@ -3658,7 +3694,7 @@
         <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="G40" t="s">
         <v>152</v>
@@ -3676,7 +3712,7 @@
         <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -3692,10 +3728,10 @@
         <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C42" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D42" t="s">
         <v>156</v>
@@ -3704,7 +3740,7 @@
         <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="G42" t="s">
         <v>158</v>
@@ -3722,12 +3758,12 @@
         <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G43" t="s">
         <v>161</v>
@@ -3745,12 +3781,12 @@
         <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="G44" t="s">
         <v>164</v>
@@ -3768,12 +3804,12 @@
         <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="G45" t="s">
         <v>167</v>
@@ -3791,12 +3827,12 @@
         <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="G46" t="s">
         <v>167</v>
@@ -3814,12 +3850,12 @@
         <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="G47" t="s">
         <v>171</v>
@@ -3837,7 +3873,7 @@
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -3853,10 +3889,10 @@
         <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C49" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D49" t="s">
         <v>175</v>
@@ -3865,7 +3901,7 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="G49" t="s">
         <v>177</v>
@@ -3883,10 +3919,10 @@
         <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C50" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D50" t="s">
         <v>180</v>
@@ -3895,7 +3931,7 @@
         <v>181</v>
       </c>
       <c r="F50" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="G50" t="s">
         <v>182</v>
@@ -3913,7 +3949,7 @@
         <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -3929,10 +3965,10 @@
         <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C52" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="D52" t="s">
         <v>186</v>
@@ -3941,7 +3977,7 @@
         <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
@@ -3959,7 +3995,7 @@
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -3975,10 +4011,10 @@
         <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C54" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D54" t="s">
         <v>192</v>
@@ -3987,7 +4023,7 @@
         <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="G54" t="s">
         <v>194</v>
@@ -4005,10 +4041,10 @@
         <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C55" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D55" t="s">
         <v>197</v>
@@ -4017,7 +4053,7 @@
         <v>198</v>
       </c>
       <c r="F55" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="G55" t="s">
         <v>199</v>
@@ -4035,10 +4071,10 @@
         <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C56" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="D56" t="s">
         <v>202</v>
@@ -4047,7 +4083,7 @@
         <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="G56" t="s">
         <v>204</v>
@@ -4065,10 +4101,10 @@
         <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C57" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="D57" t="s">
         <v>207</v>
@@ -4077,7 +4113,7 @@
         <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="G57" t="s">
         <v>209</v>
@@ -4095,10 +4131,10 @@
         <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C58" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D58" t="s">
         <v>212</v>
@@ -4107,7 +4143,7 @@
         <v>213</v>
       </c>
       <c r="F58" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="G58" t="s">
         <v>214</v>
@@ -4125,10 +4161,10 @@
         <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C59" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="D59" t="s">
         <v>217</v>
@@ -4137,7 +4173,7 @@
         <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="G59" t="s">
         <v>219</v>
@@ -4155,10 +4191,10 @@
         <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C60" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D60" t="s">
         <v>222</v>
@@ -4167,7 +4203,7 @@
         <v>223</v>
       </c>
       <c r="F60" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="G60" t="s">
         <v>224</v>
@@ -4185,10 +4221,10 @@
         <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C61" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="D61" t="s">
         <v>227</v>
@@ -4197,7 +4233,7 @@
         <v>228</v>
       </c>
       <c r="F61" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="G61" t="s">
         <v>229</v>
@@ -4215,12 +4251,12 @@
         <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="G62" t="s">
         <v>232</v>
@@ -4238,12 +4274,12 @@
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="G63" t="s">
         <v>235</v>
@@ -4261,12 +4297,12 @@
         <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="G64" t="s">
         <v>238</v>
@@ -4284,12 +4320,12 @@
         <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="G65" t="s">
         <v>241</v>
@@ -4307,12 +4343,12 @@
         <v>243</v>
       </c>
       <c r="B66" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="G66" t="s">
         <v>244</v>
@@ -4330,12 +4366,12 @@
         <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="G67" t="s">
         <v>247</v>
@@ -4353,12 +4389,12 @@
         <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="G68" t="s">
         <v>250</v>
@@ -4376,12 +4412,12 @@
         <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="G69" t="s">
         <v>253</v>
@@ -4399,12 +4435,12 @@
         <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="G70" t="s">
         <v>256</v>
@@ -4422,7 +4458,7 @@
         <v>258</v>
       </c>
       <c r="B71" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -4440,7 +4476,7 @@
         <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -4458,10 +4494,10 @@
         <v>261</v>
       </c>
       <c r="B73" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C73" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="D73" t="s">
         <v>262</v>
@@ -4470,7 +4506,7 @@
         <v>263</v>
       </c>
       <c r="F73" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="G73" t="s">
         <v>264</v>
@@ -4488,10 +4524,10 @@
         <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C74" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="D74" t="s">
         <v>267</v>
@@ -4500,7 +4536,7 @@
         <v>268</v>
       </c>
       <c r="F74" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="G74" t="s">
         <v>269</v>
@@ -4518,10 +4554,10 @@
         <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="C75" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="D75" t="s">
         <v>272</v>
@@ -4530,7 +4566,7 @@
         <v>273</v>
       </c>
       <c r="F75" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="G75" t="s">
         <v>274</v>
@@ -4548,10 +4584,10 @@
         <v>276</v>
       </c>
       <c r="B76" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="C76" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="D76" t="s">
         <v>277</v>
@@ -4560,7 +4596,7 @@
         <v>278</v>
       </c>
       <c r="F76" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="G76" t="s">
         <v>279</v>
@@ -4578,10 +4614,10 @@
         <v>281</v>
       </c>
       <c r="B77" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="C77" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="D77" t="s">
         <v>282</v>
@@ -4590,7 +4626,7 @@
         <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="G77" t="s">
         <v>284</v>
@@ -4608,7 +4644,7 @@
         <v>286</v>
       </c>
       <c r="B78" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -4629,10 +4665,10 @@
         <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C79" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="D79" t="s">
         <v>289</v>
@@ -4641,7 +4677,7 @@
         <v>290</v>
       </c>
       <c r="F79" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="G79" t="s">
         <v>291</v>
@@ -4659,10 +4695,10 @@
         <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C80" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="D80" t="s">
         <v>294</v>
@@ -4671,7 +4707,7 @@
         <v>295</v>
       </c>
       <c r="F80" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="G80" t="s">
         <v>296</v>
@@ -4689,10 +4725,10 @@
         <v>298</v>
       </c>
       <c r="B81" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C81" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="D81" t="s">
         <v>299</v>
@@ -4701,7 +4737,7 @@
         <v>300</v>
       </c>
       <c r="F81" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="G81" t="s">
         <v>301</v>
@@ -4719,10 +4755,10 @@
         <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C82" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D82" t="s">
         <v>304</v>
@@ -4731,7 +4767,7 @@
         <v>305</v>
       </c>
       <c r="F82" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="G82" t="s">
         <v>224</v>
@@ -4749,10 +4785,10 @@
         <v>306</v>
       </c>
       <c r="B83" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C83" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="D83" t="s">
         <v>307</v>
@@ -4761,7 +4797,7 @@
         <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="G83" t="s">
         <v>309</v>
@@ -4779,10 +4815,10 @@
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C84" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D84" t="s">
         <v>312</v>
@@ -4791,7 +4827,7 @@
         <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="G84" t="s">
         <v>314</v>
@@ -4809,12 +4845,12 @@
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="G85" t="s">
         <v>317</v>
@@ -4832,10 +4868,10 @@
         <v>319</v>
       </c>
       <c r="B86" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C86" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="D86" t="s">
         <v>320</v>
@@ -4844,7 +4880,7 @@
         <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="G86" t="s">
         <v>322</v>
@@ -4862,12 +4898,12 @@
         <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>558</v>
+        <v>15</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="G87" t="s">
         <v>325</v>
@@ -4885,25 +4921,15 @@
         <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>551</v>
-      </c>
-      <c r="C88" t="s">
-        <v>610</v>
-      </c>
-      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="G88" t="s">
         <v>328</v>
       </c>
-      <c r="E88" t="s">
+      <c r="H88" t="s">
         <v>329</v>
-      </c>
-      <c r="F88" t="s">
-        <v>719</v>
-      </c>
-      <c r="G88" t="s">
-        <v>330</v>
-      </c>
-      <c r="H88" t="s">
-        <v>331</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -4912,28 +4938,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>330</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="G89" t="s">
+        <v>331</v>
+      </c>
+      <c r="H89" t="s">
         <v>332</v>
-      </c>
-      <c r="B89" t="s">
-        <v>548</v>
-      </c>
-      <c r="C89" t="s">
-        <v>611</v>
-      </c>
-      <c r="D89" t="s">
-        <v>333</v>
-      </c>
-      <c r="E89" t="s">
-        <v>334</v>
-      </c>
-      <c r="F89" t="s">
-        <v>707</v>
-      </c>
-      <c r="G89" t="s">
-        <v>269</v>
-      </c>
-      <c r="H89" t="s">
-        <v>270</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -4942,28 +4958,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>333</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="G90" t="s">
+        <v>334</v>
+      </c>
+      <c r="H90" t="s">
         <v>335</v>
-      </c>
-      <c r="B90" t="s">
-        <v>548</v>
-      </c>
-      <c r="C90" t="s">
-        <v>611</v>
-      </c>
-      <c r="D90" t="s">
-        <v>333</v>
-      </c>
-      <c r="E90" t="s">
-        <v>334</v>
-      </c>
-      <c r="F90" t="s">
-        <v>707</v>
-      </c>
-      <c r="G90" t="s">
-        <v>269</v>
-      </c>
-      <c r="H90" t="s">
-        <v>270</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -4975,23 +4981,15 @@
         <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>548</v>
-      </c>
-      <c r="C91" t="s">
-        <v>612</v>
-      </c>
-      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="G91" t="s">
         <v>337</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>338</v>
-      </c>
-      <c r="F91" t="s">
-        <v>720</v>
-      </c>
-      <c r="G91"/>
-      <c r="H91" t="s">
-        <v>339</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -5000,28 +4998,28 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" t="s">
+        <v>563</v>
+      </c>
+      <c r="C92" t="s">
+        <v>622</v>
+      </c>
+      <c r="D92" t="s">
         <v>340</v>
       </c>
-      <c r="B92" t="s">
-        <v>559</v>
-      </c>
-      <c r="C92" t="s">
-        <v>613</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>341</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
+        <v>731</v>
+      </c>
+      <c r="G92" t="s">
         <v>342</v>
       </c>
-      <c r="F92" t="s">
-        <v>707</v>
-      </c>
-      <c r="G92" t="s">
-        <v>269</v>
-      </c>
       <c r="H92" t="s">
-        <v>270</v>
+        <v>343</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -5030,28 +5028,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B93" t="s">
         <v>560</v>
       </c>
       <c r="C93" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="D93" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E93" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F93" t="s">
-        <v>346</v>
+        <v>719</v>
       </c>
       <c r="G93" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -5066,22 +5064,22 @@
         <v>560</v>
       </c>
       <c r="C94" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="D94" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E94" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F94" t="s">
-        <v>346</v>
+        <v>719</v>
       </c>
       <c r="G94" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="H94" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
@@ -5090,28 +5088,26 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B95" t="s">
         <v>560</v>
       </c>
       <c r="C95" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D95" t="s">
+        <v>349</v>
+      </c>
+      <c r="E95" t="s">
+        <v>350</v>
+      </c>
+      <c r="F95" t="s">
+        <v>732</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95" t="s">
         <v>351</v>
-      </c>
-      <c r="E95" t="s">
-        <v>352</v>
-      </c>
-      <c r="F95" t="s">
-        <v>346</v>
-      </c>
-      <c r="G95" t="s">
-        <v>346</v>
-      </c>
-      <c r="H95" t="s">
-        <v>346</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -5120,28 +5116,28 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>352</v>
+      </c>
+      <c r="B96" t="s">
+        <v>571</v>
+      </c>
+      <c r="C96" t="s">
+        <v>625</v>
+      </c>
+      <c r="D96" t="s">
         <v>353</v>
       </c>
-      <c r="B96" t="s">
-        <v>560</v>
-      </c>
-      <c r="C96" t="s">
-        <v>617</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>354</v>
       </c>
-      <c r="E96" t="s">
-        <v>355</v>
-      </c>
       <c r="F96" t="s">
-        <v>346</v>
+        <v>719</v>
       </c>
       <c r="G96" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="H96" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -5150,28 +5146,28 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>355</v>
+      </c>
+      <c r="B97" t="s">
+        <v>572</v>
+      </c>
+      <c r="C97" t="s">
+        <v>626</v>
+      </c>
+      <c r="D97" t="s">
         <v>356</v>
       </c>
-      <c r="B97" t="s">
-        <v>540</v>
-      </c>
-      <c r="C97" t="s">
-        <v>618</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>357</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>358</v>
       </c>
-      <c r="F97" t="s">
-        <v>721</v>
-      </c>
       <c r="G97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H97" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -5180,21 +5176,28 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>359</v>
+      </c>
+      <c r="B98" t="s">
+        <v>572</v>
+      </c>
+      <c r="C98" t="s">
+        <v>627</v>
+      </c>
+      <c r="D98" t="s">
+        <v>360</v>
+      </c>
+      <c r="E98" t="s">
         <v>361</v>
       </c>
-      <c r="B98" t="s">
-        <v>540</v>
-      </c>
-      <c r="D98"/>
-      <c r="E98"/>
       <c r="F98" t="s">
-        <v>722</v>
+        <v>358</v>
       </c>
       <c r="G98" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H98" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -5203,28 +5206,28 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" t="s">
+        <v>572</v>
+      </c>
+      <c r="C99" t="s">
+        <v>628</v>
+      </c>
+      <c r="D99" t="s">
+        <v>363</v>
+      </c>
+      <c r="E99" t="s">
         <v>364</v>
       </c>
-      <c r="B99" t="s">
-        <v>548</v>
-      </c>
-      <c r="C99" t="s">
-        <v>619</v>
-      </c>
-      <c r="D99" t="s">
-        <v>365</v>
-      </c>
-      <c r="E99" t="s">
-        <v>366</v>
-      </c>
       <c r="F99" t="s">
-        <v>723</v>
+        <v>358</v>
       </c>
       <c r="G99" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H99" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -5233,28 +5236,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B100" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="C100" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="D100" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E100" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F100" t="s">
-        <v>724</v>
+        <v>358</v>
       </c>
       <c r="G100" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="H100" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -5263,21 +5266,28 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B101" t="s">
-        <v>540</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101"/>
+        <v>552</v>
+      </c>
+      <c r="C101" t="s">
+        <v>630</v>
+      </c>
+      <c r="D101" t="s">
+        <v>369</v>
+      </c>
+      <c r="E101" t="s">
+        <v>370</v>
+      </c>
       <c r="F101" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="G101" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H101" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -5286,28 +5296,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B102" t="s">
-        <v>548</v>
-      </c>
-      <c r="C102" t="s">
-        <v>621</v>
-      </c>
-      <c r="D102" t="s">
-        <v>378</v>
-      </c>
-      <c r="E102" t="s">
-        <v>379</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
       <c r="F102" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G102" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H102" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -5316,28 +5319,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B103" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C103" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="D103" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E103" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F103" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="G103" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H103" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -5346,21 +5349,28 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B104" t="s">
-        <v>540</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104"/>
+        <v>552</v>
+      </c>
+      <c r="C104" t="s">
+        <v>632</v>
+      </c>
+      <c r="D104" t="s">
+        <v>382</v>
+      </c>
+      <c r="E104" t="s">
+        <v>383</v>
+      </c>
       <c r="F104" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="G104" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H104" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -5369,28 +5379,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B105" t="s">
-        <v>548</v>
-      </c>
-      <c r="C105" t="s">
-        <v>623</v>
-      </c>
-      <c r="D105" t="s">
-        <v>391</v>
-      </c>
-      <c r="E105" t="s">
-        <v>392</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
       <c r="F105" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="G105" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H105" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -5399,28 +5402,28 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B106" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C106" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="D106" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E106" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F106" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G106" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H106" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -5429,21 +5432,28 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B107" t="s">
-        <v>562</v>
-      </c>
-      <c r="D107"/>
-      <c r="E107"/>
+        <v>552</v>
+      </c>
+      <c r="C107" t="s">
+        <v>634</v>
+      </c>
+      <c r="D107" t="s">
+        <v>395</v>
+      </c>
+      <c r="E107" t="s">
+        <v>396</v>
+      </c>
       <c r="F107" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G107" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H107" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -5452,28 +5462,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B108" t="s">
-        <v>548</v>
-      </c>
-      <c r="C108" t="s">
-        <v>625</v>
-      </c>
-      <c r="D108" t="s">
-        <v>404</v>
-      </c>
-      <c r="E108" t="s">
-        <v>405</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
       <c r="F108" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="G108" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H108" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -5482,28 +5485,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B109" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C109" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="D109" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E109" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F109" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G109" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H109" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -5512,28 +5515,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B110" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="C110" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="D110" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E110" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F110" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="G110" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H110" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -5542,28 +5545,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B111" t="s">
-        <v>548</v>
-      </c>
-      <c r="C111" t="s">
-        <v>628</v>
-      </c>
-      <c r="D111" t="s">
-        <v>419</v>
-      </c>
-      <c r="E111" t="s">
-        <v>420</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
       <c r="F111" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="G111" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H111" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -5572,28 +5568,28 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B112" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C112" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D112" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E112" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F112" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G112" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H112" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -5602,28 +5598,28 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C113" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D113" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E113" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F113" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="G113" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H113" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -5632,28 +5628,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B114" t="s">
         <v>564</v>
       </c>
       <c r="C114" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D114" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E114" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F114" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="G114" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H114" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -5662,28 +5658,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B115" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C115" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D115" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E115" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F115" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="G115" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H115" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
@@ -5692,28 +5688,28 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B116" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C116" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D116" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E116" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F116" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="G116" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H116" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -5722,28 +5718,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B117" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="C117" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D117" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E117" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F117" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="G117" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H117" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -5752,28 +5748,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B118" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="C118" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="D118" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E118" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F118" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="G118" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H118" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -5782,28 +5778,28 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B119" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="C119" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D119" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E119" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F119" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="G119" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H119" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -5812,28 +5808,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B120" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C120" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="D120" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E120" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F120" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="G120" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H120" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -5842,28 +5838,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B121" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C121" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="D121" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E121" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F121" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="G121" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H121" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -5872,28 +5868,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B122" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C122" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D122" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E122" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F122" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="G122" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H122" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
@@ -5902,28 +5898,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B123" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="C123" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D123" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E123" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F123" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="G123" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H123" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -5932,28 +5928,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B124" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C124" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D124" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E124" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F124" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="G124" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H124" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
@@ -5962,28 +5958,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B125" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C125" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D125" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E125" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F125" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="G125" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H125" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
@@ -5992,28 +5988,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B126" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C126" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="D126" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E126" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F126" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="G126" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H126" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
@@ -6022,28 +6018,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B127" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C127" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="D127" t="s">
+        <v>491</v>
+      </c>
+      <c r="E127" t="s">
+        <v>492</v>
+      </c>
+      <c r="F127" t="s">
+        <v>759</v>
+      </c>
+      <c r="G127" t="s">
+        <v>493</v>
+      </c>
+      <c r="H127" t="s">
         <v>494</v>
-      </c>
-      <c r="E127" t="s">
-        <v>495</v>
-      </c>
-      <c r="F127" t="s">
-        <v>750</v>
-      </c>
-      <c r="G127" t="s">
-        <v>496</v>
-      </c>
-      <c r="H127" t="s">
-        <v>499</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -6052,28 +6048,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B128" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C128" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="D128" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E128" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F128" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="G128" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H128" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
@@ -6082,28 +6078,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B129" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C129" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="D129" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E129" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F129" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="G129" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H129" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
@@ -6112,28 +6108,28 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B130" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C130" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="D130" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E130" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F130" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="G130" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H130" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
@@ -6142,28 +6138,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B131" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C131" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D131" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E131" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F131" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="G131" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="H131" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
@@ -6172,28 +6168,28 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B132" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C132" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D132" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E132" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F132" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="G132" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H132" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
@@ -6202,28 +6198,28 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B133" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C133" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="D133" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E133" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F133" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="G133" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H133" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
@@ -6232,28 +6228,28 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B134" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C134" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D134" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E134" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F134" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="G134" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H134" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="J134"/>
       <c r="K134"/>
@@ -6262,33 +6258,153 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B135" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C135" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D135" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E135" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F135" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="G135" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H135" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="J135"/>
       <c r="K135"/>
       <c r="M135"/>
       <c r="N135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>532</v>
+      </c>
+      <c r="B136" t="s">
+        <v>560</v>
+      </c>
+      <c r="C136" t="s">
+        <v>660</v>
+      </c>
+      <c r="D136" t="s">
+        <v>533</v>
+      </c>
+      <c r="E136" t="s">
+        <v>534</v>
+      </c>
+      <c r="F136" t="s">
+        <v>767</v>
+      </c>
+      <c r="G136" t="s">
+        <v>535</v>
+      </c>
+      <c r="H136" t="s">
+        <v>536</v>
+      </c>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>537</v>
+      </c>
+      <c r="B137" t="s">
+        <v>577</v>
+      </c>
+      <c r="C137" t="s">
+        <v>661</v>
+      </c>
+      <c r="D137" t="s">
+        <v>538</v>
+      </c>
+      <c r="E137" t="s">
+        <v>539</v>
+      </c>
+      <c r="F137" t="s">
+        <v>768</v>
+      </c>
+      <c r="G137" t="s">
+        <v>540</v>
+      </c>
+      <c r="H137" t="s">
+        <v>541</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>542</v>
+      </c>
+      <c r="B138" t="s">
+        <v>564</v>
+      </c>
+      <c r="C138" t="s">
+        <v>662</v>
+      </c>
+      <c r="D138" t="s">
+        <v>543</v>
+      </c>
+      <c r="E138" t="s">
+        <v>544</v>
+      </c>
+      <c r="F138" t="s">
+        <v>769</v>
+      </c>
+      <c r="G138" t="s">
+        <v>545</v>
+      </c>
+      <c r="H138" t="s">
+        <v>546</v>
+      </c>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>547</v>
+      </c>
+      <c r="B139" t="s">
+        <v>564</v>
+      </c>
+      <c r="C139" t="s">
+        <v>663</v>
+      </c>
+      <c r="D139" t="s">
+        <v>548</v>
+      </c>
+      <c r="E139" t="s">
+        <v>549</v>
+      </c>
+      <c r="F139" t="s">
+        <v>770</v>
+      </c>
+      <c r="G139" t="s">
+        <v>550</v>
+      </c>
+      <c r="H139" t="s">
+        <v>551</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="M139"/>
+      <c r="N139"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="792">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t xml:space="preserve">ミシリアは復興と存続のために盟友を必要としている。新天地の発展を進めれば、ミシリアから報せが届くかもしれない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Spice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">至高の味の謎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyche asked you to uncover the secret behind the flavor of “Dragons and Spices” curry. There might be a clue hidden beneath the Doga Ruins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気ままな傭兵ティケに、「竜と香辛料」のカレーの味の秘密を探るよう頼まれた。ドーガ遺跡の地下に何か手がかりがあるかもしれない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curry1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You discovered a mechanical factory in the depths of the ruins and destroyed its chief. Time to report back to Tyche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドーガ遺跡の地下で機械工場を見つけ、工場長を破壊した。ティケに報告しよう。</t>
   </si>
   <si>
     <t xml:space="preserve">nasu</t>
@@ -2773,10 +2797,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2785,7 +2809,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2803,10 +2827,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="C4" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2815,7 +2839,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2833,12 +2857,12 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2856,10 +2880,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2868,7 +2892,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2886,19 +2910,13 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C7" t="s">
-        <v>588</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>675</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2916,13 +2934,10 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>559</v>
+        <v>15</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" t="s">
-        <v>676</v>
-      </c>
       <c r="G8" t="s">
         <v>39</v>
       </c>
@@ -2939,18 +2954,25 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>559</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
+        <v>567</v>
+      </c>
+      <c r="C9" t="s">
+        <v>596</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -2959,22 +2981,15 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C10" t="s">
-        <v>589</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
       <c r="F10" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2992,12 +3007,12 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -3015,10 +3030,10 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="C12" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -3027,7 +3042,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -3037,137 +3052,130 @@
       </c>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12" t="s">
-        <v>783</v>
-      </c>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
+      <c r="M12"/>
+      <c r="N12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>687</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>557</v>
-      </c>
-      <c r="C13" t="s">
-        <v>591</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>681</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" t="s">
-        <v>65</v>
-      </c>
+      <c r="M13"/>
+      <c r="N13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C14" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="L14" t="s">
+        <v>791</v>
+      </c>
+      <c r="M14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" t="s">
+        <v>599</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>689</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>557</v>
-      </c>
-      <c r="C15" t="s">
-        <v>593</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>683</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="L15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>565</v>
+      </c>
+      <c r="C16" t="s">
+        <v>600</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
-        <v>557</v>
-      </c>
-      <c r="C16" t="s">
-        <v>594</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>690</v>
+      </c>
+      <c r="G16" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>684</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
-        <v>80</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -3176,26 +3184,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>565</v>
+      </c>
+      <c r="C17" t="s">
+        <v>601</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
-        <v>557</v>
-      </c>
-      <c r="C17" t="s">
-        <v>595</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>691</v>
+      </c>
+      <c r="G17" t="s">
         <v>82</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>685</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17" t="s">
-        <v>84</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -3204,19 +3214,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>565</v>
+      </c>
+      <c r="C18" t="s">
+        <v>602</v>
+      </c>
+      <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
-        <v>557</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
       <c r="F18" t="s">
-        <v>686</v>
-      </c>
-      <c r="G18"/>
+        <v>692</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -3225,15 +3244,27 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>557</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
+        <v>565</v>
+      </c>
+      <c r="C19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>693</v>
+      </c>
       <c r="G19"/>
-      <c r="H19"/>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="M19"/>
@@ -3241,28 +3272,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>562</v>
-      </c>
-      <c r="C20" t="s">
-        <v>596</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
       <c r="F20" t="s">
-        <v>687</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="G20"/>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -3271,10 +3293,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3287,28 +3309,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="C22" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -3317,22 +3339,15 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" t="s">
-        <v>689</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
+      <c r="G23"/>
+      <c r="H23"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="M23"/>
@@ -3343,18 +3358,25 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>557</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
+        <v>565</v>
+      </c>
+      <c r="C24" t="s">
+        <v>605</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
       <c r="F24" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -3363,15 +3385,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="G25"/>
-      <c r="H25"/>
+      <c r="F25" t="s">
+        <v>697</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="M25"/>
@@ -3379,28 +3408,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>563</v>
-      </c>
-      <c r="C26" t="s">
-        <v>598</v>
-      </c>
-      <c r="D26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
       <c r="F26" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -3409,10 +3431,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -3425,28 +3447,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C28" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -3455,29 +3477,15 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>564</v>
-      </c>
-      <c r="C29" t="s">
-        <v>600</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>683</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s">
-        <v>115</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="G29"/>
+      <c r="H29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="M29"/>
@@ -3485,25 +3493,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C30" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>123</v>
@@ -3518,18 +3526,25 @@
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>563</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31"/>
+        <v>572</v>
+      </c>
+      <c r="C31" t="s">
+        <v>608</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
       <c r="F31" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -3541,12 +3556,26 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>563</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="G32"/>
-      <c r="H32"/>
+        <v>571</v>
+      </c>
+      <c r="C32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>700</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" t="s">
+        <v>131</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="M32"/>
@@ -3554,28 +3583,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>565</v>
-      </c>
-      <c r="C33" t="s">
-        <v>602</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>130</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
       <c r="F33" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -3584,22 +3606,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" t="s">
-        <v>695</v>
-      </c>
-      <c r="G34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" t="s">
-        <v>135</v>
-      </c>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="M34"/>
@@ -3610,18 +3625,25 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>563</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
+        <v>573</v>
+      </c>
+      <c r="C35" t="s">
+        <v>610</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
+      </c>
       <c r="F35" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -3630,15 +3652,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="G36"/>
-      <c r="H36"/>
+      <c r="F36" t="s">
+        <v>703</v>
+      </c>
+      <c r="G36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="M36"/>
@@ -3646,28 +3675,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>557</v>
-      </c>
-      <c r="C37" t="s">
-        <v>603</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" t="s">
-        <v>142</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
       <c r="F37" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -3676,22 +3698,15 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" t="s">
-        <v>698</v>
-      </c>
-      <c r="G38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" t="s">
-        <v>147</v>
-      </c>
+      <c r="G38"/>
+      <c r="H38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="M38"/>
@@ -3702,12 +3717,26 @@
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>557</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="G39"/>
-      <c r="H39"/>
+        <v>565</v>
+      </c>
+      <c r="C39" t="s">
+        <v>611</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>705</v>
+      </c>
+      <c r="G39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" t="s">
+        <v>152</v>
+      </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="M39"/>
@@ -3715,28 +3744,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>566</v>
-      </c>
-      <c r="C40" t="s">
-        <v>604</v>
-      </c>
-      <c r="D40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" t="s">
-        <v>151</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="F40" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -3745,10 +3767,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -3761,28 +3783,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C42" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F42" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -3791,22 +3813,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
-      <c r="F43" t="s">
-        <v>701</v>
-      </c>
-      <c r="G43" t="s">
-        <v>161</v>
-      </c>
-      <c r="H43" t="s">
-        <v>162</v>
-      </c>
+      <c r="G43"/>
+      <c r="H43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="M43"/>
@@ -3817,18 +3832,25 @@
         <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>557</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44"/>
+        <v>565</v>
+      </c>
+      <c r="C44" t="s">
+        <v>613</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>165</v>
+      </c>
       <c r="F44" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -3837,21 +3859,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="G45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -3860,21 +3882,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H46" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -3883,21 +3905,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3906,15 +3928,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="G48"/>
-      <c r="H48"/>
+      <c r="F48" t="s">
+        <v>711</v>
+      </c>
+      <c r="G48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" t="s">
+        <v>176</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="M48"/>
@@ -3922,28 +3951,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>563</v>
-      </c>
-      <c r="C49" t="s">
-        <v>606</v>
-      </c>
-      <c r="D49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" t="s">
-        <v>176</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
       <c r="F49" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H49" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3952,29 +3974,15 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>563</v>
-      </c>
-      <c r="C50" t="s">
-        <v>607</v>
-      </c>
-      <c r="D50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" t="s">
-        <v>706</v>
-      </c>
-      <c r="G50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H50" t="s">
-        <v>183</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="G50"/>
+      <c r="H50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="M50"/>
@@ -3982,15 +3990,29 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C51" t="s">
+        <v>614</v>
+      </c>
+      <c r="D51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" t="s">
         <v>184</v>
       </c>
-      <c r="B51" t="s">
-        <v>563</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="G51"/>
-      <c r="H51"/>
+      <c r="F51" t="s">
+        <v>713</v>
+      </c>
+      <c r="G51" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" t="s">
+        <v>186</v>
+      </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="M51"/>
@@ -3998,28 +4020,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C52" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F52" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -4028,10 +4050,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -4044,28 +4066,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C54" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F54" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -4074,29 +4096,15 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
-        <v>567</v>
-      </c>
-      <c r="C55" t="s">
-        <v>610</v>
-      </c>
-      <c r="D55" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" t="s">
-        <v>709</v>
-      </c>
-      <c r="G55" t="s">
-        <v>199</v>
-      </c>
-      <c r="H55" t="s">
-        <v>200</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="G55"/>
+      <c r="H55"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="M55"/>
@@ -4104,28 +4112,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>575</v>
+      </c>
+      <c r="C56" t="s">
+        <v>617</v>
+      </c>
+      <c r="D56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
         <v>201</v>
       </c>
-      <c r="B56" t="s">
-        <v>567</v>
-      </c>
-      <c r="C56" t="s">
-        <v>611</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>716</v>
+      </c>
+      <c r="G56" t="s">
         <v>202</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>203</v>
-      </c>
-      <c r="F56" t="s">
-        <v>710</v>
-      </c>
-      <c r="G56" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" t="s">
-        <v>205</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -4134,28 +4142,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>575</v>
+      </c>
+      <c r="C57" t="s">
+        <v>618</v>
+      </c>
+      <c r="D57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" t="s">
         <v>206</v>
       </c>
-      <c r="B57" t="s">
-        <v>567</v>
-      </c>
-      <c r="C57" t="s">
-        <v>612</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>717</v>
+      </c>
+      <c r="G57" t="s">
         <v>207</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>208</v>
-      </c>
-      <c r="F57" t="s">
-        <v>711</v>
-      </c>
-      <c r="G57" t="s">
-        <v>209</v>
-      </c>
-      <c r="H57" t="s">
-        <v>210</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -4164,28 +4172,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" t="s">
+        <v>575</v>
+      </c>
+      <c r="C58" t="s">
+        <v>619</v>
+      </c>
+      <c r="D58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" t="s">
         <v>211</v>
       </c>
-      <c r="B58" t="s">
-        <v>565</v>
-      </c>
-      <c r="C58" t="s">
-        <v>613</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>718</v>
+      </c>
+      <c r="G58" t="s">
         <v>212</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>213</v>
-      </c>
-      <c r="F58" t="s">
-        <v>712</v>
-      </c>
-      <c r="G58" t="s">
-        <v>214</v>
-      </c>
-      <c r="H58" t="s">
-        <v>215</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -4194,28 +4202,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" t="s">
+        <v>575</v>
+      </c>
+      <c r="C59" t="s">
+        <v>620</v>
+      </c>
+      <c r="D59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" t="s">
         <v>216</v>
       </c>
-      <c r="B59" t="s">
-        <v>568</v>
-      </c>
-      <c r="C59" t="s">
-        <v>614</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>719</v>
+      </c>
+      <c r="G59" t="s">
         <v>217</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>218</v>
-      </c>
-      <c r="F59" t="s">
-        <v>713</v>
-      </c>
-      <c r="G59" t="s">
-        <v>219</v>
-      </c>
-      <c r="H59" t="s">
-        <v>220</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -4224,28 +4232,28 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
+        <v>573</v>
+      </c>
+      <c r="C60" t="s">
+        <v>621</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" t="s">
         <v>221</v>
       </c>
-      <c r="B60" t="s">
-        <v>565</v>
-      </c>
-      <c r="C60" t="s">
-        <v>615</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>720</v>
+      </c>
+      <c r="G60" t="s">
         <v>222</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>223</v>
-      </c>
-      <c r="F60" t="s">
-        <v>714</v>
-      </c>
-      <c r="G60" t="s">
-        <v>224</v>
-      </c>
-      <c r="H60" t="s">
-        <v>225</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
@@ -4254,28 +4262,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
+        <v>576</v>
+      </c>
+      <c r="C61" t="s">
+        <v>622</v>
+      </c>
+      <c r="D61" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" t="s">
         <v>226</v>
       </c>
-      <c r="B61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C61" t="s">
-        <v>616</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
+        <v>721</v>
+      </c>
+      <c r="G61" t="s">
         <v>227</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>228</v>
-      </c>
-      <c r="F61" t="s">
-        <v>715</v>
-      </c>
-      <c r="G61" t="s">
-        <v>229</v>
-      </c>
-      <c r="H61" t="s">
-        <v>230</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
@@ -4284,15 +4292,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" t="s">
+        <v>573</v>
+      </c>
+      <c r="C62" t="s">
+        <v>623</v>
+      </c>
+      <c r="D62" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" t="s">
         <v>231</v>
       </c>
-      <c r="B62" t="s">
-        <v>565</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62"/>
       <c r="F62" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="G62" t="s">
         <v>232</v>
@@ -4310,18 +4325,25 @@
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>565</v>
-      </c>
-      <c r="D63"/>
-      <c r="E63"/>
+        <v>573</v>
+      </c>
+      <c r="C63" t="s">
+        <v>624</v>
+      </c>
+      <c r="D63" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" t="s">
+        <v>236</v>
+      </c>
       <c r="F63" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
@@ -4330,21 +4352,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -4353,21 +4375,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="G65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -4376,21 +4398,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -4399,21 +4421,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
@@ -4422,21 +4444,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
@@ -4445,21 +4467,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H69" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
@@ -4468,21 +4490,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -4491,17 +4513,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
+      <c r="F71" t="s">
+        <v>731</v>
+      </c>
       <c r="G71" t="s">
-        <v>259</v>
-      </c>
-      <c r="H71"/>
+        <v>261</v>
+      </c>
+      <c r="H71" t="s">
+        <v>262</v>
+      </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="M71"/>
@@ -4509,17 +4536,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
+      <c r="F72" t="s">
+        <v>732</v>
+      </c>
       <c r="G72" t="s">
-        <v>259</v>
-      </c>
-      <c r="H72"/>
+        <v>264</v>
+      </c>
+      <c r="H72" t="s">
+        <v>265</v>
+      </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="M72"/>
@@ -4527,29 +4559,17 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s">
-        <v>565</v>
-      </c>
-      <c r="C73" t="s">
-        <v>617</v>
-      </c>
-      <c r="D73" t="s">
-        <v>262</v>
-      </c>
-      <c r="E73" t="s">
-        <v>263</v>
-      </c>
-      <c r="F73" t="s">
-        <v>725</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
       <c r="G73" t="s">
-        <v>264</v>
-      </c>
-      <c r="H73" t="s">
-        <v>265</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="H73"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="M73"/>
@@ -4557,29 +4577,17 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s">
-        <v>565</v>
-      </c>
-      <c r="C74" t="s">
-        <v>618</v>
-      </c>
-      <c r="D74" t="s">
+        <v>573</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="G74" t="s">
         <v>267</v>
       </c>
-      <c r="E74" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" t="s">
-        <v>726</v>
-      </c>
-      <c r="G74" t="s">
-        <v>269</v>
-      </c>
-      <c r="H74" t="s">
-        <v>270</v>
-      </c>
+      <c r="H74"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="M74"/>
@@ -4587,28 +4595,28 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" t="s">
+        <v>573</v>
+      </c>
+      <c r="C75" t="s">
+        <v>625</v>
+      </c>
+      <c r="D75" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75" t="s">
         <v>271</v>
       </c>
-      <c r="B75" t="s">
-        <v>572</v>
-      </c>
-      <c r="C75" t="s">
-        <v>619</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
+        <v>733</v>
+      </c>
+      <c r="G75" t="s">
         <v>272</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>273</v>
-      </c>
-      <c r="F75" t="s">
-        <v>727</v>
-      </c>
-      <c r="G75" t="s">
-        <v>274</v>
-      </c>
-      <c r="H75" t="s">
-        <v>275</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -4617,28 +4625,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" t="s">
+        <v>573</v>
+      </c>
+      <c r="C76" t="s">
+        <v>626</v>
+      </c>
+      <c r="D76" t="s">
+        <v>275</v>
+      </c>
+      <c r="E76" t="s">
         <v>276</v>
       </c>
-      <c r="B76" t="s">
-        <v>572</v>
-      </c>
-      <c r="C76" t="s">
-        <v>620</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
+        <v>734</v>
+      </c>
+      <c r="G76" t="s">
         <v>277</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>278</v>
-      </c>
-      <c r="F76" t="s">
-        <v>728</v>
-      </c>
-      <c r="G76" t="s">
-        <v>279</v>
-      </c>
-      <c r="H76" t="s">
-        <v>280</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -4647,28 +4655,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" t="s">
+        <v>580</v>
+      </c>
+      <c r="C77" t="s">
+        <v>627</v>
+      </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" t="s">
         <v>281</v>
       </c>
-      <c r="B77" t="s">
-        <v>573</v>
-      </c>
-      <c r="C77" t="s">
-        <v>621</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
+        <v>735</v>
+      </c>
+      <c r="G77" t="s">
         <v>282</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>283</v>
-      </c>
-      <c r="F77" t="s">
-        <v>729</v>
-      </c>
-      <c r="G77" t="s">
-        <v>284</v>
-      </c>
-      <c r="H77" t="s">
-        <v>285</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -4677,19 +4685,28 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" t="s">
+        <v>580</v>
+      </c>
+      <c r="C78" t="s">
+        <v>628</v>
+      </c>
+      <c r="D78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78" t="s">
         <v>286</v>
       </c>
-      <c r="B78" t="s">
-        <v>557</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78"/>
       <c r="F78" t="s">
+        <v>736</v>
+      </c>
+      <c r="G78" t="s">
         <v>287</v>
       </c>
-      <c r="G78"/>
       <c r="H78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -4698,28 +4715,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="C79" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F79" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="G79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -4728,28 +4745,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s">
-        <v>574</v>
-      </c>
-      <c r="C80" t="s">
-        <v>623</v>
-      </c>
-      <c r="D80" t="s">
-        <v>294</v>
-      </c>
-      <c r="E80" t="s">
+        <v>565</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80" t="s">
         <v>295</v>
       </c>
-      <c r="F80" t="s">
-        <v>731</v>
-      </c>
-      <c r="G80" t="s">
-        <v>296</v>
-      </c>
+      <c r="G80"/>
       <c r="H80" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -4758,28 +4766,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" t="s">
+        <v>582</v>
+      </c>
+      <c r="C81" t="s">
+        <v>630</v>
+      </c>
+      <c r="D81" t="s">
+        <v>297</v>
+      </c>
+      <c r="E81" t="s">
         <v>298</v>
       </c>
-      <c r="B81" t="s">
-        <v>574</v>
-      </c>
-      <c r="C81" t="s">
-        <v>624</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
+        <v>738</v>
+      </c>
+      <c r="G81" t="s">
         <v>299</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>300</v>
-      </c>
-      <c r="F81" t="s">
-        <v>732</v>
-      </c>
-      <c r="G81" t="s">
-        <v>301</v>
-      </c>
-      <c r="H81" t="s">
-        <v>302</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -4788,28 +4796,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>301</v>
+      </c>
+      <c r="B82" t="s">
+        <v>582</v>
+      </c>
+      <c r="C82" t="s">
+        <v>631</v>
+      </c>
+      <c r="D82" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" t="s">
         <v>303</v>
       </c>
-      <c r="B82" t="s">
-        <v>574</v>
-      </c>
-      <c r="C82" t="s">
-        <v>625</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
+        <v>739</v>
+      </c>
+      <c r="G82" t="s">
         <v>304</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>305</v>
-      </c>
-      <c r="F82" t="s">
-        <v>714</v>
-      </c>
-      <c r="G82" t="s">
-        <v>224</v>
-      </c>
-      <c r="H82" t="s">
-        <v>225</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -4821,10 +4829,10 @@
         <v>306</v>
       </c>
       <c r="B83" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C83" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="D83" t="s">
         <v>307</v>
@@ -4833,7 +4841,7 @@
         <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="G83" t="s">
         <v>309</v>
@@ -4851,10 +4859,10 @@
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C84" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D84" t="s">
         <v>312</v>
@@ -4863,13 +4871,13 @@
         <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="H84" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -4878,15 +4886,22 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B85" t="s">
+        <v>582</v>
+      </c>
+      <c r="C85" t="s">
+        <v>634</v>
+      </c>
+      <c r="D85" t="s">
+        <v>315</v>
+      </c>
+      <c r="E85" t="s">
         <v>316</v>
       </c>
-      <c r="B85" t="s">
-        <v>575</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85"/>
       <c r="F85" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="G85" t="s">
         <v>317</v>
@@ -4904,18 +4919,25 @@
         <v>319</v>
       </c>
       <c r="B86" t="s">
-        <v>575</v>
-      </c>
-      <c r="D86"/>
-      <c r="E86"/>
+        <v>583</v>
+      </c>
+      <c r="C86" t="s">
+        <v>635</v>
+      </c>
+      <c r="D86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E86" t="s">
+        <v>321</v>
+      </c>
       <c r="F86" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H86" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -4924,21 +4946,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="G87" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H87" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -4947,21 +4969,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="G88" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H88" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -4970,28 +4992,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B89" t="s">
-        <v>576</v>
-      </c>
-      <c r="C89" t="s">
-        <v>628</v>
-      </c>
-      <c r="D89" t="s">
+        <v>583</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>743</v>
+      </c>
+      <c r="G89" t="s">
         <v>325</v>
       </c>
-      <c r="E89" t="s">
+      <c r="H89" t="s">
         <v>326</v>
-      </c>
-      <c r="F89" t="s">
-        <v>737</v>
-      </c>
-      <c r="G89" t="s">
-        <v>327</v>
-      </c>
-      <c r="H89" t="s">
-        <v>328</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -5003,12 +5018,12 @@
         <v>329</v>
       </c>
       <c r="B90" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="G90" t="s">
         <v>330</v>
@@ -5026,18 +5041,25 @@
         <v>332</v>
       </c>
       <c r="B91" t="s">
-        <v>577</v>
-      </c>
-      <c r="D91"/>
-      <c r="E91"/>
+        <v>584</v>
+      </c>
+      <c r="C91" t="s">
+        <v>636</v>
+      </c>
+      <c r="D91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E91" t="s">
+        <v>334</v>
+      </c>
       <c r="F91" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="G91" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H91" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -5046,21 +5068,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B92" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="G92" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H92" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -5069,21 +5091,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B93" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="G93" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H93" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -5092,21 +5114,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B94" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="G94" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H94" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
@@ -5115,22 +5137,15 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B95" t="s">
-        <v>568</v>
-      </c>
-      <c r="C95" t="s">
-        <v>629</v>
-      </c>
-      <c r="D95" t="s">
-        <v>345</v>
-      </c>
-      <c r="E95" t="s">
-        <v>346</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
       <c r="F95" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="G95" t="s">
         <v>347</v>
@@ -5148,25 +5163,18 @@
         <v>349</v>
       </c>
       <c r="B96" t="s">
-        <v>565</v>
-      </c>
-      <c r="C96" t="s">
-        <v>630</v>
-      </c>
-      <c r="D96" t="s">
+        <v>583</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>750</v>
+      </c>
+      <c r="G96" t="s">
         <v>350</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>351</v>
-      </c>
-      <c r="F96" t="s">
-        <v>726</v>
-      </c>
-      <c r="G96" t="s">
-        <v>269</v>
-      </c>
-      <c r="H96" t="s">
-        <v>270</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -5178,25 +5186,25 @@
         <v>352</v>
       </c>
       <c r="B97" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C97" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="D97" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E97" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F97" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="G97" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="H97" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -5205,26 +5213,28 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B98" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C98" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E98" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F98" t="s">
-        <v>744</v>
-      </c>
-      <c r="G98"/>
+        <v>734</v>
+      </c>
+      <c r="G98" t="s">
+        <v>277</v>
+      </c>
       <c r="H98" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -5233,13 +5243,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B99" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C99" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D99" t="s">
         <v>358</v>
@@ -5248,13 +5258,13 @@
         <v>359</v>
       </c>
       <c r="F99" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G99" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H99" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -5263,28 +5273,26 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B100" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C100" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D100" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E100" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F100" t="s">
-        <v>363</v>
-      </c>
-      <c r="G100" t="s">
-        <v>363</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="G100"/>
       <c r="H100" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -5293,28 +5301,28 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C101" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D101" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F101" t="s">
-        <v>363</v>
+        <v>734</v>
       </c>
       <c r="G101" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="H101" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -5323,28 +5331,28 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B102" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C102" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E102" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F102" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G102" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H102" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -5353,28 +5361,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B103" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C103" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D103" t="s">
+        <v>373</v>
+      </c>
+      <c r="E103" t="s">
+        <v>374</v>
+      </c>
+      <c r="F103" t="s">
         <v>371</v>
       </c>
-      <c r="E103" t="s">
-        <v>372</v>
-      </c>
-      <c r="F103" t="s">
-        <v>363</v>
-      </c>
       <c r="G103" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H103" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -5383,28 +5391,28 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B104" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="C104" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D104" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E104" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F104" t="s">
-        <v>745</v>
+        <v>371</v>
       </c>
       <c r="G104" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H104" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -5416,18 +5424,25 @@
         <v>378</v>
       </c>
       <c r="B105" t="s">
-        <v>557</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105"/>
+        <v>587</v>
+      </c>
+      <c r="C105" t="s">
+        <v>644</v>
+      </c>
+      <c r="D105" t="s">
+        <v>379</v>
+      </c>
+      <c r="E105" t="s">
+        <v>380</v>
+      </c>
       <c r="F105" t="s">
-        <v>746</v>
+        <v>371</v>
       </c>
       <c r="G105" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H105" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -5442,7 +5457,7 @@
         <v>565</v>
       </c>
       <c r="C106" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="D106" t="s">
         <v>382</v>
@@ -5451,7 +5466,7 @@
         <v>383</v>
       </c>
       <c r="F106" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="G106" t="s">
         <v>384</v>
@@ -5469,25 +5484,18 @@
         <v>386</v>
       </c>
       <c r="B107" t="s">
-        <v>557</v>
-      </c>
-      <c r="C107" t="s">
-        <v>639</v>
-      </c>
-      <c r="D107" t="s">
+        <v>565</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>754</v>
+      </c>
+      <c r="G107" t="s">
         <v>387</v>
       </c>
-      <c r="E107" t="s">
+      <c r="H107" t="s">
         <v>388</v>
-      </c>
-      <c r="F107" t="s">
-        <v>748</v>
-      </c>
-      <c r="G107" t="s">
-        <v>389</v>
-      </c>
-      <c r="H107" t="s">
-        <v>390</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -5496,15 +5504,22 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>389</v>
+      </c>
+      <c r="B108" t="s">
+        <v>573</v>
+      </c>
+      <c r="C108" t="s">
+        <v>646</v>
+      </c>
+      <c r="D108" t="s">
+        <v>390</v>
+      </c>
+      <c r="E108" t="s">
         <v>391</v>
       </c>
-      <c r="B108" t="s">
-        <v>557</v>
-      </c>
-      <c r="D108"/>
-      <c r="E108"/>
       <c r="F108" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="G108" t="s">
         <v>392</v>
@@ -5525,7 +5540,7 @@
         <v>565</v>
       </c>
       <c r="C109" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D109" t="s">
         <v>395</v>
@@ -5534,7 +5549,7 @@
         <v>396</v>
       </c>
       <c r="F109" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="G109" t="s">
         <v>397</v>
@@ -5552,25 +5567,18 @@
         <v>399</v>
       </c>
       <c r="B110" t="s">
-        <v>557</v>
-      </c>
-      <c r="C110" t="s">
-        <v>641</v>
-      </c>
-      <c r="D110" t="s">
+        <v>565</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>757</v>
+      </c>
+      <c r="G110" t="s">
         <v>400</v>
       </c>
-      <c r="E110" t="s">
+      <c r="H110" t="s">
         <v>401</v>
-      </c>
-      <c r="F110" t="s">
-        <v>751</v>
-      </c>
-      <c r="G110" t="s">
-        <v>402</v>
-      </c>
-      <c r="H110" t="s">
-        <v>403</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -5579,15 +5587,22 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>402</v>
+      </c>
+      <c r="B111" t="s">
+        <v>573</v>
+      </c>
+      <c r="C111" t="s">
+        <v>648</v>
+      </c>
+      <c r="D111" t="s">
+        <v>403</v>
+      </c>
+      <c r="E111" t="s">
         <v>404</v>
       </c>
-      <c r="B111" t="s">
-        <v>557</v>
-      </c>
-      <c r="D111"/>
-      <c r="E111"/>
       <c r="F111" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="G111" t="s">
         <v>405</v>
@@ -5608,7 +5623,7 @@
         <v>565</v>
       </c>
       <c r="C112" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="D112" t="s">
         <v>408</v>
@@ -5617,7 +5632,7 @@
         <v>409</v>
       </c>
       <c r="F112" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="G112" t="s">
         <v>410</v>
@@ -5635,25 +5650,18 @@
         <v>412</v>
       </c>
       <c r="B113" t="s">
-        <v>580</v>
-      </c>
-      <c r="C113" t="s">
-        <v>643</v>
-      </c>
-      <c r="D113" t="s">
+        <v>565</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>760</v>
+      </c>
+      <c r="G113" t="s">
         <v>413</v>
       </c>
-      <c r="E113" t="s">
+      <c r="H113" t="s">
         <v>414</v>
-      </c>
-      <c r="F113" t="s">
-        <v>754</v>
-      </c>
-      <c r="G113" t="s">
-        <v>415</v>
-      </c>
-      <c r="H113" t="s">
-        <v>416</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -5662,15 +5670,22 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>415</v>
+      </c>
+      <c r="B114" t="s">
+        <v>573</v>
+      </c>
+      <c r="C114" t="s">
+        <v>650</v>
+      </c>
+      <c r="D114" t="s">
+        <v>416</v>
+      </c>
+      <c r="E114" t="s">
         <v>417</v>
       </c>
-      <c r="B114" t="s">
-        <v>581</v>
-      </c>
-      <c r="D114"/>
-      <c r="E114"/>
       <c r="F114" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="G114" t="s">
         <v>418</v>
@@ -5688,10 +5703,10 @@
         <v>420</v>
       </c>
       <c r="B115" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C115" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D115" t="s">
         <v>421</v>
@@ -5700,7 +5715,7 @@
         <v>422</v>
       </c>
       <c r="F115" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="G115" t="s">
         <v>423</v>
@@ -5718,25 +5733,18 @@
         <v>425</v>
       </c>
       <c r="B116" t="s">
-        <v>565</v>
-      </c>
-      <c r="C116" t="s">
-        <v>645</v>
-      </c>
-      <c r="D116" t="s">
+        <v>589</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>763</v>
+      </c>
+      <c r="G116" t="s">
         <v>426</v>
       </c>
-      <c r="E116" t="s">
+      <c r="H116" t="s">
         <v>427</v>
-      </c>
-      <c r="F116" t="s">
-        <v>757</v>
-      </c>
-      <c r="G116" t="s">
-        <v>428</v>
-      </c>
-      <c r="H116" t="s">
-        <v>429</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -5745,28 +5753,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>428</v>
+      </c>
+      <c r="B117" t="s">
+        <v>573</v>
+      </c>
+      <c r="C117" t="s">
+        <v>652</v>
+      </c>
+      <c r="D117" t="s">
+        <v>429</v>
+      </c>
+      <c r="E117" t="s">
         <v>430</v>
       </c>
-      <c r="B117" t="s">
-        <v>569</v>
-      </c>
-      <c r="C117" t="s">
-        <v>646</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
+        <v>764</v>
+      </c>
+      <c r="G117" t="s">
         <v>431</v>
       </c>
-      <c r="E117" t="s">
+      <c r="H117" t="s">
         <v>432</v>
-      </c>
-      <c r="F117" t="s">
-        <v>758</v>
-      </c>
-      <c r="G117" t="s">
-        <v>433</v>
-      </c>
-      <c r="H117" t="s">
-        <v>434</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -5775,28 +5783,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>433</v>
+      </c>
+      <c r="B118" t="s">
+        <v>573</v>
+      </c>
+      <c r="C118" t="s">
+        <v>653</v>
+      </c>
+      <c r="D118" t="s">
+        <v>434</v>
+      </c>
+      <c r="E118" t="s">
         <v>435</v>
       </c>
-      <c r="B118" t="s">
-        <v>565</v>
-      </c>
-      <c r="C118" t="s">
-        <v>647</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
+        <v>765</v>
+      </c>
+      <c r="G118" t="s">
         <v>436</v>
       </c>
-      <c r="E118" t="s">
+      <c r="H118" t="s">
         <v>437</v>
-      </c>
-      <c r="F118" t="s">
-        <v>759</v>
-      </c>
-      <c r="G118" t="s">
-        <v>438</v>
-      </c>
-      <c r="H118" t="s">
-        <v>439</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -5805,28 +5813,28 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>438</v>
+      </c>
+      <c r="B119" t="s">
+        <v>577</v>
+      </c>
+      <c r="C119" t="s">
+        <v>654</v>
+      </c>
+      <c r="D119" t="s">
+        <v>439</v>
+      </c>
+      <c r="E119" t="s">
         <v>440</v>
       </c>
-      <c r="B119" t="s">
-        <v>565</v>
-      </c>
-      <c r="C119" t="s">
-        <v>648</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
+        <v>766</v>
+      </c>
+      <c r="G119" t="s">
         <v>441</v>
       </c>
-      <c r="E119" t="s">
+      <c r="H119" t="s">
         <v>442</v>
-      </c>
-      <c r="F119" t="s">
-        <v>760</v>
-      </c>
-      <c r="G119" t="s">
-        <v>443</v>
-      </c>
-      <c r="H119" t="s">
-        <v>444</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -5835,28 +5843,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>443</v>
+      </c>
+      <c r="B120" t="s">
+        <v>573</v>
+      </c>
+      <c r="C120" t="s">
+        <v>655</v>
+      </c>
+      <c r="D120" t="s">
+        <v>444</v>
+      </c>
+      <c r="E120" t="s">
         <v>445</v>
       </c>
-      <c r="B120" t="s">
-        <v>582</v>
-      </c>
-      <c r="C120" t="s">
-        <v>649</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
+        <v>767</v>
+      </c>
+      <c r="G120" t="s">
         <v>446</v>
       </c>
-      <c r="E120" t="s">
+      <c r="H120" t="s">
         <v>447</v>
-      </c>
-      <c r="F120" t="s">
-        <v>761</v>
-      </c>
-      <c r="G120" t="s">
-        <v>448</v>
-      </c>
-      <c r="H120" t="s">
-        <v>449</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -5865,28 +5873,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>448</v>
+      </c>
+      <c r="B121" t="s">
+        <v>573</v>
+      </c>
+      <c r="C121" t="s">
+        <v>656</v>
+      </c>
+      <c r="D121" t="s">
+        <v>449</v>
+      </c>
+      <c r="E121" t="s">
         <v>450</v>
       </c>
-      <c r="B121" t="s">
-        <v>583</v>
-      </c>
-      <c r="C121" t="s">
-        <v>650</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
+        <v>768</v>
+      </c>
+      <c r="G121" t="s">
         <v>451</v>
       </c>
-      <c r="E121" t="s">
+      <c r="H121" t="s">
         <v>452</v>
-      </c>
-      <c r="F121" t="s">
-        <v>762</v>
-      </c>
-      <c r="G121" t="s">
-        <v>453</v>
-      </c>
-      <c r="H121" t="s">
-        <v>454</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -5895,28 +5903,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>453</v>
+      </c>
+      <c r="B122" t="s">
+        <v>590</v>
+      </c>
+      <c r="C122" t="s">
+        <v>657</v>
+      </c>
+      <c r="D122" t="s">
+        <v>454</v>
+      </c>
+      <c r="E122" t="s">
         <v>455</v>
       </c>
-      <c r="B122" t="s">
-        <v>565</v>
-      </c>
-      <c r="C122" t="s">
-        <v>651</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
+        <v>769</v>
+      </c>
+      <c r="G122" t="s">
         <v>456</v>
       </c>
-      <c r="E122" t="s">
+      <c r="H122" t="s">
         <v>457</v>
-      </c>
-      <c r="F122" t="s">
-        <v>763</v>
-      </c>
-      <c r="G122" t="s">
-        <v>458</v>
-      </c>
-      <c r="H122" t="s">
-        <v>459</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
@@ -5925,28 +5933,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>458</v>
+      </c>
+      <c r="B123" t="s">
+        <v>591</v>
+      </c>
+      <c r="C123" t="s">
+        <v>658</v>
+      </c>
+      <c r="D123" t="s">
+        <v>459</v>
+      </c>
+      <c r="E123" t="s">
         <v>460</v>
       </c>
-      <c r="B123" t="s">
-        <v>565</v>
-      </c>
-      <c r="C123" t="s">
-        <v>652</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
+        <v>770</v>
+      </c>
+      <c r="G123" t="s">
         <v>461</v>
       </c>
-      <c r="E123" t="s">
+      <c r="H123" t="s">
         <v>462</v>
-      </c>
-      <c r="F123" t="s">
-        <v>764</v>
-      </c>
-      <c r="G123" t="s">
-        <v>463</v>
-      </c>
-      <c r="H123" t="s">
-        <v>464</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -5955,28 +5963,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>463</v>
+      </c>
+      <c r="B124" t="s">
+        <v>573</v>
+      </c>
+      <c r="C124" t="s">
+        <v>659</v>
+      </c>
+      <c r="D124" t="s">
+        <v>464</v>
+      </c>
+      <c r="E124" t="s">
         <v>465</v>
       </c>
-      <c r="B124" t="s">
-        <v>565</v>
-      </c>
-      <c r="C124" t="s">
-        <v>653</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
+        <v>771</v>
+      </c>
+      <c r="G124" t="s">
         <v>466</v>
       </c>
-      <c r="E124" t="s">
+      <c r="H124" t="s">
         <v>467</v>
-      </c>
-      <c r="F124" t="s">
-        <v>765</v>
-      </c>
-      <c r="G124" t="s">
-        <v>468</v>
-      </c>
-      <c r="H124" t="s">
-        <v>469</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
@@ -5985,28 +5993,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>468</v>
+      </c>
+      <c r="B125" t="s">
+        <v>573</v>
+      </c>
+      <c r="C125" t="s">
+        <v>660</v>
+      </c>
+      <c r="D125" t="s">
+        <v>469</v>
+      </c>
+      <c r="E125" t="s">
         <v>470</v>
       </c>
-      <c r="B125" t="s">
-        <v>565</v>
-      </c>
-      <c r="C125" t="s">
-        <v>654</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
+        <v>772</v>
+      </c>
+      <c r="G125" t="s">
         <v>471</v>
       </c>
-      <c r="E125" t="s">
+      <c r="H125" t="s">
         <v>472</v>
-      </c>
-      <c r="F125" t="s">
-        <v>766</v>
-      </c>
-      <c r="G125" t="s">
-        <v>473</v>
-      </c>
-      <c r="H125" t="s">
-        <v>474</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
@@ -6015,28 +6023,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>473</v>
+      </c>
+      <c r="B126" t="s">
+        <v>573</v>
+      </c>
+      <c r="C126" t="s">
+        <v>661</v>
+      </c>
+      <c r="D126" t="s">
+        <v>474</v>
+      </c>
+      <c r="E126" t="s">
         <v>475</v>
       </c>
-      <c r="B126" t="s">
-        <v>568</v>
-      </c>
-      <c r="C126" t="s">
-        <v>655</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
+        <v>773</v>
+      </c>
+      <c r="G126" t="s">
         <v>476</v>
       </c>
-      <c r="E126" t="s">
+      <c r="H126" t="s">
         <v>477</v>
-      </c>
-      <c r="F126" t="s">
-        <v>767</v>
-      </c>
-      <c r="G126" t="s">
-        <v>478</v>
-      </c>
-      <c r="H126" t="s">
-        <v>479</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
@@ -6045,28 +6053,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>478</v>
+      </c>
+      <c r="B127" t="s">
+        <v>573</v>
+      </c>
+      <c r="C127" t="s">
+        <v>662</v>
+      </c>
+      <c r="D127" t="s">
+        <v>479</v>
+      </c>
+      <c r="E127" t="s">
         <v>480</v>
       </c>
-      <c r="B127" t="s">
-        <v>565</v>
-      </c>
-      <c r="C127" t="s">
-        <v>656</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
+        <v>774</v>
+      </c>
+      <c r="G127" t="s">
         <v>481</v>
       </c>
-      <c r="E127" t="s">
+      <c r="H127" t="s">
         <v>482</v>
-      </c>
-      <c r="F127" t="s">
-        <v>768</v>
-      </c>
-      <c r="G127" t="s">
-        <v>483</v>
-      </c>
-      <c r="H127" t="s">
-        <v>484</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -6075,28 +6083,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>483</v>
+      </c>
+      <c r="B128" t="s">
+        <v>576</v>
+      </c>
+      <c r="C128" t="s">
+        <v>663</v>
+      </c>
+      <c r="D128" t="s">
+        <v>484</v>
+      </c>
+      <c r="E128" t="s">
         <v>485</v>
       </c>
-      <c r="B128" t="s">
-        <v>565</v>
-      </c>
-      <c r="C128" t="s">
-        <v>657</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
+        <v>775</v>
+      </c>
+      <c r="G128" t="s">
         <v>486</v>
       </c>
-      <c r="E128" t="s">
+      <c r="H128" t="s">
         <v>487</v>
-      </c>
-      <c r="F128" t="s">
-        <v>769</v>
-      </c>
-      <c r="G128" t="s">
-        <v>488</v>
-      </c>
-      <c r="H128" t="s">
-        <v>489</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
@@ -6105,28 +6113,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>488</v>
+      </c>
+      <c r="B129" t="s">
+        <v>573</v>
+      </c>
+      <c r="C129" t="s">
+        <v>664</v>
+      </c>
+      <c r="D129" t="s">
+        <v>489</v>
+      </c>
+      <c r="E129" t="s">
         <v>490</v>
       </c>
-      <c r="B129" t="s">
-        <v>565</v>
-      </c>
-      <c r="C129" t="s">
-        <v>658</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
+        <v>776</v>
+      </c>
+      <c r="G129" t="s">
         <v>491</v>
       </c>
-      <c r="E129" t="s">
+      <c r="H129" t="s">
         <v>492</v>
-      </c>
-      <c r="F129" t="s">
-        <v>770</v>
-      </c>
-      <c r="G129" t="s">
-        <v>493</v>
-      </c>
-      <c r="H129" t="s">
-        <v>494</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
@@ -6135,28 +6143,28 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>493</v>
+      </c>
+      <c r="B130" t="s">
+        <v>573</v>
+      </c>
+      <c r="C130" t="s">
+        <v>665</v>
+      </c>
+      <c r="D130" t="s">
+        <v>494</v>
+      </c>
+      <c r="E130" t="s">
         <v>495</v>
       </c>
-      <c r="B130" t="s">
-        <v>565</v>
-      </c>
-      <c r="C130" t="s">
-        <v>659</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
+        <v>777</v>
+      </c>
+      <c r="G130" t="s">
         <v>496</v>
       </c>
-      <c r="E130" t="s">
+      <c r="H130" t="s">
         <v>497</v>
-      </c>
-      <c r="F130" t="s">
-        <v>771</v>
-      </c>
-      <c r="G130" t="s">
-        <v>498</v>
-      </c>
-      <c r="H130" t="s">
-        <v>499</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
@@ -6165,28 +6173,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>498</v>
+      </c>
+      <c r="B131" t="s">
+        <v>573</v>
+      </c>
+      <c r="C131" t="s">
+        <v>666</v>
+      </c>
+      <c r="D131" t="s">
+        <v>499</v>
+      </c>
+      <c r="E131" t="s">
         <v>500</v>
       </c>
-      <c r="B131" t="s">
-        <v>565</v>
-      </c>
-      <c r="C131" t="s">
-        <v>660</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
+        <v>778</v>
+      </c>
+      <c r="G131" t="s">
         <v>501</v>
       </c>
-      <c r="E131" t="s">
+      <c r="H131" t="s">
         <v>502</v>
-      </c>
-      <c r="F131" t="s">
-        <v>772</v>
-      </c>
-      <c r="G131" t="s">
-        <v>503</v>
-      </c>
-      <c r="H131" t="s">
-        <v>504</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
@@ -6195,28 +6203,28 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>503</v>
+      </c>
+      <c r="B132" t="s">
+        <v>573</v>
+      </c>
+      <c r="C132" t="s">
+        <v>667</v>
+      </c>
+      <c r="D132" t="s">
+        <v>504</v>
+      </c>
+      <c r="E132" t="s">
         <v>505</v>
       </c>
-      <c r="B132" t="s">
-        <v>565</v>
-      </c>
-      <c r="C132" t="s">
-        <v>661</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
+        <v>779</v>
+      </c>
+      <c r="G132" t="s">
         <v>506</v>
       </c>
-      <c r="E132" t="s">
+      <c r="H132" t="s">
         <v>507</v>
-      </c>
-      <c r="F132" t="s">
-        <v>773</v>
-      </c>
-      <c r="G132" t="s">
-        <v>508</v>
-      </c>
-      <c r="H132" t="s">
-        <v>509</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
@@ -6225,28 +6233,28 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>508</v>
+      </c>
+      <c r="B133" t="s">
+        <v>573</v>
+      </c>
+      <c r="C133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D133" t="s">
+        <v>509</v>
+      </c>
+      <c r="E133" t="s">
         <v>510</v>
       </c>
-      <c r="B133" t="s">
-        <v>565</v>
-      </c>
-      <c r="C133" t="s">
-        <v>662</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="F133" t="s">
+        <v>780</v>
+      </c>
+      <c r="G133" t="s">
         <v>511</v>
       </c>
-      <c r="E133" t="s">
+      <c r="H133" t="s">
         <v>512</v>
-      </c>
-      <c r="F133" t="s">
-        <v>774</v>
-      </c>
-      <c r="G133" t="s">
-        <v>513</v>
-      </c>
-      <c r="H133" t="s">
-        <v>514</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
@@ -6255,28 +6263,28 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>513</v>
+      </c>
+      <c r="B134" t="s">
+        <v>573</v>
+      </c>
+      <c r="C134" t="s">
+        <v>669</v>
+      </c>
+      <c r="D134" t="s">
+        <v>514</v>
+      </c>
+      <c r="E134" t="s">
         <v>515</v>
       </c>
-      <c r="B134" t="s">
-        <v>565</v>
-      </c>
-      <c r="C134" t="s">
-        <v>662</v>
-      </c>
-      <c r="D134" t="s">
-        <v>511</v>
-      </c>
-      <c r="E134" t="s">
-        <v>512</v>
-      </c>
       <c r="F134" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="G134" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H134" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J134"/>
       <c r="K134"/>
@@ -6285,28 +6293,28 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B135" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C135" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D135" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E135" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F135" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="G135" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H135" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J135"/>
       <c r="K135"/>
@@ -6315,28 +6323,28 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B136" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C136" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="D136" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E136" t="s">
+        <v>520</v>
+      </c>
+      <c r="F136" t="s">
+        <v>782</v>
+      </c>
+      <c r="G136" t="s">
+        <v>521</v>
+      </c>
+      <c r="H136" t="s">
         <v>524</v>
-      </c>
-      <c r="F136" t="s">
-        <v>776</v>
-      </c>
-      <c r="G136" t="s">
-        <v>525</v>
-      </c>
-      <c r="H136" t="s">
-        <v>526</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
@@ -6345,28 +6353,28 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>525</v>
+      </c>
+      <c r="B137" t="s">
+        <v>573</v>
+      </c>
+      <c r="C137" t="s">
+        <v>671</v>
+      </c>
+      <c r="D137" t="s">
+        <v>526</v>
+      </c>
+      <c r="E137" t="s">
         <v>527</v>
       </c>
-      <c r="B137" t="s">
-        <v>565</v>
-      </c>
-      <c r="C137" t="s">
-        <v>665</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
+        <v>783</v>
+      </c>
+      <c r="G137" t="s">
         <v>528</v>
       </c>
-      <c r="E137" t="s">
+      <c r="H137" t="s">
         <v>529</v>
-      </c>
-      <c r="F137" t="s">
-        <v>777</v>
-      </c>
-      <c r="G137" t="s">
-        <v>530</v>
-      </c>
-      <c r="H137" t="s">
-        <v>531</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
@@ -6375,28 +6383,28 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>530</v>
+      </c>
+      <c r="B138" t="s">
+        <v>573</v>
+      </c>
+      <c r="C138" t="s">
+        <v>672</v>
+      </c>
+      <c r="D138" t="s">
+        <v>531</v>
+      </c>
+      <c r="E138" t="s">
         <v>532</v>
       </c>
-      <c r="B138" t="s">
-        <v>565</v>
-      </c>
-      <c r="C138" t="s">
-        <v>666</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="F138" t="s">
+        <v>784</v>
+      </c>
+      <c r="G138" t="s">
         <v>533</v>
       </c>
-      <c r="E138" t="s">
+      <c r="H138" t="s">
         <v>534</v>
-      </c>
-      <c r="F138" t="s">
-        <v>778</v>
-      </c>
-      <c r="G138" t="s">
-        <v>535</v>
-      </c>
-      <c r="H138" t="s">
-        <v>536</v>
       </c>
       <c r="J138"/>
       <c r="K138"/>
@@ -6405,28 +6413,28 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>535</v>
+      </c>
+      <c r="B139" t="s">
+        <v>573</v>
+      </c>
+      <c r="C139" t="s">
+        <v>673</v>
+      </c>
+      <c r="D139" t="s">
+        <v>536</v>
+      </c>
+      <c r="E139" t="s">
         <v>537</v>
       </c>
-      <c r="B139" t="s">
-        <v>565</v>
-      </c>
-      <c r="C139" t="s">
-        <v>667</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
+        <v>785</v>
+      </c>
+      <c r="G139" t="s">
         <v>538</v>
       </c>
-      <c r="E139" t="s">
+      <c r="H139" t="s">
         <v>539</v>
-      </c>
-      <c r="F139" t="s">
-        <v>779</v>
-      </c>
-      <c r="G139" t="s">
-        <v>540</v>
-      </c>
-      <c r="H139" t="s">
-        <v>541</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
@@ -6435,28 +6443,28 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>540</v>
+      </c>
+      <c r="B140" t="s">
+        <v>573</v>
+      </c>
+      <c r="C140" t="s">
+        <v>674</v>
+      </c>
+      <c r="D140" t="s">
+        <v>541</v>
+      </c>
+      <c r="E140" t="s">
         <v>542</v>
       </c>
-      <c r="B140" t="s">
-        <v>584</v>
-      </c>
-      <c r="C140" t="s">
-        <v>668</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="F140" t="s">
+        <v>786</v>
+      </c>
+      <c r="G140" t="s">
         <v>543</v>
       </c>
-      <c r="E140" t="s">
+      <c r="H140" t="s">
         <v>544</v>
-      </c>
-      <c r="F140" t="s">
-        <v>780</v>
-      </c>
-      <c r="G140" t="s">
-        <v>545</v>
-      </c>
-      <c r="H140" t="s">
-        <v>546</v>
       </c>
       <c r="J140"/>
       <c r="K140"/>
@@ -6465,28 +6473,28 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>545</v>
+      </c>
+      <c r="B141" t="s">
+        <v>573</v>
+      </c>
+      <c r="C141" t="s">
+        <v>675</v>
+      </c>
+      <c r="D141" t="s">
+        <v>546</v>
+      </c>
+      <c r="E141" t="s">
         <v>547</v>
       </c>
-      <c r="B141" t="s">
-        <v>569</v>
-      </c>
-      <c r="C141" t="s">
-        <v>669</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G141" t="s">
         <v>548</v>
       </c>
-      <c r="E141" t="s">
+      <c r="H141" t="s">
         <v>549</v>
-      </c>
-      <c r="F141" t="s">
-        <v>781</v>
-      </c>
-      <c r="G141" t="s">
-        <v>550</v>
-      </c>
-      <c r="H141" t="s">
-        <v>551</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
@@ -6495,33 +6503,93 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>550</v>
+      </c>
+      <c r="B142" t="s">
+        <v>592</v>
+      </c>
+      <c r="C142" t="s">
+        <v>676</v>
+      </c>
+      <c r="D142" t="s">
+        <v>551</v>
+      </c>
+      <c r="E142" t="s">
         <v>552</v>
       </c>
-      <c r="B142" t="s">
-        <v>569</v>
-      </c>
-      <c r="C142" t="s">
-        <v>670</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="F142" t="s">
+        <v>788</v>
+      </c>
+      <c r="G142" t="s">
         <v>553</v>
       </c>
-      <c r="E142" t="s">
+      <c r="H142" t="s">
         <v>554</v>
-      </c>
-      <c r="F142" t="s">
-        <v>782</v>
-      </c>
-      <c r="G142" t="s">
-        <v>555</v>
-      </c>
-      <c r="H142" t="s">
-        <v>556</v>
       </c>
       <c r="J142"/>
       <c r="K142"/>
       <c r="M142"/>
       <c r="N142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>555</v>
+      </c>
+      <c r="B143" t="s">
+        <v>577</v>
+      </c>
+      <c r="C143" t="s">
+        <v>677</v>
+      </c>
+      <c r="D143" t="s">
+        <v>556</v>
+      </c>
+      <c r="E143" t="s">
+        <v>557</v>
+      </c>
+      <c r="F143" t="s">
+        <v>789</v>
+      </c>
+      <c r="G143" t="s">
+        <v>558</v>
+      </c>
+      <c r="H143" t="s">
+        <v>559</v>
+      </c>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>560</v>
+      </c>
+      <c r="B144" t="s">
+        <v>577</v>
+      </c>
+      <c r="C144" t="s">
+        <v>678</v>
+      </c>
+      <c r="D144" t="s">
+        <v>561</v>
+      </c>
+      <c r="E144" t="s">
+        <v>562</v>
+      </c>
+      <c r="F144" t="s">
+        <v>790</v>
+      </c>
+      <c r="G144" t="s">
+        <v>563</v>
+      </c>
+      <c r="H144" t="s">
+        <v>564</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="M144"/>
+      <c r="N144"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>

--- a/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
